--- a/example_original.xlsx
+++ b/example_original.xlsx
@@ -479,7 +479,7 @@
         <v>0.2056298146934876</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6116996611329786</v>
+        <v>-2.233993222659571</v>
       </c>
       <c r="D2" t="n">
         <v>0.3968529614114208</v>
@@ -509,7 +509,7 @@
         <v>-1.034136999056765</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.936162030099156</v>
+        <v>-48.72324060198313</v>
       </c>
       <c r="D3" t="n">
         <v>6.596921718596537</v>
@@ -539,7 +539,7 @@
         <v>-0.8893519930792078</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8854908865878482</v>
+        <v>-7.709817731756964</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
@@ -567,7 +567,7 @@
         <v>1.378284093622674</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1618881862402564</v>
+        <v>13.23776372480513</v>
       </c>
       <c r="D5" t="n">
         <v>0.01457982565392214</v>
@@ -597,7 +597,7 @@
         <v>-0.3627565327995561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6886080536900302</v>
+        <v>23.7721610738006</v>
       </c>
       <c r="D6" t="n">
         <v>0.04732251709299887</v>
@@ -625,7 +625,7 @@
         <v>-0.5515608089240098</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07929665752844665</v>
+        <v>8.414066849431066</v>
       </c>
       <c r="D7" t="n">
         <v>8.271992639779519</v>
@@ -655,7 +655,7 @@
         <v>-1.343871605559275</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4789860470756154</v>
+        <v>0.4202790584876919</v>
       </c>
       <c r="D8" t="n">
         <v>1.501471289090898</v>
@@ -685,7 +685,7 @@
         <v>0.8506776374742393</v>
       </c>
       <c r="C9" t="n">
-        <v>2.293211005699324</v>
+        <v>55.86422011398648</v>
       </c>
       <c r="D9" t="n">
         <v>5.05484348909982</v>
@@ -715,7 +715,7 @@
         <v>-1.055925813510843</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3724861215053544</v>
+        <v>2.550277569892911</v>
       </c>
       <c r="D10" t="n">
         <v>3.027645452804173</v>
@@ -745,7 +745,7 @@
         <v>-0.0152926609614581</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6122326867911058</v>
+        <v>22.24465373582212</v>
       </c>
       <c r="D11" t="n">
         <v>9.954590408119268</v>
@@ -775,7 +775,7 @@
         <v>-1.708185069316591</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.335052095426896</v>
+        <v>-16.70104190853792</v>
       </c>
       <c r="D12" t="n">
         <v>12.44223132033899</v>
@@ -805,7 +805,7 @@
         <v>0.8181728003641165</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.090167849208967</v>
+        <v>-11.80335698417934</v>
       </c>
       <c r="D13" t="n">
         <v>28.73508795277577</v>
@@ -835,7 +835,7 @@
         <v>1.176856243618581</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6473256114622247</v>
+        <v>22.94651222924449</v>
       </c>
       <c r="D14" t="n">
         <v>0.8343131356408346</v>
@@ -865,7 +865,7 @@
         <v>0.4845203454780153</v>
       </c>
       <c r="C15" t="n">
-        <v>1.044561275785371</v>
+        <v>30.89122551570742</v>
       </c>
       <c r="D15" t="n">
         <v>9.937559765491686</v>
@@ -895,7 +895,7 @@
         <v>-1.534480131405297</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3897168901934041</v>
+        <v>2.205662196131918</v>
       </c>
       <c r="D16" t="n">
         <v>1.546376872002219</v>
@@ -925,7 +925,7 @@
         <v>0.8387621439092308</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.848635691630521</v>
+        <v>-26.97271383261041</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
@@ -951,7 +951,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>-0.1675573394012255</v>
+        <v>6.64885321197549</v>
       </c>
       <c r="D18" t="n">
         <v>3.523800085129269</v>
@@ -981,7 +981,7 @@
         <v>-1.170971878721612</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1894059007795616</v>
+        <v>13.78811801559123</v>
       </c>
       <c r="D19" t="n">
         <v>0.09075942362770326</v>
@@ -1011,7 +1011,7 @@
         <v>-0.3834610457576533</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09881803892882439</v>
+        <v>11.97636077857649</v>
       </c>
       <c r="D20" t="n">
         <v>13.49827370202538</v>
@@ -1037,7 +1037,7 @@
         <v>-0.4033676733464894</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5633896649610052</v>
+        <v>-1.267793299220104</v>
       </c>
       <c r="D21" t="n">
         <v>0.4078242097200586</v>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>-0.1528841192609383</v>
+        <v>6.942317614781235</v>
       </c>
       <c r="D22" t="n">
         <v>5.82727001111487</v>
@@ -1095,7 +1095,7 @@
         <v>1.273674247904694</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7497768442841058</v>
+        <v>-4.995536885682117</v>
       </c>
       <c r="D23" t="n">
         <v>7.68574523838743</v>
@@ -1125,7 +1125,7 @@
         <v>2.011825996442627</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.11183822373686</v>
+        <v>-12.2367644747372</v>
       </c>
       <c r="D24" t="n">
         <v>7.930752141352411</v>
@@ -1155,7 +1155,7 @@
         <v>-1.369136537349465</v>
       </c>
       <c r="C25" t="n">
-        <v>0.755668520646805</v>
+        <v>25.1133704129361</v>
       </c>
       <c r="D25" t="n">
         <v>0.7279881685780552</v>
@@ -1185,7 +1185,7 @@
         <v>-0.6888323943245903</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09779831340271064</v>
+        <v>11.95596626805421</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
@@ -1213,7 +1213,7 @@
         <v>0.1427483360449567</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1506835586223298</v>
+        <v>6.986328827553404</v>
       </c>
       <c r="D27" t="n">
         <v>8.843014435247351</v>
@@ -1243,7 +1243,7 @@
         <v>-0.3887164909372275</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.5071477427721613</v>
+        <v>-0.1429548554432269</v>
       </c>
       <c r="D28" t="n">
         <v>1.802548653710351</v>
@@ -1273,7 +1273,7 @@
         <v>0.3993987492785162</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1801735565350799</v>
+        <v>6.396528869298403</v>
       </c>
       <c r="D29" t="n">
         <v>3.153197432419556</v>
@@ -1303,7 +1303,7 @@
         <v>0.915985355945795</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1603164287869965</v>
+        <v>13.20632857573993</v>
       </c>
       <c r="D30" t="n">
         <v>1.592726688882922</v>
@@ -1333,7 +1333,7 @@
         <v>0.7493659422700412</v>
       </c>
       <c r="C31" t="n">
-        <v>1.728681575814307</v>
+        <v>44.57363151628613</v>
       </c>
       <c r="D31" t="n">
         <v>3.113922804961518</v>
@@ -1359,7 +1359,7 @@
         <v>0.609733567849832</v>
       </c>
       <c r="C32" t="n">
-        <v>0.654536849827144</v>
+        <v>23.09073699654288</v>
       </c>
       <c r="D32" t="n">
         <v>10.93905167024634</v>
@@ -1389,7 +1389,7 @@
         <v>1.659095520919723</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.6663091219490861</v>
+        <v>-3.326182438981721</v>
       </c>
       <c r="D33" t="n">
         <v>3.035987285759215</v>
@@ -1419,7 +1419,7 @@
         <v>-1.58894728291611</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6557637427056909</v>
+        <v>-3.115274854113819</v>
       </c>
       <c r="D34" t="n">
         <v>4.058662882192195</v>
@@ -1449,7 +1449,7 @@
         <v>1.480108791954615</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.8116811003245956</v>
+        <v>-6.233622006491913</v>
       </c>
       <c r="D35" t="n">
         <v>2.587374097964403</v>
@@ -1475,7 +1475,7 @@
         <v>-0.4129916340897437</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2005205312529744</v>
+        <v>5.989589374940513</v>
       </c>
       <c r="D36" t="n">
         <v>3.082015844525477</v>
@@ -1501,7 +1501,7 @@
         <v>0.7851252206756268</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.8124514502408846</v>
+        <v>-6.249029004817693</v>
       </c>
       <c r="D37" t="n">
         <v>0.07645252636977175</v>
@@ -1555,7 +1555,7 @@
         <v>-0.9084963918932777</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.643516255798053</v>
+        <v>-42.87032511596106</v>
       </c>
       <c r="D39" t="n">
         <v>2.868664906466778</v>
@@ -1585,7 +1585,7 @@
         <v>0.6621172914820275</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5351683092747441</v>
+        <v>20.70336618549488</v>
       </c>
       <c r="D40" t="n">
         <v>5.022836944866671</v>
@@ -1615,7 +1615,7 @@
         <v>-1.928730022749846</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2753774878054306</v>
+        <v>15.50754975610861</v>
       </c>
       <c r="D41" t="n">
         <v>2.989657122011438</v>
@@ -1641,7 +1641,7 @@
         <v>0.9894420782883125</v>
       </c>
       <c r="C42" t="n">
-        <v>1.262742483147639</v>
+        <v>35.25484966295279</v>
       </c>
       <c r="D42" t="n">
         <v>2.061066958116425</v>
@@ -1671,7 +1671,7 @@
         <v>1.259963502341588</v>
       </c>
       <c r="C43" t="n">
-        <v>0.876789554553953</v>
+        <v>27.53579109107906</v>
       </c>
       <c r="D43" t="n">
         <v>2.455921708734774</v>
@@ -1701,7 +1701,7 @@
         <v>0.1777848538289601</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.6836977852540534</v>
+        <v>-3.673955705081069</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
@@ -1729,7 +1729,7 @@
         <v>0.1417610355785572</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7642980809385072</v>
+        <v>25.28596161877014</v>
       </c>
       <c r="D45" t="n">
         <v>12.91773450373579</v>
@@ -1759,7 +1759,7 @@
         <v>-0.8336361449084521</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1680674772143007</v>
+        <v>6.638650455713986</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
@@ -1787,7 +1787,7 @@
         <v>0.6744494024036684</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.93430675744427</v>
+        <v>-28.6861351488854</v>
       </c>
       <c r="D47" t="n">
         <v>0.06750086251506127</v>
@@ -1815,7 +1815,7 @@
         <v>0.347665246407426</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1588319397288918</v>
+        <v>13.17663879457784</v>
       </c>
       <c r="D48" t="n">
         <v>0.09818912232424952</v>
@@ -1845,7 +1845,7 @@
         <v>-0.921505396023823</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6242534205706949</v>
+        <v>-2.485068411413899</v>
       </c>
       <c r="D49" t="n">
         <v>18.05249246919064</v>
@@ -1873,7 +1873,7 @@
         <v>-0.391479950088192</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0002215163969999024</v>
+        <v>10.00443032794</v>
       </c>
       <c r="D50" t="n">
         <v>1.251616043049686</v>
@@ -1903,7 +1903,7 @@
         <v>-0.1593354246958035</v>
       </c>
       <c r="C51" t="n">
-        <v>1.651449830275244</v>
+        <v>43.02899660550487</v>
       </c>
       <c r="D51" t="n">
         <v>8.189400128992691</v>
@@ -1933,7 +1933,7 @@
         <v>-0.392802196519187</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2247869027321584</v>
+        <v>14.49573805464317</v>
       </c>
       <c r="D52" t="n">
         <v>0.3002114965360663</v>
@@ -1963,7 +1963,7 @@
         <v>-1.362911413349975</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.017334851189996</v>
+        <v>-10.34669702379993</v>
       </c>
       <c r="D53" t="n">
         <v>12.70184754653021</v>
@@ -1993,7 +1993,7 @@
         <v>0.6990203085838954</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9644150056162036</v>
+        <v>29.28830011232407</v>
       </c>
       <c r="D54" t="n">
         <v>10.37394206812221</v>
@@ -2023,7 +2023,7 @@
         <v>-0.2435104559018947</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3625425701364385</v>
+        <v>17.25085140272877</v>
       </c>
       <c r="D55" t="n">
         <v>4.232577727445925</v>
@@ -2053,7 +2053,7 @@
         <v>0.01536477589330941</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.135161829031908</v>
+        <v>-12.70323658063817</v>
       </c>
       <c r="D56" t="n">
         <v>0.04519694871062122</v>
@@ -2079,7 +2079,7 @@
         <v>-0.5782665873974266</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.606237767474656</v>
+        <v>-22.12475534949312</v>
       </c>
       <c r="D57" t="n">
         <v>1.490755907659339</v>
@@ -2109,7 +2109,7 @@
         <v>0.4752714739719898</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.9773375592187207</v>
+        <v>-9.546751184374415</v>
       </c>
       <c r="D58" t="n">
         <v>2.611309238996353</v>
@@ -2139,7 +2139,7 @@
         <v>0.1986961843814033</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8363018006717221</v>
+        <v>26.72603601343444</v>
       </c>
       <c r="D59" t="n">
         <v>3.081524405955243</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>-0.3016021336430461</v>
+        <v>3.967957327139079</v>
       </c>
       <c r="D60" t="n">
         <v>1.766821853709155</v>
@@ -2195,7 +2195,7 @@
         <v>0.4805987129389843</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08114251895541082</v>
+        <v>11.62285037910822</v>
       </c>
       <c r="D61" t="n">
         <v>0.1675143708536865</v>
@@ -2225,7 +2225,7 @@
         <v>-0.2026844018371108</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.338529670776169</v>
+        <v>-16.77059341552337</v>
       </c>
       <c r="D62" t="n">
         <v>4.459544568688373</v>
@@ -2283,7 +2283,7 @@
         <v>0.865952683916645</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.015183664357737</v>
+        <v>-30.30367328715474</v>
       </c>
       <c r="D64" t="n">
         <v>1.663401623079664</v>
@@ -2313,7 +2313,7 @@
         <v>-0.2825760987864578</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.6553775160676849</v>
+        <v>-3.107550321353699</v>
       </c>
       <c r="D65" t="n">
         <v>0.1935792344604659</v>
@@ -2369,7 +2369,7 @@
         <v>-0.1719716062926747</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.122631445039345</v>
+        <v>-12.45262890078691</v>
       </c>
       <c r="D67" t="n">
         <v>3.288766853599526</v>
@@ -2399,7 +2399,7 @@
         <v>-0.4016077106571294</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6141292794504429</v>
+        <v>22.28258558900886</v>
       </c>
       <c r="D68" t="n">
         <v>7.053022190800162</v>
@@ -2429,7 +2429,7 @@
         <v>-0.1545389942298694</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.8691939785516023</v>
+        <v>-7.383879571032047</v>
       </c>
       <c r="D69" t="n">
         <v>3.010266064784342</v>
@@ -2459,7 +2459,7 @@
         <v>1.926207562732578</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.226070592816307</v>
+        <v>-14.52141185632614</v>
       </c>
       <c r="D70" t="n">
         <v>0.2206492287416308</v>
@@ -2513,7 +2513,7 @@
         <v>-0.8145042107616101</v>
       </c>
       <c r="C72" t="n">
-        <v>0.153930193099005</v>
+        <v>13.0786038619801</v>
       </c>
       <c r="D72" t="n">
         <v>1.929122329991892</v>
@@ -2543,7 +2543,7 @@
         <v>1.38432441815425</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5190360780496264</v>
+        <v>20.38072156099253</v>
       </c>
       <c r="D73" t="n">
         <v>9.111698700069619</v>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>1.018209584552697</v>
+        <v>30.36419169105394</v>
       </c>
       <c r="D74" t="n">
         <v>5.309907006099261</v>
@@ -2601,7 +2601,7 @@
         <v>-0.450621284074895</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.61929894950093</v>
+        <v>-42.3859789900186</v>
       </c>
       <c r="D75" t="n">
         <v>1.610883852706125</v>
@@ -2631,7 +2631,7 @@
         <v>1.034863856773434</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6347826399703193</v>
+        <v>22.69565279940639</v>
       </c>
       <c r="D76" t="n">
         <v>17.16962900401029</v>
@@ -2661,7 +2661,7 @@
         <v>-1.420195617281751</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.7610251844943472</v>
+        <v>-5.220503689886943</v>
       </c>
       <c r="D77" t="n">
         <v>1.939662279210323</v>
@@ -2691,7 +2691,7 @@
         <v>0.8214544292534056</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.6292727907739142</v>
+        <v>-2.585455815478284</v>
       </c>
       <c r="D78" t="n">
         <v>31.69526401228389</v>
@@ -2721,7 +2721,7 @@
         <v>0.04561642932154383</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4374410776655865</v>
+        <v>18.74882155331173</v>
       </c>
       <c r="D79" t="n">
         <v>27.81622569131376</v>
@@ -2779,7 +2779,7 @@
         <v>0.4460309552521258</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5945210754565203</v>
+        <v>21.89042150913041</v>
       </c>
       <c r="D81" t="n">
         <v>1.875221127059817</v>
@@ -2835,7 +2835,7 @@
         <v>1.051183780149906</v>
       </c>
       <c r="C83" t="n">
-        <v>0.168209014684057</v>
+        <v>13.36418029368114</v>
       </c>
       <c r="D83" t="n">
         <v>5.454718902122538</v>
@@ -2865,7 +2865,7 @@
         <v>-0.5501377114780691</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.4902215920152894</v>
+        <v>0.1955681596942132</v>
       </c>
       <c r="D84" t="n">
         <v>3.754384130001184</v>
@@ -2895,7 +2895,7 @@
         <v>0.4088490189987417</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.064933289158138</v>
+        <v>-11.29866578316276</v>
       </c>
       <c r="D85" t="n">
         <v>17.44055694769449</v>
@@ -2923,7 +2923,7 @@
         <v>1.237724485529136</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.740317570747505</v>
+        <v>-4.8063514149501</v>
       </c>
       <c r="D86" t="n">
         <v>6.436575770100154</v>
@@ -2953,7 +2953,7 @@
         <v>1.378901699846469</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1028241304799444</v>
+        <v>7.943517390401111</v>
       </c>
       <c r="D87" t="n">
         <v>1.191570531023158</v>
@@ -2983,7 +2983,7 @@
         <v>-0.2671263359406924</v>
       </c>
       <c r="C88" t="n">
-        <v>1.837238392774539</v>
+        <v>46.74476785549078</v>
       </c>
       <c r="D88" t="n">
         <v>0.5552028064987014</v>
@@ -3013,7 +3013,7 @@
         <v>0.4631352742410105</v>
       </c>
       <c r="C89" t="n">
-        <v>1.471906399113542</v>
+        <v>39.43812798227084</v>
       </c>
       <c r="D89" t="n">
         <v>5.830195535967995</v>
@@ -3043,7 +3043,7 @@
         <v>-0.3594887902036196</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.6532959778593946</v>
+        <v>-3.065919557187893</v>
       </c>
       <c r="D90" t="n">
         <v>0.8625637452038154</v>
@@ -3073,7 +3073,7 @@
         <v>2.503796227268774</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06025767733247524</v>
+        <v>11.20515354664951</v>
       </c>
       <c r="D91" t="n">
         <v>7.748229134475758</v>
@@ -3101,7 +3101,7 @@
         <v>0.7801260058738185</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.2877229739460477</v>
+        <v>4.245540521079047</v>
       </c>
       <c r="D92" t="n">
         <v>1.8628361373464</v>
@@ -3131,7 +3131,7 @@
         <v>0.08405843583693569</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1302666188690242</v>
+        <v>12.60533237738048</v>
       </c>
       <c r="D93" t="n">
         <v>1.979256815920951</v>
@@ -3161,7 +3161,7 @@
         <v>0.3125621734577426</v>
       </c>
       <c r="C94" t="n">
-        <v>0.258912747542776</v>
+        <v>15.17825495085552</v>
       </c>
       <c r="D94" t="n">
         <v>0.05428559086978131</v>
@@ -3191,7 +3191,7 @@
         <v>0.4071054154460675</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5275150157556011</v>
+        <v>20.55030031511202</v>
       </c>
       <c r="D95" t="n">
         <v>6.036746944467834</v>
@@ -3219,7 +3219,7 @@
         <v>0.4367435407834821</v>
       </c>
       <c r="C96" t="n">
-        <v>-2.901138781817409</v>
+        <v>-48.02277563634817</v>
       </c>
       <c r="D96" t="n">
         <v>0.6010723068771389</v>
@@ -3249,7 +3249,7 @@
         <v>-0.239998217646557</v>
       </c>
       <c r="C97" t="n">
-        <v>0.36649866588694</v>
+        <v>17.3299733177388</v>
       </c>
       <c r="D97" t="n">
         <v>7.411396546843628</v>
@@ -3279,7 +3279,7 @@
         <v>-0.3943272992351749</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.398921029216647</v>
+        <v>2.02157941566706</v>
       </c>
       <c r="D98" t="n">
         <v>3.385068360858192</v>
@@ -3305,7 +3305,7 @@
         <v>-0.1518533617264932</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.7049379142316038</v>
+        <v>-4.098758284632076</v>
       </c>
       <c r="D99" t="n">
         <v>7.668865753548506</v>
@@ -3335,7 +3335,7 @@
         <v>-1.139691705047208</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7942566781620701</v>
+        <v>25.8851335632414</v>
       </c>
       <c r="D100" t="n">
         <v>4.384467229219069</v>
@@ -3365,7 +3365,7 @@
         <v>0.7182744069744601</v>
       </c>
       <c r="C101" t="n">
-        <v>1.466824416404769</v>
+        <v>39.33648832809537</v>
       </c>
       <c r="D101" t="n">
         <v>0.4301498682663551</v>
@@ -3393,7 +3393,7 @@
         <v>-0.8017050426489727</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6890031440414071</v>
+        <v>23.78006288082814</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
@@ -3421,7 +3421,7 @@
         <v>-1.059950078984717</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.5185516072110946</v>
+        <v>-0.3710321442218927</v>
       </c>
       <c r="D103" t="n">
         <v>0.361775542173841</v>
@@ -3451,7 +3451,7 @@
         <v>-0.01435446656414877</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.076005650138911</v>
+        <v>-11.52011300277821</v>
       </c>
       <c r="D104" t="n">
         <v>3.257164438746807</v>
@@ -3481,7 +3481,7 @@
         <v>-0.1301226296898867</v>
       </c>
       <c r="C105" t="n">
-        <v>-3.00624442810968</v>
+        <v>-50.1248885621936</v>
       </c>
       <c r="D105" t="n">
         <v>0.9458198488738402</v>
@@ -3511,7 +3511,7 @@
         <v>0.2496344757889885</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1825159965813558</v>
+        <v>13.65031993162712</v>
       </c>
       <c r="D106" t="n">
         <v>6.978394855269865</v>
@@ -3541,7 +3541,7 @@
         <v>-0.5682053693964096</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5790161077944365</v>
+        <v>21.58032215588873</v>
       </c>
       <c r="D107" t="n">
         <v>12.12892040649717</v>
@@ -3569,7 +3569,7 @@
         <v>-0.3925425582309735</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1018635100980303</v>
+        <v>7.962729798039394</v>
       </c>
       <c r="D108" t="n">
         <v>4.038596222321877</v>
@@ -3627,7 +3627,7 @@
         <v>0.6312172004951938</v>
       </c>
       <c r="C110" t="n">
-        <v>-1.320190235832492</v>
+        <v>-16.40380471664985</v>
       </c>
       <c r="D110" t="n">
         <v>7.218837691711557</v>
@@ -3657,7 +3657,7 @@
         <v>0.5895250461766781</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.1712389564550487</v>
+        <v>6.575220870899026</v>
       </c>
       <c r="D111" t="n">
         <v>0.02545876990787901</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>-0.1101086842560662</v>
+        <v>7.797826314878675</v>
       </c>
       <c r="D113" t="n">
         <v>1.099798233430441</v>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>1.167931662953907</v>
+        <v>33.35863325907815</v>
       </c>
       <c r="D114" t="n">
         <v>20.71312268806455</v>
@@ -3769,7 +3769,7 @@
         <v>-0.6560417398089765</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.1048422240987626</v>
+        <v>7.903155518024747</v>
       </c>
       <c r="D115" t="n">
         <v>6.663842814371819</v>
@@ -3799,7 +3799,7 @@
         <v>1.474046600146101</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.2947924507725295</v>
+        <v>4.104150984549411</v>
       </c>
       <c r="D116" t="n">
         <v>7.441660853216762</v>
@@ -3829,7 +3829,7 @@
         <v>1.331588032487699</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.9366934798105313</v>
+        <v>-8.733869596210624</v>
       </c>
       <c r="D117" t="n">
         <v>5.338519274938973</v>
@@ -3859,7 +3859,7 @@
         <v>0.7942455910009673</v>
       </c>
       <c r="C118" t="n">
-        <v>1.32857947142146</v>
+        <v>36.57158942842919</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="n">
@@ -3887,7 +3887,7 @@
         <v>-0.4258615864015977</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.431196222578627</v>
+        <v>-18.62392445157255</v>
       </c>
       <c r="D119" t="n">
         <v>4.238812930991185</v>
@@ -3917,7 +3917,7 @@
         <v>0.5391441179501503</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.5529994328474125</v>
+        <v>-1.059988656948249</v>
       </c>
       <c r="D120" t="n">
         <v>0.2375700455883378</v>
@@ -3947,7 +3947,7 @@
         <v>0.9783699377697719</v>
       </c>
       <c r="C121" t="n">
-        <v>1.693937067097493</v>
+        <v>43.87874134194986</v>
       </c>
       <c r="D121" t="n">
         <v>4.890292268546657</v>
@@ -3977,7 +3977,7 @@
         <v>-1.223196901721143</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4682432980715345</v>
+        <v>19.36486596143069</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="n">
@@ -4005,7 +4005,7 @@
         <v>1.694511761698497</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.02017665170127015</v>
+        <v>9.596466965974598</v>
       </c>
       <c r="D123" t="n">
         <v>11.09125636823951</v>
@@ -4035,7 +4035,7 @@
         <v>-1.739387611155795</v>
       </c>
       <c r="C124" t="n">
-        <v>0.02169205552628419</v>
+        <v>10.43384111052568</v>
       </c>
       <c r="D124" t="n">
         <v>3.522621854510831</v>
@@ -4065,7 +4065,7 @@
         <v>0.7046058197090753</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.9463779873578178</v>
+        <v>-8.927559747156355</v>
       </c>
       <c r="D125" t="n">
         <v>0.4014123750432975</v>
@@ -4095,7 +4095,7 @@
         <v>1.453282306252469</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.06852724485752469</v>
+        <v>8.629455102849507</v>
       </c>
       <c r="D126" t="n">
         <v>1.827828322506832</v>
@@ -4125,7 +4125,7 @@
         <v>-0.1130634640270309</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.3498658389957932</v>
+        <v>3.002683220084137</v>
       </c>
       <c r="D127" t="n">
         <v>5.330184555521166</v>
@@ -4155,7 +4155,7 @@
         <v>-0.1504643998230734</v>
       </c>
       <c r="C128" t="n">
-        <v>0.179628599455004</v>
+        <v>13.59257198910008</v>
       </c>
       <c r="D128" t="n">
         <v>1.36731070145637</v>
@@ -4185,7 +4185,7 @@
         <v>0.6676607926469234</v>
       </c>
       <c r="C129" t="n">
-        <v>-1.506241385626309</v>
+        <v>-20.12482771252617</v>
       </c>
       <c r="D129" t="n">
         <v>1.646187108605935</v>
@@ -4215,7 +4215,7 @@
         <v>1.851881891933872</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3978520077693193</v>
+        <v>17.95704015538639</v>
       </c>
       <c r="D130" t="n">
         <v>8.587037375731446</v>
@@ -4239,7 +4239,7 @@
         <v>-0.2810676379413661</v>
       </c>
       <c r="C131" t="n">
-        <v>1.016629674886309</v>
+        <v>30.33259349772618</v>
       </c>
       <c r="D131" t="n">
         <v>4.389194501012738</v>
@@ -4269,7 +4269,7 @@
         <v>-0.7809551918659448</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.2038231251205735</v>
+        <v>5.92353749758853</v>
       </c>
       <c r="D132" t="n">
         <v>3.551745766548505</v>
@@ -4299,7 +4299,7 @@
         <v>-0.4237754556079923</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6470983933058072</v>
+        <v>22.94196786611614</v>
       </c>
       <c r="D133" t="n">
         <v>1.916942743765184</v>
@@ -4329,7 +4329,7 @@
         <v>-1.55251399228622</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3103462748445773</v>
+        <v>16.20692549689155</v>
       </c>
       <c r="D134" t="n">
         <v>6.563882053730286</v>
@@ -4359,7 +4359,7 @@
         <v>0.8977578987151557</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.6077401401660559</v>
+        <v>-2.154802803321118</v>
       </c>
       <c r="D135" t="n">
         <v>1.696409942829085</v>
@@ -4389,7 +4389,7 @@
         <v>-0.5140830527138596</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.058525686457115</v>
+        <v>-11.1705137291423</v>
       </c>
       <c r="D136" t="n">
         <v>6.679213939640601</v>
@@ -4419,7 +4419,7 @@
         <v>-0.2083391540655555</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.9183884887206587</v>
+        <v>-8.367769774413173</v>
       </c>
       <c r="D137" t="n">
         <v>0.3633990867792067</v>
@@ -4449,7 +4449,7 @@
         <v>0.9096211314190062</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2928925691547151</v>
+        <v>15.8578513830943</v>
       </c>
       <c r="D138" t="n">
         <v>9.995443945714351</v>
@@ -4475,7 +4475,7 @@
         <v>-0.3769103244098489</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.05614513198520448</v>
+        <v>8.87709736029591</v>
       </c>
       <c r="D139" t="n">
         <v>3.461402415013339</v>
@@ -4505,7 +4505,7 @@
         <v>0.759090395388397</v>
       </c>
       <c r="C140" t="n">
-        <v>1.275093021881698</v>
+        <v>35.50186043763396</v>
       </c>
       <c r="D140" t="n">
         <v>2.885788910983458</v>
@@ -4535,7 +4535,7 @@
         <v>-1.038088503816287</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7908701122038941</v>
+        <v>25.81740224407788</v>
       </c>
       <c r="D141" t="n">
         <v>4.721180605436087</v>
@@ -4565,7 +4565,7 @@
         <v>0.9587194283239979</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7887849831273013</v>
+        <v>25.77569966254602</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
@@ -4593,7 +4593,7 @@
         <v>0.3419050212654704</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2630808017122224</v>
+        <v>15.26161603424445</v>
       </c>
       <c r="D143" t="n">
         <v>0.7080204575698252</v>
@@ -4623,7 +4623,7 @@
         <v>-0.08857903081966823</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.9621989493216646</v>
+        <v>-9.243978986433291</v>
       </c>
       <c r="D144" t="n">
         <v>7.057724237697039</v>
@@ -4653,7 +4653,7 @@
         <v>0.1308934879437957</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3253392959749917</v>
+        <v>16.50678591949983</v>
       </c>
       <c r="D145" t="n">
         <v>1.614324277597918</v>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>0.06385316502822268</v>
+        <v>11.27706330056445</v>
       </c>
       <c r="D146" t="n">
         <v>11.76738603248042</v>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>-1.138381388555748</v>
+        <v>-12.76762777111496</v>
       </c>
       <c r="D147" t="n">
         <v>8.514641988344398</v>
@@ -4737,7 +4737,7 @@
         <v>-0.1416697853566039</v>
       </c>
       <c r="C148" t="n">
-        <v>1.209949258558712</v>
+        <v>34.19898517117424</v>
       </c>
       <c r="D148" t="n">
         <v>2.125274008122579</v>
@@ -4767,7 +4767,7 @@
         <v>-1.259432610437563</v>
       </c>
       <c r="C149" t="n">
-        <v>1.102289374929152</v>
+        <v>32.04578749858304</v>
       </c>
       <c r="D149" t="n">
         <v>8.244514900416126</v>
@@ -4795,7 +4795,7 @@
         <v>-0.6710754269065439</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.14414914441706</v>
+        <v>-12.88298288834121</v>
       </c>
       <c r="D150" t="n">
         <v>2.203315510820688</v>
@@ -4821,7 +4821,7 @@
         <v>-0.1292452579525181</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.6377949051165285</v>
+        <v>-2.755898102330569</v>
       </c>
       <c r="D151" t="n">
         <v>0.5320702501295915</v>
@@ -4851,7 +4851,7 @@
         <v>-0.6072921849478414</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.5499502194404766</v>
+        <v>-0.9990043888095315</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -4877,7 +4877,7 @@
         <v>-2.412113905050417</v>
       </c>
       <c r="C153" t="n">
-        <v>0.6098515437996151</v>
+        <v>22.1970308759923</v>
       </c>
       <c r="D153" t="n">
         <v>5.286421130211947</v>
@@ -4907,7 +4907,7 @@
         <v>1.076387539608866</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4947251804539964</v>
+        <v>19.89450360907993</v>
       </c>
       <c r="D154" t="n">
         <v>3.044945011440477</v>
@@ -4937,7 +4937,7 @@
         <v>-0.1420898750896654</v>
       </c>
       <c r="C155" t="n">
-        <v>0.04440721278635651</v>
+        <v>10.88814425572713</v>
       </c>
       <c r="D155" t="n">
         <v>2.535607060277337</v>
@@ -4967,7 +4967,7 @@
         <v>-2.273950209236545</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2738572803991252</v>
+        <v>15.4771456079825</v>
       </c>
       <c r="D156" t="n">
         <v>1.963030707633329</v>
@@ -4997,7 +4997,7 @@
         <v>2.134962939679395</v>
       </c>
       <c r="C157" t="n">
-        <v>-1.287632196445534</v>
+        <v>-15.75264392891067</v>
       </c>
       <c r="D157" t="n">
         <v>19.93577935933722</v>
@@ -5027,7 +5027,7 @@
         <v>1.241392331313189</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3813612813584527</v>
+        <v>17.62722562716905</v>
       </c>
       <c r="D158" t="n">
         <v>0.7236681784341369</v>
@@ -5057,7 +5057,7 @@
         <v>-0.3489820510683352</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.1008853755460705</v>
+        <v>7.98229248907859</v>
       </c>
       <c r="D159" t="n">
         <v>1.890259478446352</v>
@@ -5087,7 +5087,7 @@
         <v>-0.842497491366701</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.6790431825585895</v>
+        <v>-3.580863651171791</v>
       </c>
       <c r="D160" t="n">
         <v>3.322775686451484</v>
@@ -5117,7 +5117,7 @@
         <v>0.4031912107605219</v>
       </c>
       <c r="C161" t="n">
-        <v>-1.532506273930319</v>
+        <v>-20.65012547860638</v>
       </c>
       <c r="D161" t="n">
         <v>3.250434097782067</v>
@@ -5147,7 +5147,7 @@
         <v>0.2023268148841413</v>
       </c>
       <c r="C162" t="n">
-        <v>0.02696115618635197</v>
+        <v>10.53922312372704</v>
       </c>
       <c r="D162" t="n">
         <v>3.1872993718607</v>
@@ -5177,7 +5177,7 @@
         <v>0.5420899248003734</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3569598962178099</v>
+        <v>17.1391979243562</v>
       </c>
       <c r="D163" t="n">
         <v>0.9666121202686684</v>
@@ -5207,7 +5207,7 @@
         <v>-0.8396202732550483</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.702481801706587</v>
+        <v>-24.04963603413175</v>
       </c>
       <c r="D164" t="n">
         <v>0.7828744874882548</v>
@@ -5237,7 +5237,7 @@
         <v>1.097772020971633</v>
       </c>
       <c r="C165" t="n">
-        <v>0.01848607065642983</v>
+        <v>10.3697214131286</v>
       </c>
       <c r="D165" t="n">
         <v>1.470295722969318</v>
@@ -5267,7 +5267,7 @@
         <v>-0.4734621231755494</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1222397518484955</v>
+        <v>12.44479503696991</v>
       </c>
       <c r="D166" t="n">
         <v>12.2977242112788</v>
@@ -5297,7 +5297,7 @@
         <v>0.680765748655567</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.5542295431476606</v>
+        <v>-1.084590862953211</v>
       </c>
       <c r="D167" t="n">
         <v>0.5998500708265928</v>
@@ -5327,7 +5327,7 @@
         <v>-0.7969392604570241</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3798382023951742</v>
+        <v>17.59676404790348</v>
       </c>
       <c r="D168" t="n">
         <v>7.082223821104088</v>
@@ -5357,7 +5357,7 @@
         <v>2.648143985753487</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1326624162773197</v>
+        <v>7.346751674453605</v>
       </c>
       <c r="D169" t="n">
         <v>7.084765739160398</v>
@@ -5387,7 +5387,7 @@
         <v>0.6955233489652584</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2831710053363637</v>
+        <v>15.66342010672727</v>
       </c>
       <c r="D170" t="n">
         <v>8.297617679046052</v>
@@ -5413,7 +5413,7 @@
         <v>2.884232276573647</v>
       </c>
       <c r="C171" t="n">
-        <v>0.5342469328750559</v>
+        <v>20.68493865750112</v>
       </c>
       <c r="D171" t="n">
         <v>10.88485242112544</v>
@@ -5443,7 +5443,7 @@
         <v>0.8276019763260464</v>
       </c>
       <c r="C172" t="n">
-        <v>0.5348069061505235</v>
+        <v>20.69613812301047</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="n">
@@ -5467,7 +5467,7 @@
         <v>-0.561464356868684</v>
       </c>
       <c r="C173" t="n">
-        <v>1.016820493446502</v>
+        <v>30.33640986893004</v>
       </c>
       <c r="D173" t="n">
         <v>1.271619921861343</v>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>0.3383251887845801</v>
+        <v>16.7665037756916</v>
       </c>
       <c r="D174" t="n">
         <v>3.132170750606859</v>
@@ -5523,7 +5523,7 @@
         <v>0.9005778181932164</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.4770407407768207</v>
+        <v>0.4591851844635855</v>
       </c>
       <c r="D175" t="n">
         <v>1.540030525794545</v>
@@ -5553,7 +5553,7 @@
         <v>0.3733241444977625</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.647790044753197</v>
+        <v>-2.955800895063941</v>
       </c>
       <c r="D176" t="n">
         <v>6.627125109457457</v>
@@ -5577,7 +5577,7 @@
         <v>0.6303924720320564</v>
       </c>
       <c r="C177" t="n">
-        <v>-1.063308752868622</v>
+        <v>-11.26617505737245</v>
       </c>
       <c r="D177" t="n">
         <v>5.052177135792197</v>
@@ -5607,7 +5607,7 @@
         <v>0.7617271294076756</v>
       </c>
       <c r="C178" t="n">
-        <v>0.151179643112906</v>
+        <v>13.02359286225812</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="n">
@@ -5635,7 +5635,7 @@
         <v>-0.9936810107657416</v>
       </c>
       <c r="C179" t="n">
-        <v>1.321311714652523</v>
+        <v>36.42623429305047</v>
       </c>
       <c r="D179" t="n">
         <v>0.4318123205524593</v>
@@ -5665,7 +5665,7 @@
         <v>-1.064858404729952</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.3584526059871502</v>
+        <v>2.830947880256995</v>
       </c>
       <c r="D180" t="n">
         <v>12.33042447919387</v>
@@ -5695,7 +5695,7 @@
         <v>-0.7942169986144335</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4496082477099598</v>
+        <v>18.9921649541992</v>
       </c>
       <c r="D181" t="n">
         <v>1.736089208663236</v>
@@ -5725,7 +5725,7 @@
         <v>0.1275423943705102</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.7522800045151605</v>
+        <v>-5.045600090303211</v>
       </c>
       <c r="D182" t="n">
         <v>3.373534717489783</v>
@@ -5753,7 +5753,7 @@
         <v>-0.2231711714734202</v>
       </c>
       <c r="C183" t="n">
-        <v>0.1948049151606344</v>
+        <v>13.89609830321269</v>
       </c>
       <c r="D183" t="n">
         <v>2.886709928283198</v>
@@ -5811,7 +5811,7 @@
         <v>0.7753142105196469</v>
       </c>
       <c r="C185" t="n">
-        <v>0.6862479733319425</v>
+        <v>23.72495946663885</v>
       </c>
       <c r="D185" t="n">
         <v>2.726510060314002</v>
@@ -5841,7 +5841,7 @@
         <v>0.2830448201364797</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.570812033139157</v>
+        <v>-21.41624066278314</v>
       </c>
       <c r="D186" t="n">
         <v>14.3722785723183</v>
@@ -5871,7 +5871,7 @@
         <v>0.1689289913708541</v>
       </c>
       <c r="C187" t="n">
-        <v>0.5706948160355445</v>
+        <v>21.41389632071089</v>
       </c>
       <c r="D187" t="n">
         <v>11.64125237808601</v>
@@ -5901,7 +5901,7 @@
         <v>-0.2579893051739355</v>
       </c>
       <c r="C188" t="n">
-        <v>0.616225778793552</v>
+        <v>22.32451557587104</v>
       </c>
       <c r="D188" t="n">
         <v>10.28492404015162</v>
@@ -5931,7 +5931,7 @@
         <v>-0.378228102365573</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1734869732270888</v>
+        <v>13.46973946454177</v>
       </c>
       <c r="D189" t="n">
         <v>0.3696232744310988</v>
@@ -5961,7 +5961,7 @@
         <v>-0.8413311618089765</v>
       </c>
       <c r="C190" t="n">
-        <v>0.6675221127023412</v>
+        <v>23.35044225404683</v>
       </c>
       <c r="D190" t="n">
         <v>9.629588830572199</v>
@@ -5987,7 +5987,7 @@
         <v>0.9337402925373378</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.8335020397175382</v>
+        <v>-6.670040794350765</v>
       </c>
       <c r="D191" t="n">
         <v>7.607946721341009</v>
@@ -6017,7 +6017,7 @@
         <v>-0.7034928816531866</v>
       </c>
       <c r="C192" t="n">
-        <v>0.06326315480408605</v>
+        <v>11.26526309608172</v>
       </c>
       <c r="D192" t="n">
         <v>0.5463571388293121</v>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>1.110173940938102</v>
+        <v>32.20347881876204</v>
       </c>
       <c r="D193" t="n">
         <v>0.5681638801323412</v>
@@ -6075,7 +6075,7 @@
         <v>1.662010396272033</v>
       </c>
       <c r="C194" t="n">
-        <v>1.019949483466368</v>
+        <v>30.39898966932735</v>
       </c>
       <c r="D194" t="n">
         <v>0.5332723818620022</v>
@@ -6105,7 +6105,7 @@
         <v>-0.3322577446893506</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5480449740059711</v>
+        <v>20.96089948011942</v>
       </c>
       <c r="D195" t="n">
         <v>0.0569864816976082</v>
@@ -6135,7 +6135,7 @@
         <v>0.9607021407191945</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.882995223500883</v>
+        <v>-7.659904470017661</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>-1.040463770619279</v>
+        <v>-10.80927541238557</v>
       </c>
       <c r="D197" t="n">
         <v>18.13314739275934</v>
@@ -6187,7 +6187,7 @@
         <v>0.3114675632610535</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1145436744433542</v>
+        <v>12.29087348886708</v>
       </c>
       <c r="D198" t="n">
         <v>2.887362522104138</v>
@@ -6217,7 +6217,7 @@
         <v>0.4303484419047528</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1807742387258404</v>
+        <v>13.61548477451681</v>
       </c>
       <c r="D199" t="n">
         <v>3.890884450521925</v>
@@ -6247,7 +6247,7 @@
         <v>-0.0949065692709303</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.1003717722772566</v>
+        <v>7.992564554454868</v>
       </c>
       <c r="D200" t="n">
         <v>17.20537985195369</v>
@@ -6277,7 +6277,7 @@
         <v>0.03477596879344046</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.8047849781966527</v>
+        <v>-6.095699563933053</v>
       </c>
       <c r="D201" t="n">
         <v>1.473078464520684</v>
@@ -6307,7 +6307,7 @@
         <v>-0.5481139482257246</v>
       </c>
       <c r="C202" t="n">
-        <v>0.4369610753903937</v>
+        <v>18.73922150780788</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="n">
@@ -6331,7 +6331,7 @@
         <v>0.04145712113408889</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1101653486945414</v>
+        <v>12.20330697389083</v>
       </c>
       <c r="D203" t="n">
         <v>3.95259255471141</v>
@@ -6361,7 +6361,7 @@
         <v>-0.5852259957834971</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2898243165504735</v>
+        <v>15.79648633100947</v>
       </c>
       <c r="D204" t="n">
         <v>4.213767014870163</v>
@@ -6391,7 +6391,7 @@
         <v>1.005655093076597</v>
       </c>
       <c r="C205" t="n">
-        <v>0.5934337596241102</v>
+        <v>21.8686751924822</v>
       </c>
       <c r="D205" t="n">
         <v>2.101679591792326</v>
@@ -6421,7 +6421,7 @@
         <v>-1.699497428678444</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.2736497876780127</v>
+        <v>4.527004246439747</v>
       </c>
       <c r="D206" t="n">
         <v>4.122939355038268</v>
@@ -6447,7 +6447,7 @@
         <v>0.4810532911254823</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.4887583773794366</v>
+        <v>0.2248324524112668</v>
       </c>
       <c r="D207" t="n">
         <v>0.3797772857088836</v>
@@ -6477,7 +6477,7 @@
         <v>0.3365867014222797</v>
       </c>
       <c r="C208" t="n">
-        <v>1.107565323308623</v>
+        <v>32.15130646617246</v>
       </c>
       <c r="D208" t="n">
         <v>7.233271008019867</v>
@@ -6507,7 +6507,7 @@
         <v>0.2460159641760336</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.7573584865301681</v>
+        <v>-5.147169730603363</v>
       </c>
       <c r="D209" t="n">
         <v>1.675180672358481</v>
@@ -6537,7 +6537,7 @@
         <v>1.024498948865487</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.4691741994620077</v>
+        <v>0.6165160107598471</v>
       </c>
       <c r="D210" t="n">
         <v>10.92882725043311</v>
@@ -6567,7 +6567,7 @@
         <v>-0.2861235900429474</v>
       </c>
       <c r="C211" t="n">
-        <v>1.234247815427473</v>
+        <v>34.68495630854946</v>
       </c>
       <c r="D211" t="n">
         <v>2.293148350132384</v>
@@ -6625,7 +6625,7 @@
         <v>-1.716541888186453</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.09861764364055987</v>
+        <v>8.027647127188803</v>
       </c>
       <c r="D213" t="n">
         <v>5.951690477177638</v>
@@ -6655,7 +6655,7 @@
         <v>-0.4153168821352231</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.4119698691130282</v>
+        <v>1.760602617739437</v>
       </c>
       <c r="D214" t="n">
         <v>0.899092328989499</v>
@@ -6685,7 +6685,7 @@
         <v>0.8557364311752241</v>
       </c>
       <c r="C215" t="n">
-        <v>-1.783221481283797</v>
+        <v>-25.66442962567595</v>
       </c>
       <c r="D215" t="n">
         <v>7.005629341743596</v>
@@ -6715,7 +6715,7 @@
         <v>-1.339161735536482</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.1233076520047968</v>
+        <v>7.533846959904064</v>
       </c>
       <c r="D216" t="n">
         <v>17.22766464589029</v>
@@ -6745,7 +6745,7 @@
         <v>0.1597433670507449</v>
       </c>
       <c r="C217" t="n">
-        <v>-1.010621763578548</v>
+        <v>-10.21243527157096</v>
       </c>
       <c r="D217" t="n">
         <v>7.560486903115454</v>
@@ -6803,7 +6803,7 @@
         <v>-0.110986971771735</v>
       </c>
       <c r="C219" t="n">
-        <v>1.105638510041112</v>
+        <v>32.11277020082224</v>
       </c>
       <c r="D219" t="n">
         <v>4.580026213809934</v>
@@ -6833,7 +6833,7 @@
         <v>-0.6176774887615972</v>
       </c>
       <c r="C220" t="n">
-        <v>-2.214173733173655</v>
+        <v>-34.2834746634731</v>
       </c>
       <c r="D220" t="n">
         <v>5.94395435932641</v>
@@ -6863,7 +6863,7 @@
         <v>-1.24719560429343</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.4069169840002802</v>
+        <v>1.861660319994396</v>
       </c>
       <c r="D221" t="n">
         <v>8.727958726005534</v>
@@ -6893,7 +6893,7 @@
         <v>0.3860033149598008</v>
       </c>
       <c r="C222" t="n">
-        <v>0.4523232329649811</v>
+        <v>19.04646465929962</v>
       </c>
       <c r="D222" t="n">
         <v>0.288157793747927</v>
@@ -6915,7 +6915,7 @@
         <v>-0.04959676202474612</v>
       </c>
       <c r="C223" t="n">
-        <v>-2.183348918429778</v>
+        <v>-33.66697836859555</v>
       </c>
       <c r="D223" t="n">
         <v>3.27066925177863</v>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>1.336265360422231</v>
+        <v>36.72530720844463</v>
       </c>
       <c r="D224" t="n">
         <v>3.832578835969166</v>
@@ -6973,7 +6973,7 @@
         <v>0.7944379079988609</v>
       </c>
       <c r="C225" t="n">
-        <v>0.3798920368034835</v>
+        <v>17.59784073606967</v>
       </c>
       <c r="D225" t="n">
         <v>0.9263787565287008</v>
@@ -7003,7 +7003,7 @@
         <v>1.225258737089015</v>
       </c>
       <c r="C226" t="n">
-        <v>1.083212821931901</v>
+        <v>31.66425643863803</v>
       </c>
       <c r="D226" t="n">
         <v>1.946358236821453</v>
@@ -7029,7 +7029,7 @@
         <v>0.1334867454426648</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.5639478631114292</v>
+        <v>-1.278957262228584</v>
       </c>
       <c r="D227" t="n">
         <v>2.901072567004654</v>
@@ -7059,7 +7059,7 @@
         <v>1.268621024603208</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.4433207702761909</v>
+        <v>1.133584594476181</v>
       </c>
       <c r="D228" t="n">
         <v>8.955089360130286</v>
@@ -7089,7 +7089,7 @@
         <v>-0.9757745073909543</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.1609363547990695</v>
+        <v>6.781272904018611</v>
       </c>
       <c r="D229" t="n">
         <v>13.25416154179549</v>
@@ -7119,7 +7119,7 @@
         <v>0.9089598292281312</v>
       </c>
       <c r="C230" t="n">
-        <v>2.13820904755154</v>
+        <v>52.7641809510308</v>
       </c>
       <c r="D230" t="n">
         <v>4.949993540230282</v>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>1.318105360497067</v>
+        <v>36.36210720994133</v>
       </c>
       <c r="D231" t="n">
         <v>2.512181117189781</v>
@@ -7177,7 +7177,7 @@
         <v>0.2330926525147871</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1323476995087469</v>
+        <v>12.64695399017494</v>
       </c>
       <c r="D232" t="n">
         <v>1.465356292309077</v>
@@ -7207,7 +7207,7 @@
         <v>0.4447322341631172</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2544017716507839</v>
+        <v>15.08803543301568</v>
       </c>
       <c r="D233" t="n">
         <v>20.12461055720986</v>
@@ -7237,7 +7237,7 @@
         <v>-0.960738878335462</v>
       </c>
       <c r="C234" t="n">
-        <v>0.634903811584933</v>
+        <v>22.69807623169866</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="n">
@@ -7265,7 +7265,7 @@
         <v>-1.196746809925023</v>
       </c>
       <c r="C235" t="n">
-        <v>2.391554820991459</v>
+        <v>57.83109641982918</v>
       </c>
       <c r="D235" t="n">
         <v>12.94979927902034</v>
@@ -7295,7 +7295,7 @@
         <v>1.709828186076998</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3827197930570508</v>
+        <v>17.65439586114102</v>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="n">
@@ -7323,7 +7323,7 @@
         <v>-0.1687221781972703</v>
       </c>
       <c r="C237" t="n">
-        <v>0.04595939611876998</v>
+        <v>10.9191879223754</v>
       </c>
       <c r="D237" t="n">
         <v>1.970990675600508</v>
@@ -7353,7 +7353,7 @@
         <v>-0.1829934218067006</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.3385983966149878</v>
+        <v>3.228032067700244</v>
       </c>
       <c r="D238" t="n">
         <v>8.49135884103881</v>
@@ -7383,7 +7383,7 @@
         <v>-1.102309474241292</v>
       </c>
       <c r="C239" t="n">
-        <v>0.2349152475194411</v>
+        <v>14.69830495038882</v>
       </c>
       <c r="D239" t="n">
         <v>2.627945491534442</v>
@@ -7413,7 +7413,7 @@
         <v>-1.481778305496837</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.5870218183512091</v>
+        <v>-1.740436367024182</v>
       </c>
       <c r="D240" t="n">
         <v>1.978364281578657</v>
@@ -7443,7 +7443,7 @@
         <v>-0.08831887881228208</v>
       </c>
       <c r="C241" t="n">
-        <v>0.4960923380768729</v>
+        <v>19.92184676153746</v>
       </c>
       <c r="D241" t="n">
         <v>6.829819335776241</v>
@@ -7473,7 +7473,7 @@
         <v>-0.3415879215087279</v>
       </c>
       <c r="C242" t="n">
-        <v>-1.432596629791541</v>
+        <v>-18.65193259583082</v>
       </c>
       <c r="D242" t="n">
         <v>0.4150275702081449</v>
@@ -7531,7 +7531,7 @@
         <v>0.08715394038217483</v>
       </c>
       <c r="C244" t="n">
-        <v>0.7346328547273364</v>
+        <v>24.69265709454673</v>
       </c>
       <c r="D244" t="n">
         <v>2.970616771523956</v>
@@ -7561,7 +7561,7 @@
         <v>2.489461081260694</v>
       </c>
       <c r="C245" t="n">
-        <v>0.3691236543373539</v>
+        <v>17.38247308674708</v>
       </c>
       <c r="D245" t="n">
         <v>2.949694103043066</v>
@@ -7591,7 +7591,7 @@
         <v>-0.3385799807389548</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.4626246200516517</v>
+        <v>0.7475075989669673</v>
       </c>
       <c r="D246" t="n">
         <v>11.29974307528872</v>
@@ -7621,7 +7621,7 @@
         <v>1.579940107943447</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.2320245104166384</v>
+        <v>5.359509791667232</v>
       </c>
       <c r="D247" t="n">
         <v>0.6742504302378161</v>
@@ -7647,7 +7647,7 @@
         <v>1.642024215044945</v>
       </c>
       <c r="C248" t="n">
-        <v>1.035334686692211</v>
+        <v>30.70669373384423</v>
       </c>
       <c r="D248" t="n">
         <v>0.6578604377412255</v>
@@ -7677,7 +7677,7 @@
         <v>0.7536242852719843</v>
       </c>
       <c r="C249" t="n">
-        <v>-1.210401696023421</v>
+        <v>-14.20803392046842</v>
       </c>
       <c r="D249" t="n">
         <v>0.7976323537708521</v>
@@ -7707,7 +7707,7 @@
         <v>-0.2351263325491117</v>
       </c>
       <c r="C250" t="n">
-        <v>-1.20459364791133</v>
+        <v>-14.0918729582266</v>
       </c>
       <c r="D250" t="n">
         <v>0.1509367443451816</v>
@@ -7765,7 +7765,7 @@
         <v>0.4779438773339067</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.01067786426664356</v>
+        <v>9.786442714667128</v>
       </c>
       <c r="D252" t="n">
         <v>5.392134949897471</v>
@@ -7795,7 +7795,7 @@
         <v>1.018812079700944</v>
       </c>
       <c r="C253" t="n">
-        <v>-1.356738067256192</v>
+        <v>-17.13476134512384</v>
       </c>
       <c r="D253" t="n">
         <v>2.824511564865007</v>
@@ -7825,7 +7825,7 @@
         <v>1.747687464282984</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9530015927659814</v>
+        <v>29.06003185531963</v>
       </c>
       <c r="D254" t="n">
         <v>7.211214838399663</v>
@@ -7855,7 +7855,7 @@
         <v>-0.9499579542467819</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.9242924588558654</v>
+        <v>-8.485849177117309</v>
       </c>
       <c r="D255" t="n">
         <v>24.5298351325549</v>
@@ -7885,7 +7885,7 @@
         <v>-0.2435263891852674</v>
       </c>
       <c r="C256" t="n">
-        <v>0.2243555577431293</v>
+        <v>14.48711115486259</v>
       </c>
       <c r="D256" t="n">
         <v>5.379872554867382</v>
@@ -7915,7 +7915,7 @@
         <v>-0.9438645904228469</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.579073100919403</v>
+        <v>-1.581462018388059</v>
       </c>
       <c r="D257" t="n">
         <v>0.2588647871432945</v>
@@ -7945,7 +7945,7 @@
         <v>-0.6334779924369225</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.06549708083972602</v>
+        <v>8.690058383205479</v>
       </c>
       <c r="D258" t="n">
         <v>0.5522163033812841</v>
@@ -7975,7 +7975,7 @@
         <v>0.664387534235627</v>
       </c>
       <c r="C259" t="n">
-        <v>-1.603345909658743</v>
+        <v>-22.06691819317487</v>
       </c>
       <c r="D259" t="n">
         <v>10.6433305631689</v>
@@ -8005,7 +8005,7 @@
         <v>-0.6793047693657358</v>
       </c>
       <c r="C260" t="n">
-        <v>1.001316245209956</v>
+        <v>30.02632490419913</v>
       </c>
       <c r="D260" t="n">
         <v>3.748544745698474</v>
@@ -8035,7 +8035,7 @@
         <v>-0.8242711773170095</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.9614979983714009</v>
+        <v>-9.229959967428019</v>
       </c>
       <c r="D261" t="n">
         <v>8.710196099916228</v>
@@ -8065,7 +8065,7 @@
         <v>0.7969958637222746</v>
       </c>
       <c r="C262" t="n">
-        <v>-1.066216721043703</v>
+        <v>-11.32433442087405</v>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="n">
@@ -8093,7 +8093,7 @@
         <v>0.4507387900435469</v>
       </c>
       <c r="C263" t="n">
-        <v>2.379009013402093</v>
+        <v>57.58018026804186</v>
       </c>
       <c r="D263" t="n">
         <v>13.13289544346679</v>
@@ -8123,7 +8123,7 @@
         <v>0.3500111979351746</v>
       </c>
       <c r="C264" t="n">
-        <v>0.5543073109576079</v>
+        <v>21.08614621915216</v>
       </c>
       <c r="D264" t="n">
         <v>14.96161102091271</v>
@@ -8153,7 +8153,7 @@
         <v>-0.6528873581990658</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9624164082830751</v>
+        <v>29.2483281656615</v>
       </c>
       <c r="D265" t="n">
         <v>4.046448024439075</v>
@@ -8183,7 +8183,7 @@
         <v>1.293023278214702</v>
       </c>
       <c r="C266" t="n">
-        <v>0.4588913963618989</v>
+        <v>19.17782792723798</v>
       </c>
       <c r="D266" t="n">
         <v>2.085311776759155</v>
@@ -8213,7 +8213,7 @@
         <v>0.01449019731979113</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.4524805599864017</v>
+        <v>0.9503888002719663</v>
       </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="n">
@@ -8241,7 +8241,7 @@
         <v>2.380190138754769</v>
       </c>
       <c r="C268" t="n">
-        <v>-1.30684985745501</v>
+        <v>-16.13699714910021</v>
       </c>
       <c r="D268" t="n">
         <v>3.963803498318717</v>
@@ -8271,7 +8271,7 @@
         <v>0.1611661694700444</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.2988203874256588</v>
+        <v>4.023592251486825</v>
       </c>
       <c r="D269" t="n">
         <v>0.3320492105929779</v>
@@ -8301,7 +8301,7 @@
         <v>-2.33334784184716</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.9781593445255623</v>
+        <v>-9.563186890511247</v>
       </c>
       <c r="D270" t="n">
         <v>5.146968914030653</v>
@@ -8327,7 +8327,7 @@
         <v>-2.377875534776869</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.918115172434519</v>
+        <v>-8.36230344869038</v>
       </c>
       <c r="D271" t="n">
         <v>4.429835266404865</v>
@@ -8357,7 +8357,7 @@
         <v>0.6239499418454686</v>
       </c>
       <c r="C272" t="n">
-        <v>-1.583187328969697</v>
+        <v>-21.66374657939393</v>
       </c>
       <c r="D272" t="n">
         <v>11.30687376839285</v>
@@ -8387,7 +8387,7 @@
         <v>1.300494152330806</v>
       </c>
       <c r="C273" t="n">
-        <v>0.1144759597954961</v>
+        <v>12.28951919590992</v>
       </c>
       <c r="D273" t="n">
         <v>5.294850473066522</v>
@@ -8417,7 +8417,7 @@
         <v>-0.7838281299238495</v>
       </c>
       <c r="C274" t="n">
-        <v>1.573412147525846</v>
+        <v>41.46824295051692</v>
       </c>
       <c r="D274" t="n">
         <v>2.146630845715095</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="n">
-        <v>0.5581367230264489</v>
+        <v>21.16273446052898</v>
       </c>
       <c r="D275" t="n">
         <v>16.94027940922741</v>
@@ -8467,7 +8467,7 @@
         <v>1.662998936994103</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.1057903878517124</v>
+        <v>7.884192242965752</v>
       </c>
       <c r="D276" t="n">
         <v>8.087841522950431</v>
@@ -8497,7 +8497,7 @@
         <v>0.2105467634411479</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.04057187281015166</v>
+        <v>9.188562543796966</v>
       </c>
       <c r="D277" t="n">
         <v>4.976908045657606</v>
@@ -8527,7 +8527,7 @@
         <v>0.5394539423561315</v>
       </c>
       <c r="C278" t="n">
-        <v>-3.047777312393597</v>
+        <v>-50.95554624787194</v>
       </c>
       <c r="D278" t="n">
         <v>1.733094121717582</v>
@@ -8549,7 +8549,7 @@
         <v>0.8945302173885168</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.4238354218993765</v>
+        <v>1.523291562012471</v>
       </c>
       <c r="D279" t="n">
         <v>2.338354132250623</v>
@@ -8579,7 +8579,7 @@
         <v>1.889994897320515</v>
       </c>
       <c r="C280" t="n">
-        <v>-1.426675895220339</v>
+        <v>-18.53351790440678</v>
       </c>
       <c r="D280" t="n">
         <v>5.542857447867432</v>
@@ -8607,7 +8607,7 @@
         <v>0.6821359667455813</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1344125279022765</v>
+        <v>12.68825055804553</v>
       </c>
       <c r="D281" t="n">
         <v>0.3735143832510071</v>
@@ -8633,7 +8633,7 @@
         <v>0.187931652271149</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.2599759886682342</v>
+        <v>4.800480226635315</v>
       </c>
       <c r="D282" t="n">
         <v>1.483147182666698</v>
@@ -8659,7 +8659,7 @@
         <v>0.6723011975866489</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.8693045412075403</v>
+        <v>-7.386090824150806</v>
       </c>
       <c r="D283" t="n">
         <v>6.257085707075671</v>
@@ -8689,7 +8689,7 @@
         <v>0.5373602814492259</v>
       </c>
       <c r="C284" t="n">
-        <v>0.111896704488599</v>
+        <v>12.23793408977198</v>
       </c>
       <c r="D284" t="n">
         <v>3.269810319476258</v>
@@ -8719,7 +8719,7 @@
         <v>0.9244101872749939</v>
       </c>
       <c r="C285" t="n">
-        <v>0.103279153006943</v>
+        <v>12.06558306013886</v>
       </c>
       <c r="D285" t="n">
         <v>2.574114384193469</v>
@@ -8773,7 +8773,7 @@
         <v>0.3158534499474551</v>
       </c>
       <c r="C287" t="n">
-        <v>0.6864175004467297</v>
+        <v>23.72835000893459</v>
       </c>
       <c r="D287" t="n">
         <v>2.915629028306323</v>
@@ -8801,7 +8801,7 @@
         <v>0.4604405075797363</v>
       </c>
       <c r="C288" t="n">
-        <v>0.2169727900368727</v>
+        <v>14.33945580073745</v>
       </c>
       <c r="D288" t="n">
         <v>7.363445367109223</v>
@@ -8831,7 +8831,7 @@
         <v>-0.07284716705217199</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.9475144736513923</v>
+        <v>-8.950289473027844</v>
       </c>
       <c r="D289" t="n">
         <v>1.532713071538052</v>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B290" t="inlineStr"/>
       <c r="C290" t="n">
-        <v>-1.073439119107488</v>
+        <v>-11.46878238214977</v>
       </c>
       <c r="D290" t="n">
         <v>0.02706583485650806</v>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="n">
-        <v>0.5988480074366075</v>
+        <v>21.97696014873215</v>
       </c>
       <c r="D291" t="n">
         <v>5.520711271173473</v>
@@ -8943,7 +8943,7 @@
         <v>0.6917210807076902</v>
       </c>
       <c r="C293" t="n">
-        <v>0.2493655911266076</v>
+        <v>14.98731182253215</v>
       </c>
       <c r="D293" t="n">
         <v>4.667522252196536</v>
@@ -8973,7 +8973,7 @@
         <v>1.606264760451553</v>
       </c>
       <c r="C294" t="n">
-        <v>0.9780005241715597</v>
+        <v>29.56001048343119</v>
       </c>
       <c r="D294" t="n">
         <v>0.638722893891802</v>
@@ -9001,7 +9001,7 @@
         <v>0.1615645059418555</v>
       </c>
       <c r="C295" t="n">
-        <v>-1.51313877514181</v>
+        <v>-20.2627755028362</v>
       </c>
       <c r="D295" t="n">
         <v>1.933705696662164</v>
@@ -9031,7 +9031,7 @@
         <v>-0.888463202358809</v>
       </c>
       <c r="C296" t="n">
-        <v>1.397035385028994</v>
+        <v>37.94070770057988</v>
       </c>
       <c r="D296" t="n">
         <v>10.11120997730428</v>
@@ -9055,7 +9055,7 @@
         <v>0.6157788490879242</v>
       </c>
       <c r="C297" t="n">
-        <v>0.9693817869489962</v>
+        <v>29.38763573897992</v>
       </c>
       <c r="D297" t="n">
         <v>1.323527497773095</v>
@@ -9085,7 +9085,7 @@
         <v>-2.201666136798076</v>
       </c>
       <c r="C298" t="n">
-        <v>-2.054440221987645</v>
+        <v>-31.08880443975289</v>
       </c>
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="n">
@@ -9113,7 +9113,7 @@
         <v>-2.29836703796268</v>
       </c>
       <c r="C299" t="n">
-        <v>2.353092448910977</v>
+        <v>57.06184897821954</v>
       </c>
       <c r="D299" t="n">
         <v>2.576437886240329</v>
@@ -9143,7 +9143,7 @@
         <v>0.333012047116258</v>
       </c>
       <c r="C300" t="n">
-        <v>0.3213763190814564</v>
+        <v>16.42752638162913</v>
       </c>
       <c r="D300" t="n">
         <v>1.164982925965944</v>
@@ -9173,7 +9173,7 @@
         <v>-2.344970383081866</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.4785383004229538</v>
+        <v>0.4292339915409258</v>
       </c>
       <c r="D301" t="n">
         <v>8.394124671280087</v>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="n">
-        <v>0.5190622236049256</v>
+        <v>20.38124447209851</v>
       </c>
       <c r="D302" t="n">
         <v>6.790114488449333</v>
@@ -9231,7 +9231,7 @@
         <v>-0.3800985635103225</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.9774746369387358</v>
+        <v>-9.549492738774717</v>
       </c>
       <c r="D303" t="n">
         <v>5.417501253844853</v>
@@ -9261,7 +9261,7 @@
         <v>-0.7214163497458866</v>
       </c>
       <c r="C304" t="n">
-        <v>0.5461283531935511</v>
+        <v>20.92256706387102</v>
       </c>
       <c r="D304" t="n">
         <v>1.348140750355404</v>
@@ -9291,7 +9291,7 @@
         <v>-0.1478065035471177</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.7934964583353113</v>
+        <v>-5.869929166706227</v>
       </c>
       <c r="D305" t="n">
         <v>0.51491118955426</v>
@@ -9321,7 +9321,7 @@
         <v>1.112870140768497</v>
       </c>
       <c r="C306" t="n">
-        <v>2.020359535470601</v>
+        <v>50.40719070941201</v>
       </c>
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="n">
@@ -9377,7 +9377,7 @@
         <v>-0.8393204017794592</v>
       </c>
       <c r="C308" t="n">
-        <v>0.6498230520728239</v>
+        <v>22.99646104145648</v>
       </c>
       <c r="D308" t="n">
         <v>1.043646003460136</v>
@@ -9407,7 +9407,7 @@
         <v>1.354441072784276</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.786065099652139</v>
+        <v>-5.721301993042779</v>
       </c>
       <c r="D309" t="n">
         <v>0.2894523785631853</v>
@@ -9465,7 +9465,7 @@
         <v>0.2218835087720995</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.01258006350211208</v>
+        <v>9.748398729957758</v>
       </c>
       <c r="D311" t="n">
         <v>24.64826349624494</v>
@@ -9495,7 +9495,7 @@
         <v>-1.540085975011704</v>
       </c>
       <c r="C312" t="n">
-        <v>-1.411851708321945</v>
+        <v>-18.2370341664389</v>
       </c>
       <c r="D312" t="n">
         <v>7.65276155612482</v>
@@ -9525,7 +9525,7 @@
         <v>0.2523179057305393</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.2387627198882479</v>
+        <v>5.224745602235041</v>
       </c>
       <c r="D313" t="n">
         <v>12.75442950316292</v>
@@ -9555,7 +9555,7 @@
         <v>-0.3186274038925976</v>
       </c>
       <c r="C314" t="n">
-        <v>1.931111068862538</v>
+        <v>48.62222137725075</v>
       </c>
       <c r="D314" t="n">
         <v>1.084904909037744</v>
@@ -9581,7 +9581,7 @@
         <v>1.082237911526368</v>
       </c>
       <c r="C315" t="n">
-        <v>0.8589770260433079</v>
+        <v>27.17954052086616</v>
       </c>
       <c r="D315" t="n">
         <v>16.16595605447403</v>
@@ -9611,7 +9611,7 @@
         <v>0.7206894711942295</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.3789750689064935</v>
+        <v>2.42049862187013</v>
       </c>
       <c r="D316" t="n">
         <v>0.7695705893113445</v>
@@ -9641,7 +9641,7 @@
         <v>-0.5871393319916629</v>
       </c>
       <c r="C317" t="n">
-        <v>-1.869165761000935</v>
+        <v>-27.3833152200187</v>
       </c>
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="n">
@@ -9669,7 +9669,7 @@
         <v>-0.7789396408162412</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.8324911782306316</v>
+        <v>-6.649823564612632</v>
       </c>
       <c r="D318" t="n">
         <v>8.850841752860596</v>
@@ -9699,7 +9699,7 @@
         <v>-0.3150967330321093</v>
       </c>
       <c r="C319" t="n">
-        <v>-1.406474004034461</v>
+        <v>-18.12948008068923</v>
       </c>
       <c r="D319" t="n">
         <v>2.1524021516262</v>
@@ -9729,7 +9729,7 @@
         <v>1.87557146003434</v>
       </c>
       <c r="C320" t="n">
-        <v>-1.845008006433498</v>
+        <v>-26.90016012866997</v>
       </c>
       <c r="D320" t="n">
         <v>2.765435397339535</v>
@@ -9785,7 +9785,7 @@
         <v>-0.9682681853686507</v>
       </c>
       <c r="C322" t="n">
-        <v>0.06238739638016563</v>
+        <v>11.24774792760331</v>
       </c>
       <c r="D322" t="n">
         <v>0.6557960708952106</v>
@@ -9813,7 +9813,7 @@
         <v>0.8002253380013482</v>
       </c>
       <c r="C323" t="n">
-        <v>1.795108448343941</v>
+        <v>45.90216896687882</v>
       </c>
       <c r="D323" t="n">
         <v>4.832242103616745</v>
@@ -9843,7 +9843,7 @@
         <v>-1.731431428897266</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.997641898797629</v>
+        <v>-9.95283797595258</v>
       </c>
       <c r="D324" t="n">
         <v>5.627847485138133</v>
@@ -9873,7 +9873,7 @@
         <v>-0.4473424610573652</v>
       </c>
       <c r="C325" t="n">
-        <v>-0.002280934759130273</v>
+        <v>9.954381304817394</v>
       </c>
       <c r="D325" t="n">
         <v>7.510378574243912</v>
@@ -9903,7 +9903,7 @@
         <v>-0.9275643528624586</v>
       </c>
       <c r="C326" t="n">
-        <v>-1.394174351746914</v>
+        <v>-17.88348703493828</v>
       </c>
       <c r="D326" t="n">
         <v>4.067340261669392</v>
@@ -9933,7 +9933,7 @@
         <v>1.069279457572441</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.5948733611662425</v>
+        <v>-1.897467223324849</v>
       </c>
       <c r="D327" t="n">
         <v>5.188893157782632</v>
@@ -9963,7 +9963,7 @@
         <v>-1.290717519788412</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.2221099619325858</v>
+        <v>5.557800761348284</v>
       </c>
       <c r="D328" t="n">
         <v>0.06804730865622401</v>
@@ -9993,7 +9993,7 @@
         <v>0.4293502354224719</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.3746539678116477</v>
+        <v>2.506920643767047</v>
       </c>
       <c r="D329" t="n">
         <v>0.8847046546172908</v>
@@ -10051,7 +10051,7 @@
         <v>-0.1754488297295103</v>
       </c>
       <c r="C331" t="n">
-        <v>0.971609563251387</v>
+        <v>29.43219126502774</v>
       </c>
       <c r="D331" t="n">
         <v>0.3951808978421445</v>
@@ -10081,7 +10081,7 @@
         <v>1.671582950744398</v>
       </c>
       <c r="C332" t="n">
-        <v>0.8664175854545542</v>
+        <v>27.32835170909108</v>
       </c>
       <c r="D332" t="n">
         <v>5.678273148248964</v>
@@ -10111,7 +10111,7 @@
         <v>1.759697192334311</v>
       </c>
       <c r="C333" t="n">
-        <v>-0.7693345840912993</v>
+        <v>-5.386691681825987</v>
       </c>
       <c r="D333" t="n">
         <v>0.9684251845340147</v>
@@ -10141,7 +10141,7 @@
         <v>-0.1443928184529713</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.03035412186364919</v>
+        <v>9.392917562727016</v>
       </c>
       <c r="D334" t="n">
         <v>6.306572394214459</v>
@@ -10171,7 +10171,7 @@
         <v>-0.3459163005999941</v>
       </c>
       <c r="C335" t="n">
-        <v>0.7940963749594439</v>
+        <v>25.88192749918888</v>
       </c>
       <c r="D335" t="n">
         <v>6.120714345949047</v>
@@ -10201,7 +10201,7 @@
         <v>-1.506873318803167</v>
       </c>
       <c r="C336" t="n">
-        <v>1.035736507429506</v>
+        <v>30.71473014859012</v>
       </c>
       <c r="D336" t="n">
         <v>1.334165060942216</v>
@@ -10231,7 +10231,7 @@
         <v>-0.004258987239210006</v>
       </c>
       <c r="C337" t="n">
-        <v>-0.6611566846541527</v>
+        <v>-3.223133693083053</v>
       </c>
       <c r="D337" t="n">
         <v>1.57105023611142</v>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="n">
-        <v>0.7081644548002397</v>
+        <v>24.1632890960048</v>
       </c>
       <c r="D338" t="n">
         <v>5.317732422217904</v>
@@ -10285,7 +10285,7 @@
         <v>-0.1287353395279233</v>
       </c>
       <c r="C339" t="n">
-        <v>0.3311465091877011</v>
+        <v>16.62293018375402</v>
       </c>
       <c r="D339" t="n">
         <v>2.472186894717736</v>
@@ -10343,7 +10343,7 @@
         <v>-1.397497323919264</v>
       </c>
       <c r="C341" t="n">
-        <v>0.800157962585735</v>
+        <v>26.0031592517147</v>
       </c>
       <c r="D341" t="n">
         <v>6.577867428160627</v>
@@ -10373,7 +10373,7 @@
         <v>-0.4347749297336017</v>
       </c>
       <c r="C342" t="n">
-        <v>0.1515432084324689</v>
+        <v>13.03086416864938</v>
       </c>
       <c r="D342" t="n">
         <v>0.8370515661489354</v>
@@ -10403,7 +10403,7 @@
         <v>0.4624653058026509</v>
       </c>
       <c r="C343" t="n">
-        <v>-1.741390606326526</v>
+        <v>-24.82781212653052</v>
       </c>
       <c r="D343" t="n">
         <v>9.677352407628529</v>
@@ -10459,7 +10459,7 @@
         <v>0.8246673344105617</v>
       </c>
       <c r="C345" t="n">
-        <v>0.03985754158497253</v>
+        <v>10.79715083169945</v>
       </c>
       <c r="D345" t="n">
         <v>0.5585733244191827</v>
@@ -10489,7 +10489,7 @@
         <v>-0.6026718845586638</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.6058244788175937</v>
+        <v>-2.116489576351874</v>
       </c>
       <c r="D346" t="n">
         <v>5.922032945305315</v>
@@ -10519,7 +10519,7 @@
         <v>-1.749988548823665</v>
       </c>
       <c r="C347" t="n">
-        <v>1.228228425498525</v>
+        <v>34.5645685099705</v>
       </c>
       <c r="D347" t="n">
         <v>3.661135129753</v>
@@ -10549,7 +10549,7 @@
         <v>1.12209023032227</v>
       </c>
       <c r="C348" t="n">
-        <v>1.264468490678105</v>
+        <v>35.2893698135621</v>
       </c>
       <c r="D348" t="n">
         <v>1.769519447115688</v>
@@ -10579,7 +10579,7 @@
         <v>-0.9361492892709085</v>
       </c>
       <c r="C349" t="n">
-        <v>-0.3824901589128449</v>
+        <v>2.350196821743102</v>
       </c>
       <c r="D349" t="n">
         <v>2.745575148875545</v>
@@ -10609,7 +10609,7 @@
         <v>0.506604027501984</v>
       </c>
       <c r="C350" t="n">
-        <v>-0.4922255213537423</v>
+        <v>0.1554895729251555</v>
       </c>
       <c r="D350" t="n">
         <v>1.771515534756893</v>
@@ -10639,7 +10639,7 @@
         <v>0.4508568664884153</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.1312346733693211</v>
+        <v>7.375306532613578</v>
       </c>
       <c r="D351" t="n">
         <v>1.526012213445917</v>
@@ -10669,7 +10669,7 @@
         <v>-1.663753195031992</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.2000805658066807</v>
+        <v>5.998388683866385</v>
       </c>
       <c r="D352" t="n">
         <v>0.8932918972034699</v>
@@ -10695,7 +10695,7 @@
         <v>1.049125417240026</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.5925018938019228</v>
+        <v>-1.850037876038455</v>
       </c>
       <c r="D353" t="n">
         <v>2.253100610703325</v>
@@ -10753,7 +10753,7 @@
         <v>0.05505462198696162</v>
       </c>
       <c r="C355" t="n">
-        <v>1.754811875599614</v>
+        <v>45.09623751199229</v>
       </c>
       <c r="D355" t="n">
         <v>5.751125334435142</v>
@@ -10783,7 +10783,7 @@
         <v>-0.3581825639655565</v>
       </c>
       <c r="C356" t="n">
-        <v>0.0004179637781422922</v>
+        <v>10.00835927556285</v>
       </c>
       <c r="D356" t="n">
         <v>5.758115409194541</v>
@@ -10813,7 +10813,7 @@
         <v>1.622591502232909</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.1783101119290764</v>
+        <v>6.433797761418472</v>
       </c>
       <c r="D357" t="n">
         <v>3.484172276605696</v>
@@ -10843,7 +10843,7 @@
         <v>1.343490208184063</v>
       </c>
       <c r="C358" t="n">
-        <v>0.3251691300519507</v>
+        <v>16.50338260103901</v>
       </c>
       <c r="D358" t="n">
         <v>7.524140260319578</v>
@@ -10873,7 +10873,7 @@
         <v>-1.812334583770722</v>
       </c>
       <c r="C359" t="n">
-        <v>-0.08005774853408995</v>
+        <v>8.398845029318201</v>
       </c>
       <c r="D359" t="n">
         <v>9.204949800325753</v>
@@ -10903,7 +10903,7 @@
         <v>2.258827121908189</v>
       </c>
       <c r="C360" t="n">
-        <v>-0.4303158446454495</v>
+        <v>1.393683107091011</v>
       </c>
       <c r="D360" t="n">
         <v>4.334723342586951</v>
@@ -10933,7 +10933,7 @@
         <v>-0.6783067325151962</v>
       </c>
       <c r="C361" t="n">
-        <v>-1.005645986391949</v>
+        <v>-10.11291972783899</v>
       </c>
       <c r="D361" t="n">
         <v>4.823928709299413</v>
@@ -10963,7 +10963,7 @@
         <v>2.102436676981838</v>
       </c>
       <c r="C362" t="n">
-        <v>-1.838612776495696</v>
+        <v>-26.77225552991392</v>
       </c>
       <c r="D362" t="inlineStr"/>
       <c r="E362" t="n">
@@ -10989,7 +10989,7 @@
         <v>-0.2562095721399845</v>
       </c>
       <c r="C363" t="n">
-        <v>-1.354378929954394</v>
+        <v>-17.08757859908787</v>
       </c>
       <c r="D363" t="n">
         <v>11.26274998254025</v>
@@ -11019,7 +11019,7 @@
         <v>-0.3409167060919351</v>
       </c>
       <c r="C364" t="n">
-        <v>-1.116674066710147</v>
+        <v>-12.33348133420294</v>
       </c>
       <c r="D364" t="n">
         <v>0.122519129723924</v>
@@ -11049,7 +11049,7 @@
         <v>-0.2473277330778225</v>
       </c>
       <c r="C365" t="n">
-        <v>0.6509221580409689</v>
+        <v>23.01844316081938</v>
       </c>
       <c r="D365" t="n">
         <v>2.143175885624233</v>
@@ -11079,7 +11079,7 @@
         <v>-0.4007896449794901</v>
       </c>
       <c r="C366" t="n">
-        <v>0.7246231467643945</v>
+        <v>24.49246293528789</v>
       </c>
       <c r="D366" t="n">
         <v>6.397082573851022</v>
@@ -11109,7 +11109,7 @@
         <v>2.524396537823222</v>
       </c>
       <c r="C367" t="n">
-        <v>-0.8817991044667711</v>
+        <v>-7.635982089335421</v>
       </c>
       <c r="D367" t="n">
         <v>0.4173945339658059</v>
@@ -11135,7 +11135,7 @@
         <v>-0.07636319932063421</v>
       </c>
       <c r="C368" t="n">
-        <v>-2.663654140437395</v>
+        <v>-43.27308280874789</v>
       </c>
       <c r="D368" t="n">
         <v>1.011618527827252</v>
@@ -11161,7 +11161,7 @@
         <v>-0.3022964325386896</v>
       </c>
       <c r="C369" t="n">
-        <v>0.009120719501876304</v>
+        <v>10.18241439003753</v>
       </c>
       <c r="D369" t="n">
         <v>4.449287539316884</v>
@@ -11217,7 +11217,7 @@
         <v>-0.9673351969247053</v>
       </c>
       <c r="C371" t="n">
-        <v>-0.4462624867001313</v>
+        <v>1.074750265997373</v>
       </c>
       <c r="D371" t="n">
         <v>6.714800909612594</v>
@@ -11247,7 +11247,7 @@
         <v>1.597120534290251</v>
       </c>
       <c r="C372" t="n">
-        <v>0.9559374757643647</v>
+        <v>29.11874951528729</v>
       </c>
       <c r="D372" t="n">
         <v>8.372886779464558</v>
@@ -11277,7 +11277,7 @@
         <v>-1.471080835693131</v>
       </c>
       <c r="C373" t="n">
-        <v>0.1386526254728524</v>
+        <v>12.77305250945705</v>
       </c>
       <c r="D373" t="n">
         <v>0.688153651551108</v>
@@ -11307,7 +11307,7 @@
         <v>-0.6140086070714053</v>
       </c>
       <c r="C374" t="n">
-        <v>-0.9763796485200793</v>
+        <v>-9.527592970401585</v>
       </c>
       <c r="D374" t="n">
         <v>0.09276009601662824</v>
@@ -11337,7 +11337,7 @@
         <v>0.9366603098467922</v>
       </c>
       <c r="C375" t="n">
-        <v>-1.20641303395905</v>
+        <v>-14.12826067918099</v>
       </c>
       <c r="D375" t="n">
         <v>5.850087976064913</v>
@@ -11367,7 +11367,7 @@
         <v>0.04235213076743197</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.2626113569849563</v>
+        <v>4.747772860300874</v>
       </c>
       <c r="D376" t="n">
         <v>1.793326014284741</v>
@@ -11397,7 +11397,7 @@
         <v>0.5492151825000465</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.906412762189642</v>
+        <v>-8.128255243792839</v>
       </c>
       <c r="D377" t="n">
         <v>4.917282357889928</v>
@@ -11425,7 +11425,7 @@
         <v>1.53316411668543</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.07239762402761732</v>
+        <v>8.552047519447655</v>
       </c>
       <c r="D378" t="n">
         <v>0.8157991333320453</v>
@@ -11455,7 +11455,7 @@
         <v>1.00380154833248</v>
       </c>
       <c r="C379" t="n">
-        <v>1.026142044401966</v>
+        <v>30.52284088803932</v>
       </c>
       <c r="D379" t="n">
         <v>3.165343390171307</v>
@@ -11485,7 +11485,7 @@
         <v>0.1374763451411452</v>
       </c>
       <c r="C380" t="n">
-        <v>-1.37978241159945</v>
+        <v>-17.595648231989</v>
       </c>
       <c r="D380" t="inlineStr"/>
       <c r="E380" t="inlineStr"/>
@@ -11511,7 +11511,7 @@
         <v>2.089342649851798</v>
       </c>
       <c r="C381" t="n">
-        <v>0.08777943480896865</v>
+        <v>11.75558869617937</v>
       </c>
       <c r="D381" t="n">
         <v>4.398321428332813</v>
@@ -11541,7 +11541,7 @@
         <v>-0.6283361487962332</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9150499826693897</v>
+        <v>28.30099965338779</v>
       </c>
       <c r="D382" t="n">
         <v>3.59920163180402</v>
@@ -11565,7 +11565,7 @@
         <v>-0.100309640992553</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.08618733581810893</v>
+        <v>8.276253283637821</v>
       </c>
       <c r="D383" t="n">
         <v>3.422828239614035</v>
@@ -11595,7 +11595,7 @@
         <v>-0.03044033150276641</v>
       </c>
       <c r="C384" t="n">
-        <v>0.7215808951176532</v>
+        <v>24.43161790235306</v>
       </c>
       <c r="D384" t="n">
         <v>2.022833713674929</v>
@@ -11625,7 +11625,7 @@
         <v>-0.1024217660169797</v>
       </c>
       <c r="C385" t="n">
-        <v>-0.2872724921154622</v>
+        <v>4.254550157690755</v>
       </c>
       <c r="D385" t="n">
         <v>0.3692028504877344</v>
@@ -11655,7 +11655,7 @@
         <v>-1.06921065696116</v>
       </c>
       <c r="C386" t="n">
-        <v>0.1708280794236369</v>
+        <v>13.41656158847274</v>
       </c>
       <c r="D386" t="n">
         <v>0.4689178107739055</v>
@@ -11685,7 +11685,7 @@
         <v>-1.583649825160498</v>
       </c>
       <c r="C387" t="n">
-        <v>0.4407849323421765</v>
+        <v>18.81569864684353</v>
       </c>
       <c r="D387" t="n">
         <v>2.843847680797193</v>
@@ -11715,7 +11715,7 @@
         <v>0.4172015743791935</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.5720024382631347</v>
+        <v>-1.440048765262693</v>
       </c>
       <c r="D388" t="n">
         <v>2.198676871847486</v>
@@ -11745,7 +11745,7 @@
         <v>-0.6334737855506571</v>
       </c>
       <c r="C389" t="n">
-        <v>1.990676017189999</v>
+        <v>49.81352034379999</v>
       </c>
       <c r="D389" t="n">
         <v>3.62974466557362</v>
@@ -11775,7 +11775,7 @@
         <v>1.90780878898128</v>
       </c>
       <c r="C390" t="n">
-        <v>0.5775801803319217</v>
+        <v>21.55160360663843</v>
       </c>
       <c r="D390" t="n">
         <v>1.818053052658568</v>
@@ -11805,7 +11805,7 @@
         <v>-0.07254232323523949</v>
       </c>
       <c r="C391" t="n">
-        <v>1.302985498716921</v>
+        <v>36.05970997433842</v>
       </c>
       <c r="D391" t="n">
         <v>5.822319821363874</v>
@@ -11835,7 +11835,7 @@
         <v>-0.2514892574914904</v>
       </c>
       <c r="C392" t="n">
-        <v>1.071023946360768</v>
+        <v>31.42047892721536</v>
       </c>
       <c r="D392" t="inlineStr"/>
       <c r="E392" t="n">
@@ -11891,7 +11891,7 @@
         <v>0.4021926374477218</v>
       </c>
       <c r="C394" t="n">
-        <v>1.385789422359808</v>
+        <v>37.71578844719615</v>
       </c>
       <c r="D394" t="n">
         <v>1.072058971141371</v>
@@ -11919,7 +11919,7 @@
         <v>-0.1755174277870488</v>
       </c>
       <c r="C395" t="n">
-        <v>0.1879147111919174</v>
+        <v>13.75829422383835</v>
       </c>
       <c r="D395" t="n">
         <v>0.6175125336427678</v>
@@ -11949,7 +11949,7 @@
         <v>-0.6407317477644433</v>
       </c>
       <c r="C396" t="n">
-        <v>-0.7297752831743629</v>
+        <v>-4.595505663487259</v>
       </c>
       <c r="D396" t="n">
         <v>4.78887254655459</v>
@@ -11979,7 +11979,7 @@
         <v>3.657701803999075</v>
       </c>
       <c r="C397" t="n">
-        <v>0.01481923156296321</v>
+        <v>10.29638463125927</v>
       </c>
       <c r="D397" t="n">
         <v>2.933640047642722</v>
@@ -12009,7 +12009,7 @@
         <v>0.3617857622617386</v>
       </c>
       <c r="C398" t="n">
-        <v>-1.006166912415131</v>
+        <v>-10.12333824830263</v>
       </c>
       <c r="D398" t="n">
         <v>1.041371475804285</v>
@@ -12037,7 +12037,7 @@
         <v>1.084429577384396</v>
       </c>
       <c r="C399" t="n">
-        <v>-2.101704328109802</v>
+        <v>-32.03408656219604</v>
       </c>
       <c r="D399" t="n">
         <v>5.29412310379895</v>
@@ -12067,7 +12067,7 @@
         <v>-1.022945520233495</v>
       </c>
       <c r="C400" t="n">
-        <v>-0.8525422430590254</v>
+        <v>-7.050844861180508</v>
       </c>
       <c r="D400" t="n">
         <v>0.8036801461371275</v>
@@ -12097,7 +12097,7 @@
         <v>-0.5779853864236748</v>
       </c>
       <c r="C401" t="n">
-        <v>0.07288153297087471</v>
+        <v>11.45763065941749</v>
       </c>
       <c r="D401" t="n">
         <v>4.040553913574334</v>
@@ -12153,7 +12153,7 @@
         <v>1.396930939355635</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.8555192045763543</v>
+        <v>-7.110384091527088</v>
       </c>
       <c r="D403" t="n">
         <v>6.625578662764559</v>
@@ -12183,7 +12183,7 @@
         <v>0.4576221037332832</v>
       </c>
       <c r="C404" t="n">
-        <v>1.010162453527155</v>
+        <v>30.20324907054309</v>
       </c>
       <c r="D404" t="n">
         <v>0.2834318966029877</v>
@@ -12211,7 +12211,7 @@
         <v>-0.3815708917970235</v>
       </c>
       <c r="C405" t="n">
-        <v>-1.210682985806877</v>
+        <v>-14.21365971613754</v>
       </c>
       <c r="D405" t="n">
         <v>10.94061256873065</v>
@@ -12241,7 +12241,7 @@
         <v>-0.2340357719565759</v>
       </c>
       <c r="C406" t="n">
-        <v>-0.9195224661394502</v>
+        <v>-8.390449322789003</v>
       </c>
       <c r="D406" t="n">
         <v>6.069976412379749</v>
@@ -12269,7 +12269,7 @@
         <v>-0.6761107352561291</v>
       </c>
       <c r="C407" t="n">
-        <v>1.449156603396452</v>
+        <v>38.98313206792903</v>
       </c>
       <c r="D407" t="inlineStr"/>
       <c r="E407" t="n">
@@ -12297,7 +12297,7 @@
         <v>-1.156849330138641</v>
       </c>
       <c r="C408" t="n">
-        <v>0.04762101996249564</v>
+        <v>10.95242039924991</v>
       </c>
       <c r="D408" t="n">
         <v>1.013062249854212</v>
@@ -12327,7 +12327,7 @@
         <v>0.9238441842610142</v>
       </c>
       <c r="C409" t="n">
-        <v>-0.1736219452846434</v>
+        <v>6.527561094307133</v>
       </c>
       <c r="D409" t="n">
         <v>2.825179122921906</v>
@@ -12385,7 +12385,7 @@
         <v>0.736078816342273</v>
       </c>
       <c r="C411" t="n">
-        <v>-1.206403250718046</v>
+        <v>-14.12806501436091</v>
       </c>
       <c r="D411" t="n">
         <v>9.255955046557203</v>
@@ -12443,7 +12443,7 @@
         <v>0.2556389751331636</v>
       </c>
       <c r="C413" t="n">
-        <v>0.002661158126551583</v>
+        <v>10.05322316253103</v>
       </c>
       <c r="D413" t="n">
         <v>9.859607853347406</v>
@@ -12473,7 +12473,7 @@
         <v>-0.4320437649741344</v>
       </c>
       <c r="C414" t="n">
-        <v>1.231380936179432</v>
+        <v>34.62761872358865</v>
       </c>
       <c r="D414" t="n">
         <v>0.02729290084990225</v>
@@ -12503,7 +12503,7 @@
         <v>-0.7273080627703064</v>
       </c>
       <c r="C415" t="n">
-        <v>-1.670417139301401</v>
+        <v>-23.40834278602802</v>
       </c>
       <c r="D415" t="n">
         <v>0.1790407966853332</v>
@@ -12559,7 +12559,7 @@
         <v>0.1215072968407429</v>
       </c>
       <c r="C417" t="n">
-        <v>-0.1246477383250431</v>
+        <v>7.507045233499138</v>
       </c>
       <c r="D417" t="n">
         <v>7.465656049794288</v>
@@ -12589,7 +12589,7 @@
         <v>0.5074543382865404</v>
       </c>
       <c r="C418" t="n">
-        <v>-1.110556248967009</v>
+        <v>-12.21112497934018</v>
       </c>
       <c r="D418" t="n">
         <v>2.995607838660204</v>
@@ -12619,7 +12619,7 @@
         <v>0.8357540138575011</v>
       </c>
       <c r="C419" t="n">
-        <v>-1.291634716134391</v>
+        <v>-15.83269432268782</v>
       </c>
       <c r="D419" t="n">
         <v>7.004200830897263</v>
@@ -12649,7 +12649,7 @@
         <v>0.134040886233024</v>
       </c>
       <c r="C420" t="n">
-        <v>0.2731493170042062</v>
+        <v>15.46298634008412</v>
       </c>
       <c r="D420" t="n">
         <v>15.57702491147724</v>
@@ -12675,7 +12675,7 @@
         <v>0.2406327440251545</v>
       </c>
       <c r="C421" t="n">
-        <v>-1.347209480068526</v>
+        <v>-16.94418960137051</v>
       </c>
       <c r="D421" t="n">
         <v>7.394011878682353</v>
@@ -12705,7 +12705,7 @@
         <v>-1.086625176953707</v>
       </c>
       <c r="C422" t="n">
-        <v>-0.5601235450930988</v>
+        <v>-1.202470901861975</v>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="n">
@@ -12729,7 +12729,7 @@
         <v>-0.8961150284365853</v>
       </c>
       <c r="C423" t="n">
-        <v>-0.2499030608777983</v>
+        <v>5.001938782444034</v>
       </c>
       <c r="D423" t="n">
         <v>7.148234887113555</v>
@@ -12759,7 +12759,7 @@
         <v>-0.9478147551284467</v>
       </c>
       <c r="C424" t="n">
-        <v>1.143675739404826</v>
+        <v>32.87351478809651</v>
       </c>
       <c r="D424" t="n">
         <v>0.9208829360986772</v>
@@ -12789,7 +12789,7 @@
         <v>0.6054584168205353</v>
       </c>
       <c r="C425" t="n">
-        <v>1.018453459263974</v>
+        <v>30.36906918527947</v>
       </c>
       <c r="D425" t="n">
         <v>8.966025858133852</v>
@@ -12819,7 +12819,7 @@
         <v>0.07089065282206512</v>
       </c>
       <c r="C426" t="n">
-        <v>-0.6429923901189591</v>
+        <v>-2.859847802379182</v>
       </c>
       <c r="D426" t="n">
         <v>1.085240954277662</v>
@@ -12849,7 +12849,7 @@
         <v>-0.8960315637655879</v>
       </c>
       <c r="C427" t="n">
-        <v>-0.212683170220922</v>
+        <v>5.746336595581561</v>
       </c>
       <c r="D427" t="n">
         <v>11.15650288870834</v>
@@ -12879,7 +12879,7 @@
         <v>0.5800988416352069</v>
       </c>
       <c r="C428" t="n">
-        <v>-1.595384900175746</v>
+        <v>-21.90769800351491</v>
       </c>
       <c r="D428" t="n">
         <v>3.068445354785847</v>
@@ -12909,7 +12909,7 @@
         <v>0.543456460954106</v>
       </c>
       <c r="C429" t="n">
-        <v>-2.03909551324372</v>
+        <v>-30.7819102648744</v>
       </c>
       <c r="D429" t="n">
         <v>5.650154920401212</v>
@@ -12939,7 +12939,7 @@
         <v>-0.6949659912993648</v>
       </c>
       <c r="C430" t="n">
-        <v>-1.22905244759262</v>
+        <v>-14.5810489518524</v>
       </c>
       <c r="D430" t="n">
         <v>3.438220231894969</v>
@@ -12967,7 +12967,7 @@
         <v>-0.0278275446292738</v>
       </c>
       <c r="C431" t="n">
-        <v>1.12309736132581</v>
+        <v>32.46194722651621</v>
       </c>
       <c r="D431" t="n">
         <v>0.4935298065390978</v>
@@ -12997,7 +12997,7 @@
         <v>0.547141675060477</v>
       </c>
       <c r="C432" t="n">
-        <v>0.78008072222146</v>
+        <v>25.6016144444292</v>
       </c>
       <c r="D432" t="n">
         <v>1.717540807299649</v>
@@ -13027,7 +13027,7 @@
         <v>-0.8583553541194234</v>
       </c>
       <c r="C433" t="n">
-        <v>0.383436262596614</v>
+        <v>17.66872525193228</v>
       </c>
       <c r="D433" t="n">
         <v>20.59273158059592</v>
@@ -13057,7 +13057,7 @@
         <v>0.5662267648959507</v>
       </c>
       <c r="C434" t="n">
-        <v>-1.457624486620577</v>
+        <v>-19.15248973241154</v>
       </c>
       <c r="D434" t="n">
         <v>16.18453095563738</v>
@@ -13087,7 +13087,7 @@
         <v>0.3010236041635616</v>
       </c>
       <c r="C435" t="n">
-        <v>-0.7116595773911455</v>
+        <v>-4.23319154782291</v>
       </c>
       <c r="D435" t="n">
         <v>1.931893816225242</v>
@@ -13117,7 +13117,7 @@
         <v>-0.9991997055010263</v>
       </c>
       <c r="C436" t="n">
-        <v>-0.8578210281786216</v>
+        <v>-7.156420563572432</v>
       </c>
       <c r="D436" t="n">
         <v>27.99279557307374</v>
@@ -13147,7 +13147,7 @@
         <v>0.219796734998102</v>
       </c>
       <c r="C437" t="n">
-        <v>-0.1659983706205624</v>
+        <v>6.680032587588753</v>
       </c>
       <c r="D437" t="n">
         <v>9.339462999982404</v>
@@ -13205,7 +13205,7 @@
         <v>-0.626001126138799</v>
       </c>
       <c r="C439" t="n">
-        <v>-1.001956856695829</v>
+        <v>-10.03913713391657</v>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="n">
@@ -13233,7 +13233,7 @@
         <v>-0.5472836498662091</v>
       </c>
       <c r="C440" t="n">
-        <v>0.3492168078985434</v>
+        <v>16.98433615797087</v>
       </c>
       <c r="D440" t="n">
         <v>11.58579537401887</v>
@@ -13261,7 +13261,7 @@
         <v>-1.00841993093119</v>
       </c>
       <c r="C441" t="n">
-        <v>0.2289463802042389</v>
+        <v>14.57892760408478</v>
       </c>
       <c r="D441" t="n">
         <v>4.075775032162769</v>
@@ -13291,7 +13291,7 @@
         <v>-0.4489989691238941</v>
       </c>
       <c r="C442" t="n">
-        <v>-0.7288230990929465</v>
+        <v>-4.57646198185893</v>
       </c>
       <c r="D442" t="n">
         <v>10.1428354206662</v>
@@ -13315,7 +13315,7 @@
         <v>-0.01208201043714779</v>
       </c>
       <c r="C443" t="n">
-        <v>0.3042783916325312</v>
+        <v>16.08556783265063</v>
       </c>
       <c r="D443" t="n">
         <v>8.991779486674668</v>
@@ -13345,7 +13345,7 @@
         <v>-0.5445221586943206</v>
       </c>
       <c r="C444" t="n">
-        <v>1.124285368330521</v>
+        <v>32.48570736661041</v>
       </c>
       <c r="D444" t="n">
         <v>8.948993420154569</v>
@@ -13375,7 +13375,7 @@
         <v>-1.484887898243887</v>
       </c>
       <c r="C445" t="n">
-        <v>1.428060777123246</v>
+        <v>38.56121554246492</v>
       </c>
       <c r="D445" t="n">
         <v>5.989520625581541</v>
@@ -13405,7 +13405,7 @@
         <v>-0.6885880246366268</v>
       </c>
       <c r="C446" t="n">
-        <v>0.490662156609859</v>
+        <v>19.81324313219718</v>
       </c>
       <c r="D446" t="n">
         <v>1.722427254922638</v>
@@ -13435,7 +13435,7 @@
         <v>-0.4172921068120021</v>
       </c>
       <c r="C447" t="n">
-        <v>0.461267943409356</v>
+        <v>19.22535886818712</v>
       </c>
       <c r="D447" t="n">
         <v>2.048572553303348</v>
@@ -13465,7 +13465,7 @@
         <v>0.8168387096322518</v>
       </c>
       <c r="C448" t="n">
-        <v>-0.2401389140243114</v>
+        <v>5.197221719513773</v>
       </c>
       <c r="D448" t="n">
         <v>1.844238031057154</v>
@@ -13495,7 +13495,7 @@
         <v>0.5947649147769306</v>
       </c>
       <c r="C449" t="n">
-        <v>1.029712895535159</v>
+        <v>30.59425791070318</v>
       </c>
       <c r="D449" t="n">
         <v>0.1012482335884563</v>
@@ -13525,7 +13525,7 @@
         <v>0.8362210788750023</v>
       </c>
       <c r="C450" t="n">
-        <v>-1.070351451339787</v>
+        <v>-11.40702902679574</v>
       </c>
       <c r="D450" t="n">
         <v>4.368179001626665</v>
@@ -13555,7 +13555,7 @@
         <v>-0.7390188969989682</v>
       </c>
       <c r="C451" t="n">
-        <v>0.9138501434081648</v>
+        <v>28.2770028681633</v>
       </c>
       <c r="D451" t="n">
         <v>6.000462884872687</v>
@@ -13585,7 +13585,7 @@
         <v>0.1415507790793433</v>
       </c>
       <c r="C452" t="n">
-        <v>-0.2876047341808028</v>
+        <v>4.247905316383944</v>
       </c>
       <c r="D452" t="n">
         <v>9.616156128378986</v>
@@ -13615,7 +13615,7 @@
         <v>-2.423046499001534</v>
       </c>
       <c r="C453" t="n">
-        <v>1.49093682720173</v>
+        <v>39.81873654403459</v>
       </c>
       <c r="D453" t="n">
         <v>0.7550763631875566</v>
@@ -13645,7 +13645,7 @@
         <v>0.4289203981809886</v>
       </c>
       <c r="C454" t="n">
-        <v>0.5882064070400744</v>
+        <v>21.76412814080149</v>
       </c>
       <c r="D454" t="n">
         <v>3.928320963203435</v>
@@ -13675,7 +13675,7 @@
         <v>0.6108976739007975</v>
       </c>
       <c r="C455" t="n">
-        <v>-0.06786623107310033</v>
+        <v>8.642675378537994</v>
       </c>
       <c r="D455" t="n">
         <v>0.04020189027657103</v>
@@ -13705,7 +13705,7 @@
         <v>-0.351625167860924</v>
       </c>
       <c r="C456" t="n">
-        <v>-0.2364876489042734</v>
+        <v>5.270247021914532</v>
       </c>
       <c r="D456" t="n">
         <v>0.4996190938492254</v>
@@ -13735,7 +13735,7 @@
         <v>0.2954298117217816</v>
       </c>
       <c r="C457" t="n">
-        <v>0.525612854448437</v>
+        <v>20.51225708896874</v>
       </c>
       <c r="D457" t="n">
         <v>0.2786828303436694</v>
@@ -13765,7 +13765,7 @@
         <v>-1.514924275370053</v>
       </c>
       <c r="C458" t="n">
-        <v>0.4771243476860553</v>
+        <v>19.54248695372111</v>
       </c>
       <c r="D458" t="n">
         <v>6.463619997163103</v>
@@ -13795,7 +13795,7 @@
         <v>-0.801066990399824</v>
       </c>
       <c r="C459" t="n">
-        <v>-0.3983430045005277</v>
+        <v>2.033139909989446</v>
       </c>
       <c r="D459" t="n">
         <v>0.4226698626097639</v>
@@ -13825,7 +13825,7 @@
         <v>0.7654492384322756</v>
       </c>
       <c r="C460" t="n">
-        <v>0.09183575826834649</v>
+        <v>11.83671516536693</v>
       </c>
       <c r="D460" t="n">
         <v>6.30188659842545</v>
@@ -13855,7 +13855,7 @@
         <v>0.5112532785395744</v>
       </c>
       <c r="C461" t="n">
-        <v>0.8963900873486018</v>
+        <v>27.92780174697204</v>
       </c>
       <c r="D461" t="n">
         <v>1.435909017439732</v>
@@ -13885,7 +13885,7 @@
         <v>-0.4118545110447676</v>
       </c>
       <c r="C462" t="n">
-        <v>-1.36335625788025</v>
+        <v>-17.267125157605</v>
       </c>
       <c r="D462" t="n">
         <v>10.50692108266094</v>
@@ -13913,7 +13913,7 @@
         <v>0.8113623174047104</v>
       </c>
       <c r="C463" t="n">
-        <v>0.7258782205537132</v>
+        <v>24.51756441107426</v>
       </c>
       <c r="D463" t="n">
         <v>8.387245303875497</v>
@@ -13943,7 +13943,7 @@
         <v>0.1382981167999109</v>
       </c>
       <c r="C464" t="n">
-        <v>0.5212145783593538</v>
+        <v>20.42429156718708</v>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="n">
@@ -13971,7 +13971,7 @@
         <v>-0.5042209639221594</v>
       </c>
       <c r="C465" t="n">
-        <v>1.186647475561491</v>
+        <v>33.73294951122981</v>
       </c>
       <c r="D465" t="n">
         <v>10.76057799317663</v>
@@ -14001,7 +14001,7 @@
         <v>-0.1828273106032938</v>
       </c>
       <c r="C466" t="n">
-        <v>-0.7156537013032378</v>
+        <v>-4.313074026064756</v>
       </c>
       <c r="D466" t="n">
         <v>13.53995744785487</v>
@@ -14031,7 +14031,7 @@
         <v>-0.4554176913115355</v>
       </c>
       <c r="C467" t="n">
-        <v>0.005716086092890965</v>
+        <v>10.11432172185782</v>
       </c>
       <c r="D467" t="n">
         <v>9.785850402050437</v>
@@ -14057,7 +14057,7 @@
         <v>-1.183775950818528</v>
       </c>
       <c r="C468" t="n">
-        <v>0.2050683760048956</v>
+        <v>14.10136752009791</v>
       </c>
       <c r="D468" t="n">
         <v>5.910761408597214</v>
@@ -14085,7 +14085,7 @@
         <v>1.256685805902101</v>
       </c>
       <c r="C469" t="n">
-        <v>0.7387965172002353</v>
+        <v>24.77593034400471</v>
       </c>
       <c r="D469" t="n">
         <v>0.9332092921115922</v>
@@ -14115,7 +14115,7 @@
         <v>-0.5680244332925911</v>
       </c>
       <c r="C470" t="n">
-        <v>0.4291169291610002</v>
+        <v>18.58233858322</v>
       </c>
       <c r="D470" t="n">
         <v>1.585262758267549</v>
@@ -14145,7 +14145,7 @@
         <v>-0.8323607142969114</v>
       </c>
       <c r="C471" t="n">
-        <v>-1.239555098812275</v>
+        <v>-14.79110197624549</v>
       </c>
       <c r="D471" t="n">
         <v>1.195900803910931</v>
@@ -14175,7 +14175,7 @@
         <v>-1.529348320513359</v>
       </c>
       <c r="C472" t="n">
-        <v>0.291044032861646</v>
+        <v>15.82088065723292</v>
       </c>
       <c r="D472" t="n">
         <v>4.626478118163569</v>
@@ -14205,7 +14205,7 @@
         <v>-2.635967867589127</v>
       </c>
       <c r="C473" t="n">
-        <v>2.004228774270408</v>
+        <v>50.08457548540817</v>
       </c>
       <c r="D473" t="n">
         <v>3.502066957972545</v>
@@ -14235,7 +14235,7 @@
         <v>0.701496868118987</v>
       </c>
       <c r="C474" t="n">
-        <v>0.6117575759613151</v>
+        <v>22.2351515192263</v>
       </c>
       <c r="D474" t="n">
         <v>10.09003907058825</v>
@@ -14265,7 +14265,7 @@
         <v>0.793608687036212</v>
       </c>
       <c r="C475" t="n">
-        <v>1.6380469445366</v>
+        <v>42.760938890732</v>
       </c>
       <c r="D475" t="n">
         <v>15.25335750501382</v>
@@ -14295,7 +14295,7 @@
         <v>1.193038584594708</v>
       </c>
       <c r="C476" t="n">
-        <v>1.043061377294812</v>
+        <v>30.86122754589625</v>
       </c>
       <c r="D476" t="n">
         <v>2.594792107620568</v>
@@ -14325,7 +14325,7 @@
         <v>-0.1490393161701822</v>
       </c>
       <c r="C477" t="n">
-        <v>1.362401935438409</v>
+        <v>37.24803870876818</v>
       </c>
       <c r="D477" t="n">
         <v>3.529648178605185</v>
@@ -14355,7 +14355,7 @@
         <v>-0.3219925272935952</v>
       </c>
       <c r="C478" t="n">
-        <v>0.3099686609847051</v>
+        <v>16.1993732196941</v>
       </c>
       <c r="D478" t="n">
         <v>17.79212639708301</v>
@@ -14385,7 +14385,7 @@
         <v>-0.5077231133031412</v>
       </c>
       <c r="C479" t="n">
-        <v>0.5218451096121169</v>
+        <v>20.43690219224234</v>
       </c>
       <c r="D479" t="n">
         <v>1.616469854672413</v>
@@ -14411,7 +14411,7 @@
         <v>-0.4165576298382029</v>
       </c>
       <c r="C480" t="n">
-        <v>0.2555177566413748</v>
+        <v>15.1103551328275</v>
       </c>
       <c r="D480" t="n">
         <v>7.860488469948997</v>
@@ -14439,7 +14439,7 @@
         <v>1.119790350740187</v>
       </c>
       <c r="C481" t="n">
-        <v>0.004340865049522787</v>
+        <v>10.08681730099046</v>
       </c>
       <c r="D481" t="n">
         <v>1.276009244750161</v>
@@ -14469,7 +14469,7 @@
         <v>-0.02651524872895812</v>
       </c>
       <c r="C482" t="n">
-        <v>0.7421949800691044</v>
+        <v>24.84389960138209</v>
       </c>
       <c r="D482" t="n">
         <v>5.720037927578987</v>
@@ -14493,7 +14493,7 @@
         <v>0.3780707960014029</v>
       </c>
       <c r="C483" t="n">
-        <v>-0.5210019390072009</v>
+        <v>-0.4200387801440186</v>
       </c>
       <c r="D483" t="n">
         <v>1.462572835094473</v>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="B484" t="inlineStr"/>
       <c r="C484" t="n">
-        <v>1.885382316014633</v>
+        <v>47.70764632029267</v>
       </c>
       <c r="D484" t="n">
         <v>10.75934676474856</v>
@@ -14551,7 +14551,7 @@
         <v>1.320847906220707</v>
       </c>
       <c r="C485" t="n">
-        <v>-0.9280129676882737</v>
+        <v>-8.560259353765474</v>
       </c>
       <c r="D485" t="n">
         <v>4.12172584544318</v>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="B486" t="inlineStr"/>
       <c r="C486" t="n">
-        <v>0.8113881199171586</v>
+        <v>26.22776239834317</v>
       </c>
       <c r="D486" t="n">
         <v>1.028566970175077</v>
@@ -14601,7 +14601,7 @@
         <v>-1.220524174718046</v>
       </c>
       <c r="C487" t="n">
-        <v>1.378671417303589</v>
+        <v>37.57342834607178</v>
       </c>
       <c r="D487" t="n">
         <v>1.270393069397415</v>
@@ -14631,7 +14631,7 @@
         <v>0.379710524234558</v>
       </c>
       <c r="C488" t="n">
-        <v>-0.1766217539604031</v>
+        <v>6.467564920791937</v>
       </c>
       <c r="D488" t="n">
         <v>3.404603109500072</v>
@@ -14657,7 +14657,7 @@
         <v>1.750610751230936</v>
       </c>
       <c r="C489" t="n">
-        <v>-1.112977311138164</v>
+        <v>-12.25954622276328</v>
       </c>
       <c r="D489" t="n">
         <v>16.29875285062777</v>
@@ -14687,7 +14687,7 @@
         <v>-0.2251001997587704</v>
       </c>
       <c r="C490" t="n">
-        <v>1.155529589282355</v>
+        <v>33.1105917856471</v>
       </c>
       <c r="D490" t="n">
         <v>7.340606849373687</v>
@@ -14715,7 +14715,7 @@
       </c>
       <c r="B491" t="inlineStr"/>
       <c r="C491" t="n">
-        <v>0.2033953100502551</v>
+        <v>14.0679062010051</v>
       </c>
       <c r="D491" t="n">
         <v>3.350178040173456</v>
@@ -14745,7 +14745,7 @@
         <v>1.000662705158344</v>
       </c>
       <c r="C492" t="n">
-        <v>0.8133160726017432</v>
+        <v>26.26632145203487</v>
       </c>
       <c r="D492" t="n">
         <v>2.060327800438958</v>
@@ -14775,7 +14775,7 @@
         <v>0.3236984420148996</v>
       </c>
       <c r="C493" t="n">
-        <v>-0.1094545988373174</v>
+        <v>7.810908023253652</v>
       </c>
       <c r="D493" t="n">
         <v>3.984417228451678</v>
@@ -14805,7 +14805,7 @@
         <v>1.290213811994244</v>
       </c>
       <c r="C494" t="n">
-        <v>1.731924682322397</v>
+        <v>44.63849364644794</v>
       </c>
       <c r="D494" t="n">
         <v>6.898795481368158</v>
@@ -14835,7 +14835,7 @@
         <v>-1.290351084744342</v>
       </c>
       <c r="C495" t="n">
-        <v>-2.117008052206348</v>
+        <v>-32.34016104412697</v>
       </c>
       <c r="D495" t="n">
         <v>7.660731584611375</v>
@@ -14861,7 +14861,7 @@
         <v>1.211668486010926</v>
       </c>
       <c r="C496" t="n">
-        <v>0.3761775512837346</v>
+        <v>17.52355102567469</v>
       </c>
       <c r="D496" t="n">
         <v>1.962315988069023</v>
@@ -14915,7 +14915,7 @@
         <v>-0.2881721461548672</v>
       </c>
       <c r="C498" t="n">
-        <v>0.1053390448293962</v>
+        <v>12.10678089658792</v>
       </c>
       <c r="D498" t="n">
         <v>5.361635651619646</v>
@@ -14945,7 +14945,7 @@
         <v>0.4127827528239263</v>
       </c>
       <c r="C499" t="n">
-        <v>0.3023586930169115</v>
+        <v>16.04717386033823</v>
       </c>
       <c r="D499" t="n">
         <v>15.98462899455307</v>
@@ -14975,7 +14975,7 @@
         <v>0.1860133781990939</v>
       </c>
       <c r="C500" t="n">
-        <v>-0.4340118125670084</v>
+        <v>1.319763748659833</v>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="n">
@@ -15003,7 +15003,7 @@
         <v>1.060592335982367</v>
       </c>
       <c r="C501" t="n">
-        <v>0.02068850786661747</v>
+        <v>10.41377015733235</v>
       </c>
       <c r="D501" t="n">
         <v>7.788482575383373</v>
@@ -15033,7 +15033,7 @@
         <v>-1.826660017009224</v>
       </c>
       <c r="C502" t="n">
-        <v>-1.671856613136305</v>
+        <v>-23.4371322627261</v>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="n">
@@ -15061,7 +15061,7 @@
         <v>0.1410074796990368</v>
       </c>
       <c r="C503" t="n">
-        <v>-0.7184313326196915</v>
+        <v>-4.36862665239383</v>
       </c>
       <c r="D503" t="n">
         <v>1.601312759461479</v>
@@ -15091,7 +15091,7 @@
         <v>1.199642032783947</v>
       </c>
       <c r="C504" t="n">
-        <v>-0.7867551271022283</v>
+        <v>-5.735102542044565</v>
       </c>
       <c r="D504" t="n">
         <v>9.352885461323885</v>
@@ -15121,7 +15121,7 @@
         <v>0.05929422707209649</v>
       </c>
       <c r="C505" t="n">
-        <v>0.6691239910292981</v>
+        <v>23.38247982058596</v>
       </c>
       <c r="D505" t="n">
         <v>2.788762532107392</v>
@@ -15151,7 +15151,7 @@
         <v>-1.142339679766702</v>
       </c>
       <c r="C506" t="n">
-        <v>-0.5713697592877345</v>
+        <v>-1.42739518575469</v>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="n">
@@ -15179,7 +15179,7 @@
         <v>1.007507394826653</v>
       </c>
       <c r="C507" t="n">
-        <v>-0.5424755499398202</v>
+        <v>-0.8495109987964042</v>
       </c>
       <c r="D507" t="n">
         <v>2.42384660105535</v>
@@ -15209,7 +15209,7 @@
         <v>-0.6483102701436957</v>
       </c>
       <c r="C508" t="n">
-        <v>-0.3779233602851397</v>
+        <v>2.441532794297205</v>
       </c>
       <c r="D508" t="n">
         <v>9.037477874716446</v>
@@ -15237,7 +15237,7 @@
         <v>-0.8243230120628784</v>
       </c>
       <c r="C509" t="n">
-        <v>-0.7486447025153175</v>
+        <v>-4.972894050306349</v>
       </c>
       <c r="D509" t="n">
         <v>0.8045611962151479</v>
@@ -15267,7 +15267,7 @@
         <v>-0.950135752883507</v>
       </c>
       <c r="C510" t="n">
-        <v>0.2690222692616974</v>
+        <v>15.38044538523395</v>
       </c>
       <c r="D510" t="n">
         <v>3.045489391191069</v>
@@ -15297,7 +15297,7 @@
         <v>-0.1986851129489625</v>
       </c>
       <c r="C511" t="n">
-        <v>0.3776314694329093</v>
+        <v>17.55262938865819</v>
       </c>
       <c r="D511" t="n">
         <v>3.389890027576063</v>
@@ -15327,7 +15327,7 @@
         <v>0.1830602203728708</v>
       </c>
       <c r="C512" t="n">
-        <v>0.8250185797217593</v>
+        <v>26.50037159443519</v>
       </c>
       <c r="D512" t="n">
         <v>0.1865870554255953</v>
@@ -15385,7 +15385,7 @@
         <v>-1.063645876729944</v>
       </c>
       <c r="C514" t="n">
-        <v>0.5527577449847006</v>
+        <v>21.05515489969401</v>
       </c>
       <c r="D514" t="n">
         <v>8.764879697815918</v>
@@ -15415,7 +15415,7 @@
         <v>-0.6944828758622179</v>
       </c>
       <c r="C515" t="n">
-        <v>-0.3289683339974436</v>
+        <v>3.420633320051128</v>
       </c>
       <c r="D515" t="n">
         <v>8.882405557900498</v>
@@ -15445,7 +15445,7 @@
         <v>-0.9549886478866404</v>
       </c>
       <c r="C516" t="n">
-        <v>-0.3931037503378789</v>
+        <v>2.137924993242422</v>
       </c>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="n">
@@ -15501,7 +15501,7 @@
         <v>0.3612215964008806</v>
       </c>
       <c r="C518" t="n">
-        <v>-0.8892436888941013</v>
+        <v>-7.784873777882027</v>
       </c>
       <c r="D518" t="n">
         <v>7.3872904064141</v>
@@ -15531,7 +15531,7 @@
         <v>0.223873810266593</v>
       </c>
       <c r="C519" t="n">
-        <v>0.1942614096792605</v>
+        <v>13.88522819358521</v>
       </c>
       <c r="D519" t="n">
         <v>2.705629406665319</v>
@@ -15561,7 +15561,7 @@
         <v>0.2253318887478026</v>
       </c>
       <c r="C520" t="n">
-        <v>-0.7194160407800809</v>
+        <v>-4.388320815601618</v>
       </c>
       <c r="D520" t="n">
         <v>6.899699853550128</v>
@@ -15591,7 +15591,7 @@
         <v>1.670991715288611</v>
       </c>
       <c r="C521" t="n">
-        <v>1.468324133355959</v>
+        <v>39.36648266711919</v>
       </c>
       <c r="D521" t="n">
         <v>16.26405471245066</v>
@@ -15621,7 +15621,7 @@
         <v>0.4236835996271551</v>
       </c>
       <c r="C522" t="n">
-        <v>-0.03750082307449309</v>
+        <v>9.249983538510138</v>
       </c>
       <c r="D522" t="n">
         <v>3.071400138504689</v>
@@ -15649,7 +15649,7 @@
         <v>0.783964247889247</v>
       </c>
       <c r="C523" t="n">
-        <v>1.50139010715954</v>
+        <v>40.02780214319081</v>
       </c>
       <c r="D523" t="n">
         <v>1.361847413964364</v>
@@ -15679,7 +15679,7 @@
         <v>-0.4146157497769728</v>
       </c>
       <c r="C524" t="n">
-        <v>0.5717670545711673</v>
+        <v>21.43534109142335</v>
       </c>
       <c r="D524" t="n">
         <v>14.22076735228298</v>
@@ -15709,7 +15709,7 @@
         <v>0.9440061426614912</v>
       </c>
       <c r="C525" t="n">
-        <v>-0.7772364344717115</v>
+        <v>-5.54472868943423</v>
       </c>
       <c r="D525" t="n">
         <v>4.628477700870175</v>
@@ -15739,7 +15739,7 @@
         <v>-0.4623525237933219</v>
       </c>
       <c r="C526" t="n">
-        <v>-0.06204618858181776</v>
+        <v>8.759076228363645</v>
       </c>
       <c r="D526" t="n">
         <v>0.5561393776601649</v>
@@ -15769,7 +15769,7 @@
         <v>0.4114483275885903</v>
       </c>
       <c r="C527" t="n">
-        <v>-1.673452341117716</v>
+        <v>-23.46904682235432</v>
       </c>
       <c r="D527" t="n">
         <v>4.251143607499964</v>
@@ -15799,7 +15799,7 @@
         <v>-1.371366868182383</v>
       </c>
       <c r="C528" t="n">
-        <v>0.190425355065285</v>
+        <v>13.8085071013057</v>
       </c>
       <c r="D528" t="n">
         <v>3.471548174223984</v>
@@ -15829,7 +15829,7 @@
         <v>0.1662341319881217</v>
       </c>
       <c r="C529" t="n">
-        <v>-0.6857684078453173</v>
+        <v>-3.715368156906347</v>
       </c>
       <c r="D529" t="n">
         <v>9.675455723234245</v>
@@ -15887,7 +15887,7 @@
         <v>0.9360356544839075</v>
       </c>
       <c r="C531" t="n">
-        <v>1.522146758548047</v>
+        <v>40.44293517096094</v>
       </c>
       <c r="D531" t="n">
         <v>1.473415508453843</v>
@@ -15917,7 +15917,7 @@
         <v>0.8758764619987844</v>
       </c>
       <c r="C532" t="n">
-        <v>1.030587740984287</v>
+        <v>30.61175481968575</v>
       </c>
       <c r="D532" t="n">
         <v>5.629568989280822</v>
@@ -15969,7 +15969,7 @@
         <v>2.04957492862454</v>
       </c>
       <c r="C534" t="n">
-        <v>0.7821112766509443</v>
+        <v>25.64222553301889</v>
       </c>
       <c r="D534" t="n">
         <v>1.32663332396281</v>
@@ -15999,7 +15999,7 @@
         <v>-0.2858782961934749</v>
       </c>
       <c r="C535" t="n">
-        <v>-1.234889044125783</v>
+        <v>-14.69778088251566</v>
       </c>
       <c r="D535" t="n">
         <v>4.262213705757664</v>
@@ -16029,7 +16029,7 @@
         <v>-1.612018900672527</v>
       </c>
       <c r="C536" t="n">
-        <v>-0.4004794928068376</v>
+        <v>1.990410143863247</v>
       </c>
       <c r="D536" t="n">
         <v>8.616830067685523</v>
@@ -16059,7 +16059,7 @@
         <v>-0.77911797036268</v>
       </c>
       <c r="C537" t="n">
-        <v>-0.339503641469887</v>
+        <v>3.209927170602259</v>
       </c>
       <c r="D537" t="n">
         <v>0.1449350550052418</v>
@@ -16089,7 +16089,7 @@
         <v>-1.044141022357851</v>
       </c>
       <c r="C538" t="n">
-        <v>-1.709737074098931</v>
+        <v>-24.19474148197862</v>
       </c>
       <c r="D538" t="n">
         <v>4.98277513546788</v>
@@ -16117,7 +16117,7 @@
         <v>0.3796021017862546</v>
       </c>
       <c r="C539" t="n">
-        <v>-0.5570010948439893</v>
+        <v>-1.140021896879786</v>
       </c>
       <c r="D539" t="n">
         <v>2.150724796492328</v>
@@ -16147,7 +16147,7 @@
         <v>-1.235363026672452</v>
       </c>
       <c r="C540" t="n">
-        <v>-0.5460979756170437</v>
+        <v>-0.921959512340873</v>
       </c>
       <c r="D540" t="n">
         <v>1.731300024961016</v>
@@ -16177,7 +16177,7 @@
         <v>-0.5392140158062453</v>
       </c>
       <c r="C541" t="n">
-        <v>0.125998947494962</v>
+        <v>12.51997894989924</v>
       </c>
       <c r="D541" t="n">
         <v>2.492737796197446</v>
@@ -16207,7 +16207,7 @@
         <v>0.3145521705367699</v>
       </c>
       <c r="C542" t="n">
-        <v>2.532387600238343</v>
+        <v>60.64775200476687</v>
       </c>
       <c r="D542" t="n">
         <v>2.092923961979509</v>
@@ -16231,7 +16231,7 @@
         <v>0.1386458947118027</v>
       </c>
       <c r="C543" t="n">
-        <v>-0.02089627660473875</v>
+        <v>9.582074467905224</v>
       </c>
       <c r="D543" t="n">
         <v>8.926077837920543</v>
@@ -16261,7 +16261,7 @@
         <v>-0.01264381234177949</v>
       </c>
       <c r="C544" t="n">
-        <v>0.1265144545696673</v>
+        <v>12.53028909139335</v>
       </c>
       <c r="D544" t="n">
         <v>1.606523906541437</v>
@@ -16291,7 +16291,7 @@
         <v>0.1260005190440673</v>
       </c>
       <c r="C545" t="n">
-        <v>-0.250210272764142</v>
+        <v>4.99579454471716</v>
       </c>
       <c r="D545" t="n">
         <v>6.605399525637292</v>
@@ -16347,7 +16347,7 @@
         <v>-1.603752055666331</v>
       </c>
       <c r="C547" t="n">
-        <v>-1.073917208645777</v>
+        <v>-11.47834417291554</v>
       </c>
       <c r="D547" t="n">
         <v>15.12028555311385</v>
@@ -16405,7 +16405,7 @@
         <v>0.4687497843152855</v>
       </c>
       <c r="C549" t="n">
-        <v>-0.1241592074668192</v>
+        <v>7.516815850663615</v>
       </c>
       <c r="D549" t="n">
         <v>6.133113215179503</v>
@@ -16435,7 +16435,7 @@
         <v>-0.1369349886094043</v>
       </c>
       <c r="C550" t="n">
-        <v>-0.3951898330310644</v>
+        <v>2.096203339378713</v>
       </c>
       <c r="D550" t="n">
         <v>1.76938952575281</v>
@@ -16465,7 +16465,7 @@
         <v>0.3914883731305008</v>
       </c>
       <c r="C551" t="n">
-        <v>0.9700370736637999</v>
+        <v>29.400741473276</v>
       </c>
       <c r="D551" t="n">
         <v>2.655962885339685</v>
@@ -16495,7 +16495,7 @@
         <v>-0.5867830295094854</v>
       </c>
       <c r="C552" t="n">
-        <v>-0.8909225920448536</v>
+        <v>-7.818451840897072</v>
       </c>
       <c r="D552" t="inlineStr"/>
       <c r="E552" t="n">
@@ -16523,7 +16523,7 @@
         <v>0.9943360798779287</v>
       </c>
       <c r="C553" t="n">
-        <v>0.7192509830553334</v>
+        <v>24.38501966110667</v>
       </c>
       <c r="D553" t="n">
         <v>13.48081214266484</v>
@@ -16553,7 +16553,7 @@
         <v>-2.556317867471334</v>
       </c>
       <c r="C554" t="n">
-        <v>1.405170055595361</v>
+        <v>38.10340111190722</v>
       </c>
       <c r="D554" t="n">
         <v>3.348173364989899</v>
@@ -16579,7 +16579,7 @@
         <v>0.1414405129233546</v>
       </c>
       <c r="C555" t="n">
-        <v>-0.2413427724030092</v>
+        <v>5.173144551939815</v>
       </c>
       <c r="D555" t="n">
         <v>4.977320653732449</v>
@@ -16609,7 +16609,7 @@
         <v>1.348880347121278</v>
       </c>
       <c r="C556" t="n">
-        <v>2.052841613079871</v>
+        <v>51.05683226159742</v>
       </c>
       <c r="D556" t="n">
         <v>6.626410823267481</v>
@@ -16639,7 +16639,7 @@
         <v>1.497698516041463</v>
       </c>
       <c r="C557" t="n">
-        <v>0.6442915262612541</v>
+        <v>22.88583052522508</v>
       </c>
       <c r="D557" t="n">
         <v>2.318963514012151</v>
@@ -16669,7 +16669,7 @@
         <v>-0.2318261692424753</v>
       </c>
       <c r="C558" t="n">
-        <v>0.6566942596644293</v>
+        <v>23.13388519328858</v>
       </c>
       <c r="D558" t="n">
         <v>6.366643968288487</v>
@@ -16699,7 +16699,7 @@
         <v>-1.326198155642884</v>
       </c>
       <c r="C559" t="n">
-        <v>1.36586533518599</v>
+        <v>37.31730670371979</v>
       </c>
       <c r="D559" t="n">
         <v>5.63494291847036</v>
@@ -16729,7 +16729,7 @@
         <v>1.366472842343359</v>
       </c>
       <c r="C560" t="n">
-        <v>1.630734954636373</v>
+        <v>42.61469909272747</v>
       </c>
       <c r="D560" t="n">
         <v>6.115087270655332</v>
@@ -16759,7 +16759,7 @@
         <v>-0.05186516680556065</v>
       </c>
       <c r="C561" t="n">
-        <v>0.2618389864063801</v>
+        <v>15.2367797281276</v>
       </c>
       <c r="D561" t="n">
         <v>3.359178462840051</v>
@@ -16789,7 +16789,7 @@
         <v>-0.1589695392698807</v>
       </c>
       <c r="C562" t="n">
-        <v>0.7969054413769378</v>
+        <v>25.93810882753876</v>
       </c>
       <c r="D562" t="n">
         <v>2.413923864272364</v>
@@ -16815,7 +16815,7 @@
         <v>-0.8928546408777307</v>
       </c>
       <c r="C563" t="n">
-        <v>1.396341493160928</v>
+        <v>37.92682986321856</v>
       </c>
       <c r="D563" t="inlineStr"/>
       <c r="E563" t="n">
@@ -16843,7 +16843,7 @@
         <v>-1.249887480858257</v>
       </c>
       <c r="C564" t="n">
-        <v>-1.161811076361437</v>
+        <v>-13.23622152722874</v>
       </c>
       <c r="D564" t="n">
         <v>8.704182271752957</v>
@@ -16873,7 +16873,7 @@
         <v>0.5638631689243543</v>
       </c>
       <c r="C565" t="n">
-        <v>-1.729502399632648</v>
+        <v>-24.59004799265296</v>
       </c>
       <c r="D565" t="n">
         <v>4.686934069891191</v>
@@ -16901,7 +16901,7 @@
       </c>
       <c r="B566" t="inlineStr"/>
       <c r="C566" t="n">
-        <v>-0.0575539204059049</v>
+        <v>8.848921591881902</v>
       </c>
       <c r="D566" t="n">
         <v>2.938103158309456</v>
@@ -16931,7 +16931,7 @@
         <v>0.2015440017994216</v>
       </c>
       <c r="C567" t="n">
-        <v>-1.75349135741938</v>
+        <v>-25.0698271483876</v>
       </c>
       <c r="D567" t="n">
         <v>14.41165248232445</v>
@@ -16961,7 +16961,7 @@
         <v>-0.7640457815938431</v>
       </c>
       <c r="C568" t="n">
-        <v>-0.3139950963079523</v>
+        <v>3.720098073840954</v>
       </c>
       <c r="D568" t="n">
         <v>0.2451047196471158</v>
@@ -16989,7 +16989,7 @@
       </c>
       <c r="B569" t="inlineStr"/>
       <c r="C569" t="n">
-        <v>0.3143735341991374</v>
+        <v>16.28747068398275</v>
       </c>
       <c r="D569" t="n">
         <v>9.49133471879396</v>
@@ -17019,7 +17019,7 @@
         <v>-1.432248655219893</v>
       </c>
       <c r="C570" t="n">
-        <v>-0.2756387660551266</v>
+        <v>4.487224678897467</v>
       </c>
       <c r="D570" t="n">
         <v>30.12529889260336</v>
@@ -17043,7 +17043,7 @@
         <v>-0.5605451760779732</v>
       </c>
       <c r="C571" t="n">
-        <v>-0.1415930481036909</v>
+        <v>7.168139037926183</v>
       </c>
       <c r="D571" t="n">
         <v>10.89927649187562</v>
@@ -17073,7 +17073,7 @@
         <v>-1.005853564748964</v>
       </c>
       <c r="C572" t="n">
-        <v>-1.001666513620925</v>
+        <v>-10.0333302724185</v>
       </c>
       <c r="D572" t="n">
         <v>8.315158349442633</v>
@@ -17103,7 +17103,7 @@
         <v>-1.709309695291045</v>
       </c>
       <c r="C573" t="n">
-        <v>0.7881435439709441</v>
+        <v>25.76287087941888</v>
       </c>
       <c r="D573" t="n">
         <v>2.344469173728231</v>
@@ -17133,7 +17133,7 @@
         <v>0.6513450123530482</v>
       </c>
       <c r="C574" t="n">
-        <v>-1.06346336712234</v>
+        <v>-11.2692673424468</v>
       </c>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="n">
@@ -17161,7 +17161,7 @@
         <v>-1.319063861484967</v>
       </c>
       <c r="C575" t="n">
-        <v>-2.102901731055034</v>
+        <v>-32.05803462110067</v>
       </c>
       <c r="D575" t="n">
         <v>6.637307692196046</v>
@@ -17191,7 +17191,7 @@
         <v>0.9839226814307339</v>
       </c>
       <c r="C576" t="n">
-        <v>-0.2073387725332199</v>
+        <v>5.853224549335601</v>
       </c>
       <c r="D576" t="n">
         <v>1.816163181172366</v>
@@ -17221,7 +17221,7 @@
         <v>0.3940717101134636</v>
       </c>
       <c r="C577" t="n">
-        <v>0.915019924919956</v>
+        <v>28.30039849839912</v>
       </c>
       <c r="D577" t="n">
         <v>0.9681645409367921</v>
@@ -17277,7 +17277,7 @@
         <v>1.665309046060091</v>
       </c>
       <c r="C579" t="n">
-        <v>-1.164797015080235</v>
+        <v>-13.2959403016047</v>
       </c>
       <c r="D579" t="n">
         <v>1.873784728098777</v>
@@ -17305,7 +17305,7 @@
         <v>-1.285802634064525</v>
       </c>
       <c r="C580" t="n">
-        <v>0.1019509674063361</v>
+        <v>12.03901934812672</v>
       </c>
       <c r="D580" t="n">
         <v>12.2927880435462</v>
@@ -17335,7 +17335,7 @@
         <v>0.873771996048796</v>
       </c>
       <c r="C581" t="n">
-        <v>0.4383037047683498</v>
+        <v>18.766074095367</v>
       </c>
       <c r="D581" t="n">
         <v>9.18271665856237</v>
@@ -17365,7 +17365,7 @@
         <v>-0.2976425730214297</v>
       </c>
       <c r="C582" t="n">
-        <v>0.09031669151892624</v>
+        <v>11.80633383037853</v>
       </c>
       <c r="D582" t="n">
         <v>9.407556500379656</v>
@@ -17395,7 +17395,7 @@
         <v>2.57107015662954</v>
       </c>
       <c r="C583" t="n">
-        <v>-0.2645842468885863</v>
+        <v>4.708315062228275</v>
       </c>
       <c r="D583" t="n">
         <v>7.382621310336415</v>
@@ -17425,7 +17425,7 @@
         <v>-0.3807944311392094</v>
       </c>
       <c r="C584" t="n">
-        <v>0.4860386816427485</v>
+        <v>19.72077363285497</v>
       </c>
       <c r="D584" t="n">
         <v>10.63817921559259</v>
@@ -17451,7 +17451,7 @@
         <v>-0.5423083361256184</v>
       </c>
       <c r="C585" t="n">
-        <v>-1.738426902820145</v>
+        <v>-24.7685380564029</v>
       </c>
       <c r="D585" t="n">
         <v>8.192966453896638</v>
@@ -17481,7 +17481,7 @@
         <v>0.4255357748572663</v>
       </c>
       <c r="C586" t="n">
-        <v>-0.8939553907625805</v>
+        <v>-7.879107815251608</v>
       </c>
       <c r="D586" t="n">
         <v>4.612944664528821</v>
@@ -17511,7 +17511,7 @@
         <v>-0.2089085322086396</v>
       </c>
       <c r="C587" t="n">
-        <v>-1.30520809780531</v>
+        <v>-16.1041619561062</v>
       </c>
       <c r="D587" t="n">
         <v>1.753625671646306</v>
@@ -17541,7 +17541,7 @@
         <v>-0.7584629622998692</v>
       </c>
       <c r="C588" t="n">
-        <v>1.348386371988157</v>
+        <v>36.96772743976313</v>
       </c>
       <c r="D588" t="n">
         <v>10.95562975374508</v>
@@ -17571,7 +17571,7 @@
         <v>-0.9702767839358374</v>
       </c>
       <c r="C589" t="n">
-        <v>0.7120317209883875</v>
+        <v>24.24063441976775</v>
       </c>
       <c r="D589" t="n">
         <v>9.181806202225498</v>
@@ -17655,7 +17655,7 @@
         <v>0.2230875603804998</v>
       </c>
       <c r="C592" t="n">
-        <v>0.7441477889481191</v>
+        <v>24.88295577896238</v>
       </c>
       <c r="D592" t="n">
         <v>5.088071028504166</v>
@@ -17685,7 +17685,7 @@
         <v>1.056184139626095</v>
       </c>
       <c r="C593" t="n">
-        <v>1.386540134991816</v>
+        <v>37.73080269983632</v>
       </c>
       <c r="D593" t="n">
         <v>0.2596087942898129</v>
@@ -17713,7 +17713,7 @@
         <v>1.104494985442633</v>
       </c>
       <c r="C594" t="n">
-        <v>0.5714947364635622</v>
+        <v>21.42989472927124</v>
       </c>
       <c r="D594" t="n">
         <v>13.037403143302</v>
@@ -17743,7 +17743,7 @@
         <v>-0.6016524021814399</v>
       </c>
       <c r="C595" t="n">
-        <v>-0.03517741650355717</v>
+        <v>9.296451669928857</v>
       </c>
       <c r="D595" t="n">
         <v>16.30256062731521</v>
@@ -17773,7 +17773,7 @@
         <v>-0.2061848006257627</v>
       </c>
       <c r="C596" t="n">
-        <v>0.6317180318506153</v>
+        <v>22.63436063701231</v>
       </c>
       <c r="D596" t="n">
         <v>1.050458899146202</v>
@@ -17803,7 +17803,7 @@
         <v>-0.4001935010143727</v>
       </c>
       <c r="C597" t="n">
-        <v>0.2729161142526889</v>
+        <v>15.45832228505378</v>
       </c>
       <c r="D597" t="n">
         <v>5.641071350157654</v>
@@ -17833,7 +17833,7 @@
         <v>-1.535018762665875</v>
       </c>
       <c r="C598" t="n">
-        <v>0.9260762336397387</v>
+        <v>28.52152467279477</v>
       </c>
       <c r="D598" t="n">
         <v>0.4840360240317084</v>
@@ -17863,7 +17863,7 @@
         <v>0.5375173830201151</v>
       </c>
       <c r="C599" t="n">
-        <v>0.9036856417929532</v>
+        <v>28.07371283585906</v>
       </c>
       <c r="D599" t="n">
         <v>6.53772882589687</v>
@@ -17893,7 +17893,7 @@
         <v>0.03850364563480881</v>
       </c>
       <c r="C600" t="n">
-        <v>-0.2210655366103266</v>
+        <v>5.578689267793468</v>
       </c>
       <c r="D600" t="n">
         <v>2.133093884317875</v>
@@ -17923,7 +17923,7 @@
         <v>1.440585080601879</v>
       </c>
       <c r="C601" t="n">
-        <v>-0.6606413828841099</v>
+        <v>-3.212827657682197</v>
       </c>
       <c r="D601" t="n">
         <v>5.713606393006604</v>
@@ -17953,7 +17953,7 @@
         <v>-0.8232050973014229</v>
       </c>
       <c r="C602" t="n">
-        <v>-0.3998229406861777</v>
+        <v>2.003541186276446</v>
       </c>
       <c r="D602" t="n">
         <v>2.3330590136093</v>
@@ -17983,7 +17983,7 @@
         <v>1.088696558617696</v>
       </c>
       <c r="C603" t="n">
-        <v>0.5358503350049342</v>
+        <v>20.71700670009868</v>
       </c>
       <c r="D603" t="n">
         <v>0.7865889230931701</v>
@@ -18011,7 +18011,7 @@
         <v>1.159234150284205</v>
       </c>
       <c r="C604" t="n">
-        <v>-0.3394396517978083</v>
+        <v>3.211206964043835</v>
       </c>
       <c r="D604" t="n">
         <v>2.605305645617575</v>
@@ -18041,7 +18041,7 @@
         <v>0.04707168680788738</v>
       </c>
       <c r="C605" t="n">
-        <v>-0.7505296181538237</v>
+        <v>-5.010592363076473</v>
       </c>
       <c r="D605" t="n">
         <v>0.5977114985922564</v>
@@ -18099,7 +18099,7 @@
         <v>-0.5125676574442902</v>
       </c>
       <c r="C607" t="n">
-        <v>1.107456930668951</v>
+        <v>32.14913861337903</v>
       </c>
       <c r="D607" t="n">
         <v>0.2090683269284308</v>
@@ -18129,7 +18129,7 @@
         <v>1.785871124304117</v>
       </c>
       <c r="C608" t="n">
-        <v>0.1351080671340635</v>
+        <v>12.70216134268127</v>
       </c>
       <c r="D608" t="n">
         <v>3.746679871871204</v>
@@ -18159,7 +18159,7 @@
         <v>0.2970557714919095</v>
       </c>
       <c r="C609" t="n">
-        <v>-0.2762179960004274</v>
+        <v>4.475640079991452</v>
       </c>
       <c r="D609" t="n">
         <v>10.87397908448554</v>
@@ -18189,7 +18189,7 @@
         <v>0.6933997058718859</v>
       </c>
       <c r="C610" t="n">
-        <v>0.320431792946765</v>
+        <v>16.4086358589353</v>
       </c>
       <c r="D610" t="n">
         <v>9.096884831799862</v>
@@ -18219,7 +18219,7 @@
         <v>-0.08916658163496832</v>
       </c>
       <c r="C611" t="n">
-        <v>0.0840392090498677</v>
+        <v>11.68078418099735</v>
       </c>
       <c r="D611" t="n">
         <v>10.71858633748614</v>
@@ -18249,7 +18249,7 @@
         <v>-0.2234429098631285</v>
       </c>
       <c r="C612" t="n">
-        <v>-1.933637041009678</v>
+        <v>-28.67274082019356</v>
       </c>
       <c r="D612" t="n">
         <v>12.7583615820044</v>
@@ -18277,7 +18277,7 @@
       </c>
       <c r="B613" t="inlineStr"/>
       <c r="C613" t="n">
-        <v>0.6967591430191588</v>
+        <v>23.93518286038318</v>
       </c>
       <c r="D613" t="n">
         <v>0.5520210010302404</v>
@@ -18307,7 +18307,7 @@
         <v>0.7947392170553069</v>
       </c>
       <c r="C614" t="n">
-        <v>0.4074584399471092</v>
+        <v>18.14916879894218</v>
       </c>
       <c r="D614" t="n">
         <v>0.6891155321995888</v>
@@ -18337,7 +18337,7 @@
         <v>1.079681204722376</v>
       </c>
       <c r="C615" t="n">
-        <v>0.01617179894574592</v>
+        <v>10.32343597891492</v>
       </c>
       <c r="D615" t="n">
         <v>4.071004365965094</v>
@@ -18367,7 +18367,7 @@
         <v>-0.9508622854666883</v>
       </c>
       <c r="C616" t="n">
-        <v>1.06235670072292</v>
+        <v>31.24713401445841</v>
       </c>
       <c r="D616" t="n">
         <v>11.22029186526919</v>
@@ -18397,7 +18397,7 @@
         <v>-0.1788551215083074</v>
       </c>
       <c r="C617" t="n">
-        <v>1.212999364250198</v>
+        <v>34.25998728500396</v>
       </c>
       <c r="D617" t="n">
         <v>18.31595259721437</v>
@@ -18427,7 +18427,7 @@
         <v>-0.3137412773542907</v>
       </c>
       <c r="C618" t="n">
-        <v>0.7987686614735513</v>
+        <v>25.97537322947102</v>
       </c>
       <c r="D618" t="n">
         <v>0.2368309585331083</v>
@@ -18457,7 +18457,7 @@
         <v>0.4201532939862862</v>
       </c>
       <c r="C619" t="n">
-        <v>-0.8503008160355342</v>
+        <v>-7.006016320710685</v>
       </c>
       <c r="D619" t="n">
         <v>2.198529067316958</v>
@@ -18487,7 +18487,7 @@
         <v>-0.5443635815090949</v>
       </c>
       <c r="C620" t="n">
-        <v>-0.8157111106269598</v>
+        <v>-6.314222212539196</v>
       </c>
       <c r="D620" t="n">
         <v>1.196963372414515</v>
@@ -18517,7 +18517,7 @@
         <v>0.9313409231830024</v>
       </c>
       <c r="C621" t="n">
-        <v>1.117335540001984</v>
+        <v>32.34671080003967</v>
       </c>
       <c r="D621" t="n">
         <v>7.052235500431866</v>
@@ -18547,7 +18547,7 @@
         <v>0.07132431612448889</v>
       </c>
       <c r="C622" t="n">
-        <v>-1.8772239269452</v>
+        <v>-27.544478538904</v>
       </c>
       <c r="D622" t="n">
         <v>5.11094958150967</v>
@@ -18577,7 +18577,7 @@
         <v>-2.549423055584698</v>
       </c>
       <c r="C623" t="n">
-        <v>-0.1488475151621137</v>
+        <v>7.023049696757726</v>
       </c>
       <c r="D623" t="n">
         <v>0.6385307132682171</v>
@@ -18607,7 +18607,7 @@
         <v>0.4427202751926432</v>
       </c>
       <c r="C624" t="n">
-        <v>0.4398258070310824</v>
+        <v>18.79651614062165</v>
       </c>
       <c r="D624" t="n">
         <v>3.303613580731744</v>
@@ -18637,7 +18637,7 @@
         <v>0.9963509875907843</v>
       </c>
       <c r="C625" t="n">
-        <v>-1.750407735447504</v>
+        <v>-25.00815470895009</v>
       </c>
       <c r="D625" t="n">
         <v>5.7829105133295</v>
@@ -18665,7 +18665,7 @@
       </c>
       <c r="B626" t="inlineStr"/>
       <c r="C626" t="n">
-        <v>0.2343432388502992</v>
+        <v>14.68686477700598</v>
       </c>
       <c r="D626" t="n">
         <v>7.548084923291677</v>
@@ -18695,7 +18695,7 @@
         <v>0.4087269349745743</v>
       </c>
       <c r="C627" t="n">
-        <v>0.9544290765859523</v>
+        <v>29.08858153171905</v>
       </c>
       <c r="D627" t="n">
         <v>0.1012824712894862</v>
@@ -18725,7 +18725,7 @@
         <v>1.82995966975421</v>
       </c>
       <c r="C628" t="n">
-        <v>-1.485576070103476</v>
+        <v>-19.71152140206951</v>
       </c>
       <c r="D628" t="n">
         <v>11.05776452580788</v>
@@ -18755,7 +18755,7 @@
         <v>0.1120663751782388</v>
       </c>
       <c r="C629" t="n">
-        <v>1.658170206694158</v>
+        <v>43.16340413388317</v>
       </c>
       <c r="D629" t="n">
         <v>4.211501313793955</v>
@@ -18785,7 +18785,7 @@
         <v>1.141628864329489</v>
       </c>
       <c r="C630" t="n">
-        <v>-1.00983007609891</v>
+        <v>-10.1966015219782</v>
       </c>
       <c r="D630" t="n">
         <v>8.354150009515008</v>
@@ -18815,7 +18815,7 @@
         <v>-0.4421549702365202</v>
       </c>
       <c r="C631" t="n">
-        <v>0.57473624647703</v>
+        <v>21.4947249295406</v>
       </c>
       <c r="D631" t="n">
         <v>8.24968599343998</v>
@@ -18845,7 +18845,7 @@
         <v>-0.01796428845715618</v>
       </c>
       <c r="C632" t="n">
-        <v>-0.08359642835863292</v>
+        <v>8.328071432827342</v>
       </c>
       <c r="D632" t="n">
         <v>1.052695734787886</v>
@@ -18871,7 +18871,7 @@
         <v>-0.2046212879263455</v>
       </c>
       <c r="C633" t="n">
-        <v>0.06951562370045135</v>
+        <v>11.39031247400903</v>
       </c>
       <c r="D633" t="n">
         <v>0.5836361425115111</v>
@@ -18901,7 +18901,7 @@
         <v>-0.3871204263475566</v>
       </c>
       <c r="C634" t="n">
-        <v>-1.283495135674157</v>
+        <v>-15.66990271348313</v>
       </c>
       <c r="D634" t="n">
         <v>6.387868327505164</v>
@@ -18931,7 +18931,7 @@
         <v>-0.1477220450830762</v>
       </c>
       <c r="C635" t="n">
-        <v>1.260472962353059</v>
+        <v>35.20945924706118</v>
       </c>
       <c r="D635" t="n">
         <v>0.8505437017400697</v>
@@ -18961,7 +18961,7 @@
         <v>-1.630681780924317</v>
       </c>
       <c r="C636" t="n">
-        <v>0.3258834633502335</v>
+        <v>16.51766926700467</v>
       </c>
       <c r="D636" t="n">
         <v>9.483516738613455</v>
@@ -18991,7 +18991,7 @@
         <v>-0.3308801343832965</v>
       </c>
       <c r="C637" t="n">
-        <v>1.620840176903156</v>
+        <v>42.41680353806312</v>
       </c>
       <c r="D637" t="n">
         <v>6.476594793824706</v>
@@ -19017,7 +19017,7 @@
         <v>1.337806455426785</v>
       </c>
       <c r="C638" t="n">
-        <v>-1.257417220579027</v>
+        <v>-15.14834441158054</v>
       </c>
       <c r="D638" t="n">
         <v>9.22027783754845</v>
@@ -19043,7 +19043,7 @@
         <v>-0.9636900568518333</v>
       </c>
       <c r="C639" t="n">
-        <v>-0.181234633878694</v>
+        <v>6.375307322426121</v>
       </c>
       <c r="D639" t="n">
         <v>1.776327399994662</v>
@@ -19073,7 +19073,7 @@
         <v>-1.06613327147331</v>
       </c>
       <c r="C640" t="n">
-        <v>0.2095292397022072</v>
+        <v>14.19058479404415</v>
       </c>
       <c r="D640" t="n">
         <v>1.90336050579154</v>
@@ -19103,7 +19103,7 @@
         <v>0.06121237139475495</v>
       </c>
       <c r="C641" t="n">
-        <v>0.06038314729492472</v>
+        <v>11.20766294589849</v>
       </c>
       <c r="D641" t="n">
         <v>5.561855893066447</v>
@@ -19133,7 +19133,7 @@
         <v>0.1111831433572445</v>
       </c>
       <c r="C642" t="n">
-        <v>0.6667853446724203</v>
+        <v>23.33570689344841</v>
       </c>
       <c r="D642" t="n">
         <v>0.1597549748252465</v>
@@ -19159,7 +19159,7 @@
         <v>0.3774647190539862</v>
       </c>
       <c r="C643" t="n">
-        <v>-0.1939185419238758</v>
+        <v>6.121629161522485</v>
       </c>
       <c r="D643" t="n">
         <v>6.482208804005916</v>
@@ -19217,7 +19217,7 @@
         <v>0.07186416445833355</v>
       </c>
       <c r="C645" t="n">
-        <v>0.0398423221881796</v>
+        <v>10.79684644376359</v>
       </c>
       <c r="D645" t="n">
         <v>2.682115530380949</v>
@@ -19271,7 +19271,7 @@
         <v>-1.275796155299964</v>
       </c>
       <c r="C647" t="n">
-        <v>0.08420100833937201</v>
+        <v>11.68402016678744</v>
       </c>
       <c r="D647" t="n">
         <v>0.9595019402207385</v>
@@ -19297,7 +19297,7 @@
         <v>-0.07139186831065085</v>
       </c>
       <c r="C648" t="n">
-        <v>1.261463984866183</v>
+        <v>35.22927969732366</v>
       </c>
       <c r="D648" t="n">
         <v>1.944960632464868</v>
@@ -19323,7 +19323,7 @@
         <v>0.7245969964424639</v>
       </c>
       <c r="C649" t="n">
-        <v>-0.923306101850534</v>
+        <v>-8.466122037010678</v>
       </c>
       <c r="D649" t="n">
         <v>18.30728711434839</v>
@@ -19353,7 +19353,7 @@
         <v>0.5150546263523341</v>
       </c>
       <c r="C650" t="n">
-        <v>-0.9867551891712364</v>
+        <v>-9.735103783424726</v>
       </c>
       <c r="D650" t="n">
         <v>21.4620901390844</v>
@@ -19383,7 +19383,7 @@
         <v>-1.744242126939287</v>
       </c>
       <c r="C651" t="n">
-        <v>-0.8403897063395901</v>
+        <v>-6.807794126791801</v>
       </c>
       <c r="D651" t="n">
         <v>3.593402525719429</v>
@@ -19441,7 +19441,7 @@
         <v>-0.8927695258571692</v>
       </c>
       <c r="C653" t="n">
-        <v>-0.479401713705994</v>
+        <v>0.411965725880119</v>
       </c>
       <c r="D653" t="n">
         <v>3.698371655982795</v>
@@ -19469,7 +19469,7 @@
         <v>1.392164005221382</v>
       </c>
       <c r="C654" t="n">
-        <v>0.9092972263492204</v>
+        <v>28.18594452698441</v>
       </c>
       <c r="D654" t="n">
         <v>1.723648072740488</v>
@@ -19499,7 +19499,7 @@
         <v>0.3262697829283802</v>
       </c>
       <c r="C655" t="n">
-        <v>1.526332728412694</v>
+        <v>40.52665456825387</v>
       </c>
       <c r="D655" t="n">
         <v>1.552360948348423</v>
@@ -19529,7 +19529,7 @@
         <v>0.8962839601306067</v>
       </c>
       <c r="C656" t="n">
-        <v>-2.4242503239372</v>
+        <v>-38.48500647874401</v>
       </c>
       <c r="D656" t="n">
         <v>13.26111749823241</v>
@@ -19559,7 +19559,7 @@
         <v>0.02116814441485975</v>
       </c>
       <c r="C657" t="n">
-        <v>-0.3784546535774573</v>
+        <v>2.430906928450853</v>
       </c>
       <c r="D657" t="n">
         <v>0.9464069354547517</v>
@@ -19589,7 +19589,7 @@
         <v>-0.06605499889747726</v>
       </c>
       <c r="C658" t="n">
-        <v>0.3026979943767327</v>
+        <v>16.05395988753465</v>
       </c>
       <c r="D658" t="n">
         <v>4.33312925430795</v>
@@ -19619,7 +19619,7 @@
         <v>1.495844917653247</v>
       </c>
       <c r="C659" t="n">
-        <v>0.2026783633851907</v>
+        <v>14.05356726770382</v>
       </c>
       <c r="D659" t="n">
         <v>4.054308108550524</v>
@@ -19649,7 +19649,7 @@
         <v>0.9727743966250163</v>
       </c>
       <c r="C660" t="n">
-        <v>1.899939666622889</v>
+        <v>47.99879333245778</v>
       </c>
       <c r="D660" t="n">
         <v>6.72809823256145</v>
@@ -19679,7 +19679,7 @@
         <v>0.1178586522475478</v>
       </c>
       <c r="C661" t="n">
-        <v>-2.010693909582067</v>
+        <v>-30.21387819164134</v>
       </c>
       <c r="D661" t="n">
         <v>3.458170704158103</v>
@@ -19735,7 +19735,7 @@
         <v>-1.70717472553087</v>
       </c>
       <c r="C663" t="n">
-        <v>2.062212524038256</v>
+        <v>51.24425048076512</v>
       </c>
       <c r="D663" t="n">
         <v>0.9280136676473463</v>
@@ -19765,7 +19765,7 @@
         <v>0.3245675348741399</v>
       </c>
       <c r="C664" t="n">
-        <v>0.7534336932473364</v>
+        <v>25.06867386494673</v>
       </c>
       <c r="D664" t="n">
         <v>4.848705485676642</v>
@@ -19793,7 +19793,7 @@
         <v>-0.1261039693197147</v>
       </c>
       <c r="C665" t="n">
-        <v>-0.5713715869529101</v>
+        <v>-1.427431739058203</v>
       </c>
       <c r="D665" t="n">
         <v>6.346838582143215</v>
@@ -19823,7 +19823,7 @@
         <v>0.5539560470822761</v>
       </c>
       <c r="C666" t="n">
-        <v>0.1715987730679549</v>
+        <v>13.4319754613591</v>
       </c>
       <c r="D666" t="n">
         <v>4.214286920843878</v>
@@ -19853,7 +19853,7 @@
         <v>0.8578188415347864</v>
       </c>
       <c r="C667" t="n">
-        <v>0.2432176225610664</v>
+        <v>14.86435245122133</v>
       </c>
       <c r="D667" t="n">
         <v>6.703762136023339</v>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="B668" t="inlineStr"/>
       <c r="C668" t="n">
-        <v>-0.5955207903359794</v>
+        <v>-1.910415806719588</v>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="n">
@@ -19907,7 +19907,7 @@
         <v>0.3369929108944043</v>
       </c>
       <c r="C669" t="n">
-        <v>0.141778370691434</v>
+        <v>12.83556741382868</v>
       </c>
       <c r="D669" t="n">
         <v>10.70531658752888</v>
@@ -19937,7 +19937,7 @@
         <v>-1.046360465128205</v>
       </c>
       <c r="C670" t="n">
-        <v>0.3548133746601196</v>
+        <v>17.09626749320239</v>
       </c>
       <c r="D670" t="n">
         <v>4.366102433723929</v>
@@ -19967,7 +19967,7 @@
         <v>-2.149313550918133</v>
       </c>
       <c r="C671" t="n">
-        <v>2.015530261362825</v>
+        <v>50.3106052272565</v>
       </c>
       <c r="D671" t="n">
         <v>0.6782048061029712</v>
@@ -19997,7 +19997,7 @@
         <v>-0.8246998603567915</v>
       </c>
       <c r="C672" t="n">
-        <v>0.9634512222855411</v>
+        <v>29.26902444571082</v>
       </c>
       <c r="D672" t="n">
         <v>3.098788514218118</v>
@@ -20055,7 +20055,7 @@
         <v>1.823491469299441</v>
       </c>
       <c r="C674" t="n">
-        <v>-1.343571483672894</v>
+        <v>-16.87142967345789</v>
       </c>
       <c r="D674" t="n">
         <v>11.39249714978489</v>
@@ -20079,7 +20079,7 @@
         <v>-0.2379007517691755</v>
       </c>
       <c r="C675" t="n">
-        <v>-0.3471972596178577</v>
+        <v>3.056054807642845</v>
       </c>
       <c r="D675" t="n">
         <v>1.53704014742758</v>
@@ -20109,7 +20109,7 @@
         <v>-1.460959254282351</v>
       </c>
       <c r="C676" t="n">
-        <v>0.2422469839316254</v>
+        <v>14.84493967863251</v>
       </c>
       <c r="D676" t="n">
         <v>6.211244114199919</v>
@@ -20163,7 +20163,7 @@
       </c>
       <c r="B678" t="inlineStr"/>
       <c r="C678" t="n">
-        <v>1.18185933810928</v>
+        <v>33.63718676218561</v>
       </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="n">
@@ -20187,7 +20187,7 @@
         <v>-0.5910131735271067</v>
       </c>
       <c r="C679" t="n">
-        <v>0.6422097723112623</v>
+        <v>22.84419544622525</v>
       </c>
       <c r="D679" t="n">
         <v>4.109438383050293</v>
@@ -20217,7 +20217,7 @@
         <v>0.5891239476675142</v>
       </c>
       <c r="C680" t="n">
-        <v>-0.367158519953864</v>
+        <v>2.65682960092272</v>
       </c>
       <c r="D680" t="n">
         <v>5.934391742130158</v>
@@ -20247,7 +20247,7 @@
         <v>0.1685583012980353</v>
       </c>
       <c r="C681" t="n">
-        <v>-0.183334343500785</v>
+        <v>6.333313129984299</v>
       </c>
       <c r="D681" t="n">
         <v>7.942951979078241</v>
@@ -20277,7 +20277,7 @@
         <v>0.710003259037054</v>
       </c>
       <c r="C682" t="n">
-        <v>1.253866888823748</v>
+        <v>35.07733777647496</v>
       </c>
       <c r="D682" t="n">
         <v>2.079215658343264</v>
@@ -20307,7 +20307,7 @@
         <v>1.818010998947038</v>
       </c>
       <c r="C683" t="n">
-        <v>-0.7954379476369655</v>
+        <v>-5.90875895273931</v>
       </c>
       <c r="D683" t="n">
         <v>0.03273396997321836</v>
@@ -20337,7 +20337,7 @@
         <v>0.5897814755343384</v>
       </c>
       <c r="C684" t="n">
-        <v>1.294185349662287</v>
+        <v>35.88370699324575</v>
       </c>
       <c r="D684" t="n">
         <v>3.265011752588054</v>
@@ -20367,7 +20367,7 @@
         <v>0.1469162766379295</v>
       </c>
       <c r="C685" t="n">
-        <v>-0.2520387365862879</v>
+        <v>4.959225268274241</v>
       </c>
       <c r="D685" t="n">
         <v>0.07990278501194986</v>
@@ -20397,7 +20397,7 @@
         <v>1.928373565808919</v>
       </c>
       <c r="C686" t="n">
-        <v>0.7559960527769166</v>
+        <v>25.11992105553833</v>
       </c>
       <c r="D686" t="n">
         <v>0.4824692089687155</v>
@@ -20423,7 +20423,7 @@
         <v>0.3495521016250613</v>
       </c>
       <c r="C687" t="n">
-        <v>0.08676420557898726</v>
+        <v>11.73528411157974</v>
       </c>
       <c r="D687" t="n">
         <v>1.97773989793006</v>
@@ -20481,7 +20481,7 @@
         <v>0.6874652897694855</v>
       </c>
       <c r="C689" t="n">
-        <v>-0.8873923901075258</v>
+        <v>-7.747847802150517</v>
       </c>
       <c r="D689" t="n">
         <v>1.638837255795238</v>
@@ -20511,7 +20511,7 @@
         <v>0.4474555421329706</v>
       </c>
       <c r="C690" t="n">
-        <v>-0.5732826225769339</v>
+        <v>-1.465652451538677</v>
       </c>
       <c r="D690" t="n">
         <v>4.359757847290432</v>
@@ -20541,7 +20541,7 @@
         <v>-0.3079023422705998</v>
       </c>
       <c r="C691" t="n">
-        <v>-1.506125477688831</v>
+        <v>-20.12250955377662</v>
       </c>
       <c r="D691" t="n">
         <v>0.2847028366527934</v>
@@ -20593,7 +20593,7 @@
         <v>-0.2982594873149079</v>
       </c>
       <c r="C693" t="n">
-        <v>0.7131281076945163</v>
+        <v>24.26256215389033</v>
       </c>
       <c r="D693" t="n">
         <v>5.941455385281361</v>
@@ -20619,7 +20619,7 @@
         <v>-0.5318893575017567</v>
       </c>
       <c r="C694" t="n">
-        <v>1.600163638865061</v>
+        <v>42.00327277730122</v>
       </c>
       <c r="D694" t="n">
         <v>0.7665767900163341</v>
@@ -20649,7 +20649,7 @@
         <v>-0.2657598187128918</v>
       </c>
       <c r="C695" t="n">
-        <v>0.8264808703602766</v>
+        <v>26.52961740720553</v>
       </c>
       <c r="D695" t="n">
         <v>5.10513501165703</v>
@@ -20679,7 +20679,7 @@
         <v>-0.8427966022418615</v>
       </c>
       <c r="C696" t="n">
-        <v>-0.005391499726866356</v>
+        <v>9.892170005462672</v>
       </c>
       <c r="D696" t="n">
         <v>0.281183362564465</v>
@@ -20709,7 +20709,7 @@
         <v>0.3861546881598157</v>
       </c>
       <c r="C697" t="n">
-        <v>-0.8936145016560537</v>
+        <v>-7.872290033121075</v>
       </c>
       <c r="D697" t="n">
         <v>2.616028703385604</v>
@@ -20759,7 +20759,7 @@
         <v>0.3452017772294692</v>
       </c>
       <c r="C699" t="n">
-        <v>-0.9486019051858376</v>
+        <v>-8.972038103716752</v>
       </c>
       <c r="D699" t="n">
         <v>0.5806261421527373</v>
@@ -20789,7 +20789,7 @@
         <v>-0.06236933943665402</v>
       </c>
       <c r="C700" t="n">
-        <v>-1.348951734305759</v>
+        <v>-16.97903468611518</v>
       </c>
       <c r="D700" t="n">
         <v>4.18546633159974</v>
@@ -20817,7 +20817,7 @@
       </c>
       <c r="B701" t="inlineStr"/>
       <c r="C701" t="n">
-        <v>-0.3084693332099046</v>
+        <v>3.830613335801908</v>
       </c>
       <c r="D701" t="n">
         <v>13.17881784043485</v>
@@ -20869,7 +20869,7 @@
         <v>0.0674058868378028</v>
       </c>
       <c r="C703" t="n">
-        <v>-1.381384874552249</v>
+        <v>-17.62769749104498</v>
       </c>
       <c r="D703" t="n">
         <v>2.737052553373209</v>
@@ -20899,7 +20899,7 @@
         <v>1.263766846055477</v>
       </c>
       <c r="C704" t="n">
-        <v>1.885990335882821</v>
+        <v>47.71980671765641</v>
       </c>
       <c r="D704" t="n">
         <v>6.147058871676626</v>
@@ -20929,7 +20929,7 @@
         <v>-0.9964159831663135</v>
       </c>
       <c r="C705" t="n">
-        <v>-1.566808424458402</v>
+        <v>-21.33616848916805</v>
       </c>
       <c r="D705" t="n">
         <v>3.105880171783184</v>
@@ -20959,7 +20959,7 @@
         <v>0.5891778342013787</v>
       </c>
       <c r="C706" t="n">
-        <v>-1.188148381045811</v>
+        <v>-13.76296762091623</v>
       </c>
       <c r="D706" t="n">
         <v>8.212284081856332</v>
@@ -20989,7 +20989,7 @@
         <v>-0.7347030366600157</v>
       </c>
       <c r="C707" t="n">
-        <v>0.07183290770666434</v>
+        <v>11.43665815413329</v>
       </c>
       <c r="D707" t="n">
         <v>0.9900924530694734</v>
@@ -21019,7 +21019,7 @@
         <v>-0.5561519282933344</v>
       </c>
       <c r="C708" t="n">
-        <v>0.1239038800300151</v>
+        <v>12.4780776006003</v>
       </c>
       <c r="D708" t="n">
         <v>16.0439103219707</v>
@@ -21049,7 +21049,7 @@
         <v>-0.4119058399275515</v>
       </c>
       <c r="C709" t="n">
-        <v>-0.2346242973788541</v>
+        <v>5.307514052422919</v>
       </c>
       <c r="D709" t="n">
         <v>2.43198740773665</v>
@@ -21103,7 +21103,7 @@
         <v>-0.4696046564818507</v>
       </c>
       <c r="C711" t="n">
-        <v>0.8484893276377898</v>
+        <v>26.9697865527558</v>
       </c>
       <c r="D711" t="n">
         <v>10.38146430005082</v>
@@ -21133,7 +21133,7 @@
         <v>1.217275089890565</v>
       </c>
       <c r="C712" t="n">
-        <v>-0.4430533997579966</v>
+        <v>1.138932004840068</v>
       </c>
       <c r="D712" t="n">
         <v>4.149040547012627</v>
@@ -21163,7 +21163,7 @@
         <v>0.0454111731176399</v>
       </c>
       <c r="C713" t="n">
-        <v>1.220449522174901</v>
+        <v>34.40899044349803</v>
       </c>
       <c r="D713" t="n">
         <v>3.632944278625081</v>
@@ -21217,7 +21217,7 @@
         <v>-0.4571599635514496</v>
       </c>
       <c r="C715" t="n">
-        <v>0.9824943391405768</v>
+        <v>29.64988678281154</v>
       </c>
       <c r="D715" t="n">
         <v>4.335529874037164</v>
@@ -21247,7 +21247,7 @@
         <v>0.8569393037181088</v>
       </c>
       <c r="C716" t="n">
-        <v>1.296083449079435</v>
+        <v>35.9216689815887</v>
       </c>
       <c r="D716" t="n">
         <v>0.8867634788219902</v>
@@ -21271,7 +21271,7 @@
         <v>0.3550562782389196</v>
       </c>
       <c r="C717" t="n">
-        <v>-0.4669422757538202</v>
+        <v>0.6611544849235944</v>
       </c>
       <c r="D717" t="n">
         <v>5.607321432695912</v>
@@ -21301,7 +21301,7 @@
         <v>-0.3089286443497383</v>
       </c>
       <c r="C718" t="n">
-        <v>0.880450194105647</v>
+        <v>27.60900388211294</v>
       </c>
       <c r="D718" t="n">
         <v>0.7162862752199293</v>
@@ -21331,7 +21331,7 @@
         <v>-1.584283892626643</v>
       </c>
       <c r="C719" t="n">
-        <v>-1.328544678116397</v>
+        <v>-16.57089356232795</v>
       </c>
       <c r="D719" t="n">
         <v>8.195819555613056</v>
@@ -21361,7 +21361,7 @@
         <v>0.2162964584018706</v>
       </c>
       <c r="C720" t="n">
-        <v>0.2636894870694937</v>
+        <v>15.27378974138987</v>
       </c>
       <c r="D720" t="inlineStr"/>
       <c r="E720" t="n">
@@ -21389,7 +21389,7 @@
         <v>0.5756795225354583</v>
       </c>
       <c r="C721" t="n">
-        <v>1.222227708354839</v>
+        <v>34.44455416709679</v>
       </c>
       <c r="D721" t="n">
         <v>2.369155724032799</v>
@@ -21419,7 +21419,7 @@
         <v>-0.9788478383233464</v>
       </c>
       <c r="C722" t="n">
-        <v>0.5184928459641237</v>
+        <v>20.36985691928248</v>
       </c>
       <c r="D722" t="n">
         <v>2.941737194350382</v>
@@ -21445,7 +21445,7 @@
         <v>-0.2953946186991623</v>
       </c>
       <c r="C723" t="n">
-        <v>2.406223922853239</v>
+        <v>58.12447845706479</v>
       </c>
       <c r="D723" t="n">
         <v>0.2377313818783771</v>
@@ -21475,7 +21475,7 @@
         <v>0.5371605014609561</v>
       </c>
       <c r="C724" t="n">
-        <v>0.5743579922911557</v>
+        <v>21.48715984582311</v>
       </c>
       <c r="D724" t="n">
         <v>0.06914180331618255</v>
@@ -21505,7 +21505,7 @@
         <v>-1.570928057121767</v>
       </c>
       <c r="C725" t="n">
-        <v>-0.365271252607501</v>
+        <v>2.69457494784998</v>
       </c>
       <c r="D725" t="n">
         <v>12.71814800300323</v>
@@ -21535,7 +21535,7 @@
         <v>-0.6488521834098897</v>
       </c>
       <c r="C726" t="n">
-        <v>2.840886393001498</v>
+        <v>66.81772786002995</v>
       </c>
       <c r="D726" t="n">
         <v>0.6884088846266798</v>
@@ -21565,7 +21565,7 @@
         <v>0.3769089416264014</v>
       </c>
       <c r="C727" t="n">
-        <v>1.63370101734755</v>
+        <v>42.67402034695101</v>
       </c>
       <c r="D727" t="n">
         <v>2.950956496632713</v>
@@ -21595,7 +21595,7 @@
         <v>1.10501843885161</v>
       </c>
       <c r="C728" t="n">
-        <v>-1.602907561798397</v>
+        <v>-22.05815123596793</v>
       </c>
       <c r="D728" t="n">
         <v>8.446590895930845</v>
@@ -21625,7 +21625,7 @@
         <v>2.185779812271167</v>
       </c>
       <c r="C729" t="n">
-        <v>-0.7841636049283146</v>
+        <v>-5.683272098566292</v>
       </c>
       <c r="D729" t="n">
         <v>11.00550460004539</v>
@@ -21655,7 +21655,7 @@
         <v>1.958654768367091</v>
       </c>
       <c r="C730" t="n">
-        <v>-1.038158107041323</v>
+        <v>-10.76316214082647</v>
       </c>
       <c r="D730" t="n">
         <v>3.663575696928199</v>
@@ -21685,7 +21685,7 @@
         <v>0.1437694823160094</v>
       </c>
       <c r="C731" t="n">
-        <v>0.6456296045090557</v>
+        <v>22.91259209018111</v>
       </c>
       <c r="D731" t="n">
         <v>4.162420103742639</v>
@@ -21715,7 +21715,7 @@
         <v>-0.4842268814819524</v>
       </c>
       <c r="C732" t="n">
-        <v>0.5711580368167886</v>
+        <v>21.42316073633577</v>
       </c>
       <c r="D732" t="n">
         <v>5.538527117912152</v>
@@ -21745,7 +21745,7 @@
         <v>0.9231222677708861</v>
       </c>
       <c r="C733" t="n">
-        <v>0.5634519323954991</v>
+        <v>21.26903864790998</v>
       </c>
       <c r="D733" t="n">
         <v>16.270244821239</v>
@@ -21773,7 +21773,7 @@
       </c>
       <c r="B734" t="inlineStr"/>
       <c r="C734" t="n">
-        <v>-1.629909459498951</v>
+        <v>-22.59818918997902</v>
       </c>
       <c r="D734" t="n">
         <v>4.614940055135181</v>
@@ -21799,7 +21799,7 @@
         <v>-0.7620952849456515</v>
       </c>
       <c r="C735" t="n">
-        <v>-0.6380915466050493</v>
+        <v>-2.761830932100986</v>
       </c>
       <c r="D735" t="n">
         <v>4.098943352491406</v>
@@ -21829,7 +21829,7 @@
         <v>-0.3052660523651005</v>
       </c>
       <c r="C736" t="n">
-        <v>-0.1492852547236443</v>
+        <v>7.014294905527114</v>
       </c>
       <c r="D736" t="n">
         <v>0.07320395249569277</v>
@@ -21859,7 +21859,7 @@
         <v>-0.4306733001771069</v>
       </c>
       <c r="C737" t="n">
-        <v>-1.821920549320722</v>
+        <v>-26.43841098641444</v>
       </c>
       <c r="D737" t="n">
         <v>0.4220721345943845</v>
@@ -21889,7 +21889,7 @@
         <v>0.4126306230658756</v>
       </c>
       <c r="C738" t="n">
-        <v>-0.8718277665578907</v>
+        <v>-7.436555331157816</v>
       </c>
       <c r="D738" t="n">
         <v>4.303944594845099</v>
@@ -21917,7 +21917,7 @@
         <v>-0.6024016221343611</v>
       </c>
       <c r="C739" t="n">
-        <v>1.356433710165732</v>
+        <v>37.12867420331465</v>
       </c>
       <c r="D739" t="n">
         <v>13.76317663407418</v>
@@ -21945,7 +21945,7 @@
         <v>0.08512205729781484</v>
       </c>
       <c r="C740" t="n">
-        <v>-1.554075997969588</v>
+        <v>-21.08151995939177</v>
       </c>
       <c r="D740" t="n">
         <v>10.07544075336626</v>
@@ -21975,7 +21975,7 @@
         <v>1.59495345140532</v>
       </c>
       <c r="C741" t="n">
-        <v>1.455260493718481</v>
+        <v>39.10520987436961</v>
       </c>
       <c r="D741" t="n">
         <v>20.25037241766742</v>
@@ -22031,7 +22031,7 @@
         <v>1.516742288121778</v>
       </c>
       <c r="C743" t="n">
-        <v>-0.290737219804481</v>
+        <v>4.185255603910381</v>
       </c>
       <c r="D743" t="n">
         <v>7.754216476365334</v>
@@ -22061,7 +22061,7 @@
         <v>1.202056601065949</v>
       </c>
       <c r="C744" t="n">
-        <v>-0.6488729993676847</v>
+        <v>-2.977459987353694</v>
       </c>
       <c r="D744" t="n">
         <v>9.175433354847328</v>
@@ -22091,7 +22091,7 @@
         <v>0.5920402367006328</v>
       </c>
       <c r="C745" t="n">
-        <v>0.8318276221453004</v>
+        <v>26.63655244290601</v>
       </c>
       <c r="D745" t="n">
         <v>5.221070215137638</v>
@@ -22121,7 +22121,7 @@
         <v>-0.3541527899385204</v>
       </c>
       <c r="C746" t="n">
-        <v>-0.7877401608956308</v>
+        <v>-5.754803217912617</v>
       </c>
       <c r="D746" t="n">
         <v>2.068115754772254</v>
@@ -22151,7 +22151,7 @@
         <v>1.040507977349104</v>
       </c>
       <c r="C747" t="n">
-        <v>-0.7379979499461239</v>
+        <v>-4.759958998922478</v>
       </c>
       <c r="D747" t="n">
         <v>3.174187919694207</v>
@@ -22181,7 +22181,7 @@
         <v>-0.2499749186380738</v>
       </c>
       <c r="C748" t="n">
-        <v>-0.02386840400472851</v>
+        <v>9.522631919905431</v>
       </c>
       <c r="D748" t="n">
         <v>9.756721967783887</v>
@@ -22211,7 +22211,7 @@
         <v>-0.002009655026961095</v>
       </c>
       <c r="C749" t="n">
-        <v>-2.130233595786918</v>
+        <v>-32.60467191573836</v>
       </c>
       <c r="D749" t="n">
         <v>1.773013505319084</v>
@@ -22237,7 +22237,7 @@
         <v>0.330198674165594</v>
       </c>
       <c r="C750" t="n">
-        <v>-1.449975598401706</v>
+        <v>-18.99951196803412</v>
       </c>
       <c r="D750" t="inlineStr"/>
       <c r="E750" t="n">
@@ -22265,7 +22265,7 @@
         <v>-0.005367472393481668</v>
       </c>
       <c r="C751" t="n">
-        <v>-0.315661249001483</v>
+        <v>3.68677501997034</v>
       </c>
       <c r="D751" t="n">
         <v>1.305566455552547</v>
@@ -22295,7 +22295,7 @@
         <v>-0.7202677184105369</v>
       </c>
       <c r="C752" t="n">
-        <v>0.4756960322125993</v>
+        <v>19.51392064425199</v>
       </c>
       <c r="D752" t="n">
         <v>6.921809450861801</v>
@@ -22319,7 +22319,7 @@
         <v>-1.527098914982869</v>
       </c>
       <c r="C753" t="n">
-        <v>-0.8015739380786786</v>
+        <v>-6.031478761573574</v>
       </c>
       <c r="D753" t="n">
         <v>4.978824304527709</v>
@@ -22349,7 +22349,7 @@
         <v>0.9591329303254789</v>
       </c>
       <c r="C754" t="n">
-        <v>-0.1976104780216825</v>
+        <v>6.04779043956635</v>
       </c>
       <c r="D754" t="n">
         <v>6.923467039064234</v>
@@ -22379,7 +22379,7 @@
         <v>0.5703421268063606</v>
       </c>
       <c r="C755" t="n">
-        <v>-1.613459408137632</v>
+        <v>-22.26918816275264</v>
       </c>
       <c r="D755" t="n">
         <v>2.875465996352958</v>
@@ -22409,7 +22409,7 @@
         <v>-1.720610992496342</v>
       </c>
       <c r="C756" t="n">
-        <v>0.9324838522703204</v>
+        <v>28.64967704540641</v>
       </c>
       <c r="D756" t="n">
         <v>13.48859841714986</v>
@@ -22439,7 +22439,7 @@
         <v>-0.7467873495368568</v>
       </c>
       <c r="C757" t="n">
-        <v>0.2200823295609816</v>
+        <v>14.40164659121963</v>
       </c>
       <c r="D757" t="n">
         <v>5.004781617465616</v>
@@ -22469,7 +22469,7 @@
         <v>0.1790654292733845</v>
       </c>
       <c r="C758" t="n">
-        <v>0.3085459026392169</v>
+        <v>16.17091805278434</v>
       </c>
       <c r="D758" t="n">
         <v>1.700464548652383</v>
@@ -22499,7 +22499,7 @@
         <v>0.442572353560568</v>
       </c>
       <c r="C759" t="n">
-        <v>0.4882506179848951</v>
+        <v>19.7650123596979</v>
       </c>
       <c r="D759" t="n">
         <v>5.086844796099912</v>
@@ -22529,7 +22529,7 @@
         <v>-1.518453658967092</v>
       </c>
       <c r="C760" t="n">
-        <v>0.07812750349478562</v>
+        <v>11.56255006989571</v>
       </c>
       <c r="D760" t="n">
         <v>1.690077364439119</v>
@@ -22559,7 +22559,7 @@
         <v>-0.08923866654242166</v>
       </c>
       <c r="C761" t="n">
-        <v>-0.4837727585739992</v>
+        <v>0.3245448285200165</v>
       </c>
       <c r="D761" t="n">
         <v>1.738097427217272</v>
@@ -22589,7 +22589,7 @@
         <v>0.5396545952539643</v>
       </c>
       <c r="C762" t="n">
-        <v>1.129654548720308</v>
+        <v>32.59309097440617</v>
       </c>
       <c r="D762" t="n">
         <v>2.550783501233344</v>
@@ -22619,7 +22619,7 @@
         <v>-0.3515118018992803</v>
       </c>
       <c r="C763" t="n">
-        <v>0.156881147760773</v>
+        <v>13.13762295521546</v>
       </c>
       <c r="D763" t="n">
         <v>9.567277345724914</v>
@@ -22649,7 +22649,7 @@
         <v>0.2558296484343937</v>
       </c>
       <c r="C764" t="n">
-        <v>-0.1657194286734245</v>
+        <v>6.685611426531509</v>
       </c>
       <c r="D764" t="n">
         <v>3.468715534383752</v>
@@ -22679,7 +22679,7 @@
         <v>-0.4875518820444769</v>
       </c>
       <c r="C765" t="n">
-        <v>-0.00865465392050398</v>
+        <v>9.82690692158992</v>
       </c>
       <c r="D765" t="n">
         <v>5.68002650421553</v>
@@ -22709,7 +22709,7 @@
         <v>0.9091963516995218</v>
       </c>
       <c r="C766" t="n">
-        <v>-0.02996506648874011</v>
+        <v>9.400698670225198</v>
       </c>
       <c r="D766" t="n">
         <v>2.487636698322147</v>
@@ -22739,7 +22739,7 @@
         <v>-0.7992857138662712</v>
       </c>
       <c r="C767" t="n">
-        <v>-0.1757656039253121</v>
+        <v>6.484687921493758</v>
       </c>
       <c r="D767" t="inlineStr"/>
       <c r="E767" t="n">
@@ -22767,7 +22767,7 @@
         <v>-1.14207823909438</v>
       </c>
       <c r="C768" t="n">
-        <v>0.4461063625079075</v>
+        <v>18.92212725015815</v>
       </c>
       <c r="D768" t="inlineStr"/>
       <c r="E768" t="n">
@@ -22795,7 +22795,7 @@
         <v>0.02892686406155069</v>
       </c>
       <c r="C769" t="n">
-        <v>-0.9358602221223686</v>
+        <v>-8.717204442447372</v>
       </c>
       <c r="D769" t="n">
         <v>4.626420848406354</v>
@@ -22823,7 +22823,7 @@
         <v>-1.433525972288496</v>
       </c>
       <c r="C770" t="n">
-        <v>-0.8627910357403081</v>
+        <v>-7.255820714806163</v>
       </c>
       <c r="D770" t="inlineStr"/>
       <c r="E770" t="n">
@@ -22849,7 +22849,7 @@
         <v>-2.10511118806279</v>
       </c>
       <c r="C771" t="n">
-        <v>0.5592636894286356</v>
+        <v>21.18527378857271</v>
       </c>
       <c r="D771" t="n">
         <v>1.137094652423455</v>
@@ -22877,7 +22877,7 @@
       </c>
       <c r="B772" t="inlineStr"/>
       <c r="C772" t="n">
-        <v>-0.1452393407277962</v>
+        <v>7.095213185444075</v>
       </c>
       <c r="D772" t="n">
         <v>0.7943583202788014</v>
@@ -22907,7 +22907,7 @@
         <v>-0.9842244815608188</v>
       </c>
       <c r="C773" t="n">
-        <v>0.9713931021430959</v>
+        <v>29.42786204286192</v>
       </c>
       <c r="D773" t="n">
         <v>9.683564616827399</v>
@@ -22937,7 +22937,7 @@
         <v>-1.333651582583813</v>
       </c>
       <c r="C774" t="n">
-        <v>0.4088790006318637</v>
+        <v>18.17758001263727</v>
       </c>
       <c r="D774" t="n">
         <v>5.711523441455886</v>
@@ -22965,7 +22965,7 @@
         <v>-0.8117587769496082</v>
       </c>
       <c r="C775" t="n">
-        <v>-0.5526279100762321</v>
+        <v>-1.052558201524644</v>
       </c>
       <c r="D775" t="n">
         <v>1.032529263405667</v>
@@ -22995,7 +22995,7 @@
         <v>-0.8566506314107953</v>
       </c>
       <c r="C776" t="n">
-        <v>0.5750963631286746</v>
+        <v>21.50192726257349</v>
       </c>
       <c r="D776" t="n">
         <v>1.569170034540151</v>
@@ -23023,7 +23023,7 @@
       </c>
       <c r="B777" t="inlineStr"/>
       <c r="C777" t="n">
-        <v>1.197190957958936</v>
+        <v>33.94381915917872</v>
       </c>
       <c r="D777" t="n">
         <v>8.063815712576815</v>
@@ -23049,7 +23049,7 @@
         <v>-1.093486733685967</v>
       </c>
       <c r="C778" t="n">
-        <v>0.4469795561212538</v>
+        <v>18.93959112242508</v>
       </c>
       <c r="D778" t="n">
         <v>3.024478547320847</v>
@@ -23079,7 +23079,7 @@
         <v>0.4981861422561552</v>
       </c>
       <c r="C779" t="n">
-        <v>0.6655849430667965</v>
+        <v>23.31169886133593</v>
       </c>
       <c r="D779" t="n">
         <v>5.551509329235708</v>
@@ -23105,7 +23105,7 @@
         <v>0.6462341311577152</v>
       </c>
       <c r="C780" t="n">
-        <v>-0.1717708506034031</v>
+        <v>6.564582987931938</v>
       </c>
       <c r="D780" t="n">
         <v>1.916209579428128</v>
@@ -23135,7 +23135,7 @@
         <v>-1.274991450615535</v>
       </c>
       <c r="C781" t="n">
-        <v>0.9930398828805027</v>
+        <v>29.86079765761005</v>
       </c>
       <c r="D781" t="n">
         <v>2.400107830341682</v>
@@ -23163,7 +23163,7 @@
       </c>
       <c r="B782" t="inlineStr"/>
       <c r="C782" t="n">
-        <v>-0.5806904149296438</v>
+        <v>-1.613808298592875</v>
       </c>
       <c r="D782" t="n">
         <v>23.39546090500896</v>
@@ -23193,7 +23193,7 @@
         <v>-0.523057240038586</v>
       </c>
       <c r="C783" t="n">
-        <v>0.3385430257405165</v>
+        <v>16.77086051481033</v>
       </c>
       <c r="D783" t="n">
         <v>1.422549460200207</v>
@@ -23223,7 +23223,7 @@
         <v>-0.1650073613663418</v>
       </c>
       <c r="C784" t="n">
-        <v>2.569506152435933</v>
+        <v>61.39012304871866</v>
       </c>
       <c r="D784" t="n">
         <v>3.530720144762129</v>
@@ -23253,7 +23253,7 @@
         <v>1.082683516983682</v>
       </c>
       <c r="C785" t="n">
-        <v>0.5388810560256598</v>
+        <v>20.7776211205132</v>
       </c>
       <c r="D785" t="n">
         <v>9.302408632081757</v>
@@ -23283,7 +23283,7 @@
         <v>1.140313415002608</v>
       </c>
       <c r="C786" t="n">
-        <v>-0.4207112305918684</v>
+        <v>1.585775388162631</v>
       </c>
       <c r="D786" t="n">
         <v>1.367076401977804</v>
@@ -23313,7 +23313,7 @@
         <v>2.498867386165787</v>
       </c>
       <c r="C787" t="n">
-        <v>-0.4232922416913996</v>
+        <v>1.534155166172008</v>
       </c>
       <c r="D787" t="n">
         <v>2.682544472826357</v>
@@ -23343,7 +23343,7 @@
         <v>-2.269373929154178</v>
       </c>
       <c r="C788" t="n">
-        <v>-0.07134169729034448</v>
+        <v>8.573166054193111</v>
       </c>
       <c r="D788" t="n">
         <v>4.773745414306516</v>
@@ -23373,7 +23373,7 @@
         <v>-0.9242957231516289</v>
       </c>
       <c r="C789" t="n">
-        <v>0.8512457817294108</v>
+        <v>27.02491563458821</v>
       </c>
       <c r="D789" t="n">
         <v>3.281069942360004</v>
@@ -23403,7 +23403,7 @@
         <v>1.814009181074984</v>
       </c>
       <c r="C790" t="n">
-        <v>0.1457775091673821</v>
+        <v>12.91555018334764</v>
       </c>
       <c r="D790" t="n">
         <v>3.076324176906321</v>
@@ -23433,7 +23433,7 @@
         <v>-1.800700317776835</v>
       </c>
       <c r="C791" t="n">
-        <v>-0.6485278132383967</v>
+        <v>-2.970556264767934</v>
       </c>
       <c r="D791" t="n">
         <v>2.251081334425409</v>
@@ -23463,7 +23463,7 @@
         <v>1.791265064170706</v>
       </c>
       <c r="C792" t="n">
-        <v>-0.65029699278869</v>
+        <v>-3.0059398557738</v>
       </c>
       <c r="D792" t="n">
         <v>4.417258516328198</v>
@@ -23493,7 +23493,7 @@
         <v>0.1473512731432447</v>
       </c>
       <c r="C793" t="n">
-        <v>0.1520493310229803</v>
+        <v>13.04098662045961</v>
       </c>
       <c r="D793" t="n">
         <v>4.895789225277496</v>
@@ -23523,7 +23523,7 @@
         <v>0.1841327730225444</v>
       </c>
       <c r="C794" t="n">
-        <v>0.04239498673879082</v>
+        <v>10.84789973477582</v>
       </c>
       <c r="D794" t="inlineStr"/>
       <c r="E794" t="n">
@@ -23547,7 +23547,7 @@
         <v>-1.27979798611947</v>
       </c>
       <c r="C795" t="n">
-        <v>0.4549761691190209</v>
+        <v>19.09952338238042</v>
       </c>
       <c r="D795" t="n">
         <v>0.3648329307148518</v>
@@ -23577,7 +23577,7 @@
         <v>-0.4511632200042967</v>
       </c>
       <c r="C796" t="n">
-        <v>0.9174898957848946</v>
+        <v>28.34979791569789</v>
       </c>
       <c r="D796" t="n">
         <v>4.985256281683312</v>
@@ -23607,7 +23607,7 @@
         <v>1.747376359709906</v>
       </c>
       <c r="C797" t="n">
-        <v>2.727359702409499</v>
+        <v>64.54719404818998</v>
       </c>
       <c r="D797" t="n">
         <v>15.31333405089232</v>
@@ -23637,7 +23637,7 @@
         <v>-0.04768313524122676</v>
       </c>
       <c r="C798" t="n">
-        <v>-1.4620335167676</v>
+        <v>-19.24067033535201</v>
       </c>
       <c r="D798" t="n">
         <v>3.893375407074885</v>
@@ -23667,7 +23667,7 @@
         <v>-0.444499028210205</v>
       </c>
       <c r="C799" t="n">
-        <v>0.6868621272864411</v>
+        <v>23.73724254572882</v>
       </c>
       <c r="D799" t="n">
         <v>6.28101834853613</v>
@@ -23697,7 +23697,7 @@
         <v>0.405719196379236</v>
       </c>
       <c r="C800" t="n">
-        <v>0.0983077083882902</v>
+        <v>11.9661541677658</v>
       </c>
       <c r="D800" t="n">
         <v>4.067907100057877</v>
@@ -23725,7 +23725,7 @@
       </c>
       <c r="B801" t="inlineStr"/>
       <c r="C801" t="n">
-        <v>-1.844576231110588</v>
+        <v>-26.89152462221177</v>
       </c>
       <c r="D801" t="n">
         <v>9.646171486644002</v>
@@ -23755,7 +23755,7 @@
         <v>0.345151149806441</v>
       </c>
       <c r="C802" t="n">
-        <v>1.249530723651727</v>
+        <v>34.99061447303455</v>
       </c>
       <c r="D802" t="inlineStr"/>
       <c r="E802" t="n">
@@ -23777,7 +23777,7 @@
         <v>-0.8497413321599213</v>
       </c>
       <c r="C803" t="n">
-        <v>0.4211732265819475</v>
+        <v>18.42346453163895</v>
       </c>
       <c r="D803" t="n">
         <v>1.018052223836486</v>
@@ -23807,7 +23807,7 @@
         <v>-0.07715264860810528</v>
       </c>
       <c r="C804" t="n">
-        <v>0.7998062928201565</v>
+        <v>25.99612585640313</v>
       </c>
       <c r="D804" t="n">
         <v>2.871135394104808</v>
@@ -23837,7 +23837,7 @@
         <v>-0.6410762654407186</v>
       </c>
       <c r="C805" t="n">
-        <v>-1.699418945097683</v>
+        <v>-23.98837890195365</v>
       </c>
       <c r="D805" t="n">
         <v>2.491045250291711</v>
@@ -23865,7 +23865,7 @@
         <v>-1.803966640694677</v>
       </c>
       <c r="C806" t="n">
-        <v>-0.2204169274982085</v>
+        <v>5.591661450035829</v>
       </c>
       <c r="D806" t="n">
         <v>2.59777745287799</v>
@@ -23891,7 +23891,7 @@
         <v>0.4819577872476852</v>
       </c>
       <c r="C807" t="n">
-        <v>-1.079196944894296</v>
+        <v>-11.58393889788592</v>
       </c>
       <c r="D807" t="n">
         <v>0.6706531819782108</v>
@@ -23921,7 +23921,7 @@
         <v>-1.233772841555556</v>
       </c>
       <c r="C808" t="n">
-        <v>2.163100942680612</v>
+        <v>53.26201885361223</v>
       </c>
       <c r="D808" t="n">
         <v>8.399723735695408</v>
@@ -23951,7 +23951,7 @@
         <v>-0.1647409301041021</v>
       </c>
       <c r="C809" t="n">
-        <v>1.144550345744381</v>
+        <v>32.89100691488763</v>
       </c>
       <c r="D809" t="n">
         <v>0.1821076363383044</v>
@@ -23979,7 +23979,7 @@
         <v>0.9260682458279109</v>
       </c>
       <c r="C810" t="n">
-        <v>-0.680967783285462</v>
+        <v>-3.619355665709241</v>
       </c>
       <c r="D810" t="n">
         <v>3.756282548994407</v>
@@ -24009,7 +24009,7 @@
         <v>-1.49781345654043</v>
       </c>
       <c r="C811" t="n">
-        <v>-1.536638900949602</v>
+        <v>-20.73277801899204</v>
       </c>
       <c r="D811" t="n">
         <v>5.421748247633989</v>
@@ -24039,7 +24039,7 @@
         <v>0.6046840969496019</v>
       </c>
       <c r="C812" t="n">
-        <v>0.1940550663837549</v>
+        <v>13.8811013276751</v>
       </c>
       <c r="D812" t="n">
         <v>1.16262105005355</v>
@@ -24065,7 +24065,7 @@
         <v>-0.2998134569686626</v>
       </c>
       <c r="C813" t="n">
-        <v>1.09242200229436</v>
+        <v>31.84844004588719</v>
       </c>
       <c r="D813" t="n">
         <v>11.81434032114695</v>
@@ -24095,7 +24095,7 @@
         <v>-0.9665234009270639</v>
       </c>
       <c r="C814" t="n">
-        <v>-1.735053605435929</v>
+        <v>-24.70107210871858</v>
       </c>
       <c r="D814" t="n">
         <v>9.117774351030498</v>
@@ -24125,7 +24125,7 @@
         <v>2.022923288886068</v>
       </c>
       <c r="C815" t="n">
-        <v>-0.9317746709931696</v>
+        <v>-8.635493419863391</v>
       </c>
       <c r="D815" t="n">
         <v>3.184625692244194</v>
@@ -24153,7 +24153,7 @@
       </c>
       <c r="B816" t="inlineStr"/>
       <c r="C816" t="n">
-        <v>-1.105584709013959</v>
+        <v>-12.11169418027918</v>
       </c>
       <c r="D816" t="n">
         <v>2.647909917845884</v>
@@ -24177,7 +24177,7 @@
         <v>-0.5680928895767411</v>
       </c>
       <c r="C817" t="n">
-        <v>0.8669461659105872</v>
+        <v>27.33892331821174</v>
       </c>
       <c r="D817" t="n">
         <v>1.349655619245159</v>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="B818" t="inlineStr"/>
       <c r="C818" t="n">
-        <v>-0.3698290885445125</v>
+        <v>2.603418229109751</v>
       </c>
       <c r="D818" t="n">
         <v>6.546541131955335</v>
@@ -24233,7 +24233,7 @@
         <v>0.8811624684366963</v>
       </c>
       <c r="C819" t="n">
-        <v>-0.3279365223775054</v>
+        <v>3.441269552449892</v>
       </c>
       <c r="D819" t="n">
         <v>0.7063422307955451</v>
@@ -24259,7 +24259,7 @@
         <v>-0.6120562264634115</v>
       </c>
       <c r="C820" t="n">
-        <v>0.1746546806389676</v>
+        <v>13.49309361277935</v>
       </c>
       <c r="D820" t="n">
         <v>5.700887700485914</v>
@@ -24289,7 +24289,7 @@
         <v>0.7565180985410257</v>
       </c>
       <c r="C821" t="n">
-        <v>-0.8782808123290141</v>
+        <v>-7.565616246580284</v>
       </c>
       <c r="D821" t="n">
         <v>9.240283769962442</v>
@@ -24317,7 +24317,7 @@
       </c>
       <c r="B822" t="inlineStr"/>
       <c r="C822" t="n">
-        <v>-1.443686736727565</v>
+        <v>-18.8737347345513</v>
       </c>
       <c r="D822" t="inlineStr"/>
       <c r="E822" t="n">
@@ -24343,7 +24343,7 @@
         <v>1.116188064433848</v>
       </c>
       <c r="C823" t="n">
-        <v>1.369685162360285</v>
+        <v>37.3937032472057</v>
       </c>
       <c r="D823" t="n">
         <v>10.06555075217736</v>
@@ -24373,7 +24373,7 @@
         <v>-1.042539447482884</v>
       </c>
       <c r="C824" t="n">
-        <v>1.462485708479594</v>
+        <v>39.24971416959188</v>
       </c>
       <c r="D824" t="n">
         <v>0.1694553419609582</v>
@@ -24403,7 +24403,7 @@
         <v>-0.9030632390960045</v>
       </c>
       <c r="C825" t="n">
-        <v>0.1795824594631786</v>
+        <v>13.59164918926357</v>
       </c>
       <c r="D825" t="n">
         <v>12.19703147765662</v>
@@ -24431,7 +24431,7 @@
       </c>
       <c r="B826" t="inlineStr"/>
       <c r="C826" t="n">
-        <v>0.2521555056676198</v>
+        <v>15.0431101133524</v>
       </c>
       <c r="D826" t="n">
         <v>0.629869982525243</v>
@@ -24459,7 +24459,7 @@
         <v>-0.1980664975247759</v>
       </c>
       <c r="C827" t="n">
-        <v>1.261013976580008</v>
+        <v>35.22027953160016</v>
       </c>
       <c r="D827" t="n">
         <v>5.188891544144613</v>
@@ -24489,7 +24489,7 @@
         <v>-0.3545570286970106</v>
       </c>
       <c r="C828" t="n">
-        <v>0.15665355660374</v>
+        <v>13.1330711320748</v>
       </c>
       <c r="D828" t="n">
         <v>1.438960185247941</v>
@@ -24519,7 +24519,7 @@
         <v>2.631440405426518</v>
       </c>
       <c r="C829" t="n">
-        <v>-0.4190779059436456</v>
+        <v>1.618441881127087</v>
       </c>
       <c r="D829" t="n">
         <v>9.056313876416716</v>
@@ -24549,7 +24549,7 @@
         <v>2.063247004351908</v>
       </c>
       <c r="C830" t="n">
-        <v>0.03933912677746302</v>
+        <v>10.78678253554926</v>
       </c>
       <c r="D830" t="inlineStr"/>
       <c r="E830" t="inlineStr"/>
@@ -24575,7 +24575,7 @@
         <v>0.2990550748210432</v>
       </c>
       <c r="C831" t="n">
-        <v>1.393168637167473</v>
+        <v>37.86337274334945</v>
       </c>
       <c r="D831" t="n">
         <v>0.7265232237130842</v>
@@ -24605,7 +24605,7 @@
         <v>0.4169720740504576</v>
       </c>
       <c r="C832" t="n">
-        <v>0.05332166842880583</v>
+        <v>11.06643336857612</v>
       </c>
       <c r="D832" t="n">
         <v>4.231393564941667</v>
@@ -24635,7 +24635,7 @@
         <v>-0.2364321800795809</v>
       </c>
       <c r="C833" t="n">
-        <v>-0.6693825346535526</v>
+        <v>-3.387650693071052</v>
       </c>
       <c r="D833" t="n">
         <v>2.620251850847644</v>
@@ -24661,7 +24661,7 @@
         <v>-1.049825533518131</v>
       </c>
       <c r="C834" t="n">
-        <v>0.1470020492850975</v>
+        <v>12.94004098570195</v>
       </c>
       <c r="D834" t="n">
         <v>5.415385189205178</v>
@@ -24691,7 +24691,7 @@
         <v>-0.1820722405552521</v>
       </c>
       <c r="C835" t="n">
-        <v>0.6562231375357641</v>
+        <v>23.12446275071528</v>
       </c>
       <c r="D835" t="n">
         <v>10.68125684786703</v>
@@ -24721,7 +24721,7 @@
         <v>0.7711177514620537</v>
       </c>
       <c r="C836" t="n">
-        <v>0.5362534949056986</v>
+        <v>20.72506989811397</v>
       </c>
       <c r="D836" t="n">
         <v>2.63298953416776</v>
@@ -24747,7 +24747,7 @@
         <v>1.305626761568009</v>
       </c>
       <c r="C837" t="n">
-        <v>0.5528239480716095</v>
+        <v>21.05647896143219</v>
       </c>
       <c r="D837" t="n">
         <v>1.711611330361034</v>
@@ -24777,7 +24777,7 @@
         <v>0.9957084205227055</v>
       </c>
       <c r="C838" t="n">
-        <v>-0.8266776791334302</v>
+        <v>-6.533553582668603</v>
       </c>
       <c r="D838" t="n">
         <v>0.07310734562620469</v>
@@ -24807,7 +24807,7 @@
         <v>-1.509774293154212</v>
       </c>
       <c r="C839" t="n">
-        <v>0.7701035665584568</v>
+        <v>25.40207133116914</v>
       </c>
       <c r="D839" t="n">
         <v>4.276437236560772</v>
@@ -24837,7 +24837,7 @@
         <v>-0.2892276781537132</v>
       </c>
       <c r="C840" t="n">
-        <v>0.02846593921228912</v>
+        <v>10.56931878424578</v>
       </c>
       <c r="D840" t="n">
         <v>2.573120539668201</v>
@@ -24867,7 +24867,7 @@
         <v>-1.468867564865992</v>
       </c>
       <c r="C841" t="n">
-        <v>-0.711791167469455</v>
+        <v>-4.235823349389101</v>
       </c>
       <c r="D841" t="n">
         <v>2.347212685555492</v>
@@ -24897,7 +24897,7 @@
         <v>1.168843557402719</v>
       </c>
       <c r="C842" t="n">
-        <v>0.7621517136520333</v>
+        <v>25.24303427304066</v>
       </c>
       <c r="D842" t="n">
         <v>1.010185105704054</v>
@@ -24927,7 +24927,7 @@
         <v>-0.4123843948003326</v>
       </c>
       <c r="C843" t="n">
-        <v>-0.4536388489167639</v>
+        <v>0.927223021664723</v>
       </c>
       <c r="D843" t="n">
         <v>2.811080098472702</v>
@@ -24957,7 +24957,7 @@
         <v>-0.04711011563103306</v>
       </c>
       <c r="C844" t="n">
-        <v>-1.574297348555553</v>
+        <v>-21.48594697111106</v>
       </c>
       <c r="D844" t="n">
         <v>20.81588659872255</v>
@@ -24987,7 +24987,7 @@
         <v>0.4800502680050018</v>
       </c>
       <c r="C845" t="n">
-        <v>-1.000602381110322</v>
+        <v>-10.01204762220644</v>
       </c>
       <c r="D845" t="n">
         <v>1.767358639104466</v>
@@ -25017,7 +25017,7 @@
         <v>2.766139919811899</v>
       </c>
       <c r="C846" t="n">
-        <v>-0.1816369330470829</v>
+        <v>6.367261339058343</v>
       </c>
       <c r="D846" t="n">
         <v>4.577760191478498</v>
@@ -25073,7 +25073,7 @@
       </c>
       <c r="B848" t="inlineStr"/>
       <c r="C848" t="n">
-        <v>-0.8640699520880911</v>
+        <v>-7.281399041761823</v>
       </c>
       <c r="D848" t="n">
         <v>6.914656576048166</v>
@@ -25103,7 +25103,7 @@
         <v>-1.24104212120364</v>
       </c>
       <c r="C849" t="n">
-        <v>-0.2406624604375347</v>
+        <v>5.186750791249305</v>
       </c>
       <c r="D849" t="n">
         <v>1.993249081489855</v>
@@ -25133,7 +25133,7 @@
         <v>1.458639448503105</v>
       </c>
       <c r="C850" t="n">
-        <v>-1.216607231663058</v>
+        <v>-14.33214463326116</v>
       </c>
       <c r="D850" t="n">
         <v>4.719081587789814</v>
@@ -25163,7 +25163,7 @@
         <v>-0.1816364642970753</v>
       </c>
       <c r="C851" t="n">
-        <v>0.9820329162398111</v>
+        <v>29.64065832479622</v>
       </c>
       <c r="D851" t="n">
         <v>10.24998403147202</v>
@@ -25193,7 +25193,7 @@
         <v>1.6571424649277</v>
       </c>
       <c r="C852" t="n">
-        <v>1.717331113955552</v>
+        <v>44.34662227911103</v>
       </c>
       <c r="D852" t="inlineStr"/>
       <c r="E852" t="n">
@@ -25221,7 +25221,7 @@
         <v>1.105613112948723</v>
       </c>
       <c r="C853" t="n">
-        <v>1.609282524488321</v>
+        <v>42.18565048976642</v>
       </c>
       <c r="D853" t="n">
         <v>2.861150699321419</v>
@@ -25251,7 +25251,7 @@
         <v>-0.4629561026084717</v>
       </c>
       <c r="C854" t="n">
-        <v>0.9649795504861378</v>
+        <v>29.29959100972276</v>
       </c>
       <c r="D854" t="n">
         <v>1.26977581990785</v>
@@ -25281,7 +25281,7 @@
         <v>-1.392276180855904</v>
       </c>
       <c r="C855" t="n">
-        <v>0.8625099571202616</v>
+        <v>27.25019914240523</v>
       </c>
       <c r="D855" t="n">
         <v>2.460283423940062</v>
@@ -25311,7 +25311,7 @@
         <v>0.2725691172036068</v>
       </c>
       <c r="C856" t="n">
-        <v>-2.071879524403203</v>
+        <v>-31.43759048806405</v>
       </c>
       <c r="D856" t="n">
         <v>2.689182508746445</v>
@@ -25341,7 +25341,7 @@
         <v>-0.6149035287716018</v>
       </c>
       <c r="C857" t="n">
-        <v>0.1771732322201052</v>
+        <v>13.5434646444021</v>
       </c>
       <c r="D857" t="n">
         <v>6.865330503884196</v>
@@ -25371,7 +25371,7 @@
         <v>0.0393458424563057</v>
       </c>
       <c r="C858" t="n">
-        <v>-0.4960926236599081</v>
+        <v>0.07814752680183723</v>
       </c>
       <c r="D858" t="n">
         <v>0.4925969171454504</v>
@@ -25401,7 +25401,7 @@
         <v>1.049049606854338</v>
       </c>
       <c r="C859" t="n">
-        <v>0.8804663610449009</v>
+        <v>27.60932722089802</v>
       </c>
       <c r="D859" t="n">
         <v>3.59318556173226</v>
@@ -25431,7 +25431,7 @@
         <v>-1.653582115624834</v>
       </c>
       <c r="C860" t="n">
-        <v>-2.537597875681329</v>
+        <v>-40.75195751362657</v>
       </c>
       <c r="D860" t="n">
         <v>4.15279952822622</v>
@@ -25459,7 +25459,7 @@
         <v>0.2646138440682139</v>
       </c>
       <c r="C861" t="n">
-        <v>0.1929677027701782</v>
+        <v>13.85935405540356</v>
       </c>
       <c r="D861" t="n">
         <v>3.407650638406653</v>
@@ -25489,7 +25489,7 @@
         <v>0.7595961908857367</v>
       </c>
       <c r="C862" t="n">
-        <v>-0.2144437838324025</v>
+        <v>5.71112432335195</v>
       </c>
       <c r="D862" t="inlineStr"/>
       <c r="E862" t="n">
@@ -25517,7 +25517,7 @@
         <v>0.8081105617560631</v>
       </c>
       <c r="C863" t="n">
-        <v>1.118429932931404</v>
+        <v>32.36859865862809</v>
       </c>
       <c r="D863" t="n">
         <v>2.420847512855456</v>
@@ -25547,7 +25547,7 @@
         <v>-1.363542171187423</v>
       </c>
       <c r="C864" t="n">
-        <v>1.547987053674738</v>
+        <v>40.95974107349477</v>
       </c>
       <c r="D864" t="n">
         <v>14.49911715038411</v>
@@ -25577,7 +25577,7 @@
         <v>0.4193364697739637</v>
       </c>
       <c r="C865" t="n">
-        <v>-0.9288460170127683</v>
+        <v>-8.576920340255366</v>
       </c>
       <c r="D865" t="n">
         <v>3.287003270696498</v>
@@ -25607,7 +25607,7 @@
         <v>1.203536581906693</v>
       </c>
       <c r="C866" t="n">
-        <v>-0.8837104358968152</v>
+        <v>-7.674208717936303</v>
       </c>
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="n">
@@ -25631,7 +25631,7 @@
         <v>0.3432337984000757</v>
       </c>
       <c r="C867" t="n">
-        <v>0.2304966212117137</v>
+        <v>14.60993242423427</v>
       </c>
       <c r="D867" t="n">
         <v>8.730035955161274</v>
@@ -25661,7 +25661,7 @@
         <v>-0.1156942061085367</v>
       </c>
       <c r="C868" t="n">
-        <v>1.733762691521542</v>
+        <v>44.67525383043083</v>
       </c>
       <c r="D868" t="n">
         <v>1.609546702602801</v>
@@ -25691,7 +25691,7 @@
         <v>1.139612940573444</v>
       </c>
       <c r="C869" t="n">
-        <v>0.06014467728301608</v>
+        <v>11.20289354566032</v>
       </c>
       <c r="D869" t="n">
         <v>0.3908998739891716</v>
@@ -25717,7 +25717,7 @@
         <v>-0.69431881043883</v>
       </c>
       <c r="C870" t="n">
-        <v>-1.27916141535433</v>
+        <v>-15.58322830708661</v>
       </c>
       <c r="D870" t="n">
         <v>6.151309750512977</v>
@@ -25747,7 +25747,7 @@
         <v>-1.52983290820327</v>
       </c>
       <c r="C871" t="n">
-        <v>-0.6058684461632928</v>
+        <v>-2.117368923265857</v>
       </c>
       <c r="D871" t="n">
         <v>3.298676680824179</v>
@@ -25777,7 +25777,7 @@
         <v>-0.2005978149309315</v>
       </c>
       <c r="C872" t="n">
-        <v>0.2026641644634616</v>
+        <v>14.05328328926923</v>
       </c>
       <c r="D872" t="n">
         <v>11.34112369593888</v>
@@ -25807,7 +25807,7 @@
         <v>0.5350451917039986</v>
       </c>
       <c r="C873" t="n">
-        <v>0.2402024285639563</v>
+        <v>14.80404857127913</v>
       </c>
       <c r="D873" t="n">
         <v>20.27948094462683</v>
@@ -25833,7 +25833,7 @@
         <v>1.038936761436434</v>
       </c>
       <c r="C874" t="n">
-        <v>-0.7040876355923733</v>
+        <v>-4.081752711847466</v>
       </c>
       <c r="D874" t="n">
         <v>2.546711543565591</v>
@@ -25863,7 +25863,7 @@
         <v>0.5305025741679322</v>
       </c>
       <c r="C875" t="n">
-        <v>-0.6257906937796218</v>
+        <v>-2.515813875592436</v>
       </c>
       <c r="D875" t="n">
         <v>2.684470843137113</v>
@@ -25893,7 +25893,7 @@
         <v>0.8358210687248578</v>
       </c>
       <c r="C876" t="n">
-        <v>-0.9815679945563983</v>
+        <v>-9.631359891127968</v>
       </c>
       <c r="D876" t="n">
         <v>2.620927370718042</v>
@@ -25921,7 +25921,7 @@
       </c>
       <c r="B877" t="inlineStr"/>
       <c r="C877" t="n">
-        <v>1.141171183853795</v>
+        <v>32.82342367707591</v>
       </c>
       <c r="D877" t="n">
         <v>1.961911140094643</v>
@@ -25951,7 +25951,7 @@
         <v>-0.3393770062981106</v>
       </c>
       <c r="C878" t="n">
-        <v>-0.8347751792933896</v>
+        <v>-6.695503585867794</v>
       </c>
       <c r="D878" t="n">
         <v>7.609129569748331</v>
@@ -25981,7 +25981,7 @@
         <v>-0.1479393019075899</v>
       </c>
       <c r="C879" t="n">
-        <v>-0.4647942039182839</v>
+        <v>0.7041159216343225</v>
       </c>
       <c r="D879" t="n">
         <v>7.114703813100176</v>
@@ -26011,7 +26011,7 @@
         <v>1.287167793149876</v>
       </c>
       <c r="C880" t="n">
-        <v>-0.4932529165239524</v>
+        <v>0.134941669520952</v>
       </c>
       <c r="D880" t="n">
         <v>3.256619195060079</v>
@@ -26041,7 +26041,7 @@
         <v>-1.210157024230687</v>
       </c>
       <c r="C881" t="n">
-        <v>-1.605957247515391</v>
+        <v>-22.11914495030783</v>
       </c>
       <c r="D881" t="n">
         <v>0.2284462708105395</v>
@@ -26071,7 +26071,7 @@
         <v>0.429132861522295</v>
       </c>
       <c r="C882" t="n">
-        <v>-0.8634153048178157</v>
+        <v>-7.268306096356312</v>
       </c>
       <c r="D882" t="n">
         <v>1.852125959046899</v>
@@ -26101,7 +26101,7 @@
         <v>-0.7167088289170213</v>
       </c>
       <c r="C883" t="n">
-        <v>1.228137599286538</v>
+        <v>34.56275198573076</v>
       </c>
       <c r="D883" t="n">
         <v>1.728696543886581</v>
@@ -26131,7 +26131,7 @@
         <v>1.10026160323097</v>
       </c>
       <c r="C884" t="n">
-        <v>-1.209287841790728</v>
+        <v>-14.18575683581456</v>
       </c>
       <c r="D884" t="n">
         <v>8.332349953045222</v>
@@ -26161,7 +26161,7 @@
         <v>-0.0179354805751397</v>
       </c>
       <c r="C885" t="n">
-        <v>-0.9636423018263676</v>
+        <v>-9.272846036527351</v>
       </c>
       <c r="D885" t="n">
         <v>0.4582500856869021</v>
@@ -26191,7 +26191,7 @@
         <v>0.007593935378123897</v>
       </c>
       <c r="C886" t="n">
-        <v>-1.332545773779259</v>
+        <v>-16.65091547558518</v>
       </c>
       <c r="D886" t="n">
         <v>8.191126072142179</v>
@@ -26217,7 +26217,7 @@
         <v>1.728879887396686</v>
       </c>
       <c r="C887" t="n">
-        <v>-0.09061156023126084</v>
+        <v>8.187768795374783</v>
       </c>
       <c r="D887" t="n">
         <v>5.530959490334038</v>
@@ -26247,7 +26247,7 @@
         <v>-1.076042779448646</v>
       </c>
       <c r="C888" t="n">
-        <v>1.88547672126629</v>
+        <v>47.70953442532581</v>
       </c>
       <c r="D888" t="n">
         <v>6.592084461084299</v>
@@ -26277,7 +26277,7 @@
         <v>0.215819473218603</v>
       </c>
       <c r="C889" t="n">
-        <v>-0.1326942215270716</v>
+        <v>7.346115569458568</v>
       </c>
       <c r="D889" t="n">
         <v>2.830046304851693</v>
@@ -26307,7 +26307,7 @@
         <v>-0.180126131097821</v>
       </c>
       <c r="C890" t="n">
-        <v>0.0667621253543897</v>
+        <v>11.33524250708779</v>
       </c>
       <c r="D890" t="n">
         <v>5.69288881306179</v>
@@ -26335,7 +26335,7 @@
         <v>0.5324113160430312</v>
       </c>
       <c r="C891" t="n">
-        <v>-0.7954472358669886</v>
+        <v>-5.908944717339772</v>
       </c>
       <c r="D891" t="n">
         <v>4.695608745601748</v>
@@ -26365,7 +26365,7 @@
         <v>1.929330786688946</v>
       </c>
       <c r="C892" t="n">
-        <v>-0.06161804479227241</v>
+        <v>8.767639104154552</v>
       </c>
       <c r="D892" t="n">
         <v>7.326259185971878</v>
@@ -26423,7 +26423,7 @@
         <v>-1.197397712354045</v>
       </c>
       <c r="C894" t="n">
-        <v>0.1429093876381736</v>
+        <v>12.85818775276347</v>
       </c>
       <c r="D894" t="n">
         <v>3.201119513103112</v>
@@ -26453,7 +26453,7 @@
         <v>-0.8093274256820062</v>
       </c>
       <c r="C895" t="n">
-        <v>2.131770082062164</v>
+        <v>52.63540164124328</v>
       </c>
       <c r="D895" t="n">
         <v>5.158174352574665</v>
@@ -26483,7 +26483,7 @@
         <v>-0.2328180822209189</v>
       </c>
       <c r="C896" t="n">
-        <v>1.259479712305691</v>
+        <v>35.18959424611382</v>
       </c>
       <c r="D896" t="n">
         <v>0.5718801324185143</v>
@@ -26513,7 +26513,7 @@
         <v>0.06423083370332693</v>
       </c>
       <c r="C897" t="n">
-        <v>-0.08631634544493307</v>
+        <v>8.273673091101339</v>
       </c>
       <c r="D897" t="n">
         <v>2.865672702614737</v>
@@ -26543,7 +26543,7 @@
         <v>0.1145287957865823</v>
       </c>
       <c r="C898" t="n">
-        <v>-0.1057878755921152</v>
+        <v>7.884242488157695</v>
       </c>
       <c r="D898" t="n">
         <v>17.86898390753443</v>
@@ -26573,7 +26573,7 @@
         <v>1.802660951175434</v>
       </c>
       <c r="C899" t="n">
-        <v>1.630923137623631</v>
+        <v>42.61846275247262</v>
       </c>
       <c r="D899" t="n">
         <v>0.1913778640080914</v>
@@ -26603,7 +26603,7 @@
         <v>1.624839044654842</v>
       </c>
       <c r="C900" t="n">
-        <v>0.137325575855229</v>
+        <v>12.74651151710458</v>
       </c>
       <c r="D900" t="n">
         <v>1.899021330794271</v>
@@ -26633,7 +26633,7 @@
         <v>1.30294648906696</v>
       </c>
       <c r="C901" t="n">
-        <v>1.408921560271723</v>
+        <v>38.17843120543446</v>
       </c>
       <c r="D901" t="n">
         <v>1.88518875103757</v>
@@ -26661,7 +26661,7 @@
       </c>
       <c r="B902" t="inlineStr"/>
       <c r="C902" t="n">
-        <v>2.002907340126667</v>
+        <v>50.05814680253334</v>
       </c>
       <c r="D902" t="n">
         <v>5.018294306586045</v>
@@ -26691,7 +26691,7 @@
         <v>0.8240984566626314</v>
       </c>
       <c r="C903" t="n">
-        <v>-0.2042193678241093</v>
+        <v>5.915612643517814</v>
       </c>
       <c r="D903" t="n">
         <v>0.5591310856642036</v>
@@ -26721,7 +26721,7 @@
         <v>1.10835508351264</v>
       </c>
       <c r="C904" t="n">
-        <v>0.3519553659350156</v>
+        <v>17.03910731870031</v>
       </c>
       <c r="D904" t="n">
         <v>4.951624718648919</v>
@@ -26751,7 +26751,7 @@
         <v>0.8047705218937661</v>
       </c>
       <c r="C905" t="n">
-        <v>0.9800041845663794</v>
+        <v>29.60008369132759</v>
       </c>
       <c r="D905" t="n">
         <v>0.4993240053960954</v>
@@ -26781,7 +26781,7 @@
         <v>0.6409053137937868</v>
       </c>
       <c r="C906" t="n">
-        <v>0.7675000390225197</v>
+        <v>25.35000078045039</v>
       </c>
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="n">
@@ -26809,7 +26809,7 @@
         <v>0.3943965241828417</v>
       </c>
       <c r="C907" t="n">
-        <v>0.7604907329205013</v>
+        <v>25.20981465841002</v>
       </c>
       <c r="D907" t="n">
         <v>6.513137736546152</v>
@@ -26895,7 +26895,7 @@
         <v>-0.1306539689621132</v>
       </c>
       <c r="C910" t="n">
-        <v>-0.4952670209411876</v>
+        <v>0.09465958117624851</v>
       </c>
       <c r="D910" t="n">
         <v>0.1903421558909903</v>
@@ -26925,7 +26925,7 @@
         <v>0.5657736996720634</v>
       </c>
       <c r="C911" t="n">
-        <v>1.214420803468676</v>
+        <v>34.28841606937352</v>
       </c>
       <c r="D911" t="n">
         <v>2.94489685292618</v>
@@ -26955,7 +26955,7 @@
         <v>0.07226190097399007</v>
       </c>
       <c r="C912" t="n">
-        <v>-1.235374907126886</v>
+        <v>-14.70749814253772</v>
       </c>
       <c r="D912" t="n">
         <v>0.6003178198435635</v>
@@ -26985,7 +26985,7 @@
         <v>-1.065335694119256</v>
       </c>
       <c r="C913" t="n">
-        <v>1.523226707178839</v>
+        <v>40.46453414357678</v>
       </c>
       <c r="D913" t="n">
         <v>2.164533284773254</v>
@@ -27015,7 +27015,7 @@
         <v>-0.1658830499833783</v>
       </c>
       <c r="C914" t="n">
-        <v>0.779834114078683</v>
+        <v>25.59668228157366</v>
       </c>
       <c r="D914" t="n">
         <v>31.66259804961095</v>
@@ -27041,7 +27041,7 @@
         <v>-0.2180028085831379</v>
       </c>
       <c r="C915" t="n">
-        <v>1.154230224722774</v>
+        <v>33.08460449445548</v>
       </c>
       <c r="D915" t="n">
         <v>10.98403635033898</v>
@@ -27071,7 +27071,7 @@
         <v>-0.06235464196878009</v>
       </c>
       <c r="C916" t="n">
-        <v>-0.9295330772449988</v>
+        <v>-8.590661544899977</v>
       </c>
       <c r="D916" t="n">
         <v>0.2476553393448612</v>
@@ -27097,7 +27097,7 @@
       </c>
       <c r="B917" t="inlineStr"/>
       <c r="C917" t="n">
-        <v>0.07230236269013023</v>
+        <v>11.4460472538026</v>
       </c>
       <c r="D917" t="n">
         <v>4.142038551554562</v>
@@ -27127,7 +27127,7 @@
         <v>0.7062580369103023</v>
       </c>
       <c r="C918" t="n">
-        <v>0.2989427861313163</v>
+        <v>15.97885572262632</v>
       </c>
       <c r="D918" t="n">
         <v>5.218097074605094</v>
@@ -27153,7 +27153,7 @@
         <v>-0.5000514509745525</v>
       </c>
       <c r="C919" t="n">
-        <v>0.2549670020226936</v>
+        <v>15.09934004045387</v>
       </c>
       <c r="D919" t="n">
         <v>1.175667116776356</v>
@@ -27211,7 +27211,7 @@
         <v>1.131638119668312</v>
       </c>
       <c r="C921" t="n">
-        <v>-0.2765264803951116</v>
+        <v>4.469470392097769</v>
       </c>
       <c r="D921" t="n">
         <v>11.73692571129152</v>
@@ -27239,7 +27239,7 @@
         <v>0.3203019330485454</v>
       </c>
       <c r="C922" t="n">
-        <v>0.1352070810636594</v>
+        <v>12.70414162127319</v>
       </c>
       <c r="D922" t="n">
         <v>17.33932146842782</v>
@@ -27269,7 +27269,7 @@
         <v>0.6647502719530682</v>
       </c>
       <c r="C923" t="n">
-        <v>1.033563955065187</v>
+        <v>30.67127910130374</v>
       </c>
       <c r="D923" t="n">
         <v>24.0750489674099</v>
@@ -27299,7 +27299,7 @@
         <v>0.9842314424619487</v>
       </c>
       <c r="C924" t="n">
-        <v>-1.16651230844089</v>
+        <v>-13.3302461688178</v>
       </c>
       <c r="D924" t="n">
         <v>7.797569902174625</v>
@@ -27327,7 +27327,7 @@
       </c>
       <c r="B925" t="inlineStr"/>
       <c r="C925" t="n">
-        <v>1.547050118905403</v>
+        <v>40.94100237810807</v>
       </c>
       <c r="D925" t="n">
         <v>5.445816398545025</v>
@@ -27357,7 +27357,7 @@
         <v>1.054731334981796</v>
       </c>
       <c r="C926" t="n">
-        <v>0.9818989563684475</v>
+        <v>29.63797912736895</v>
       </c>
       <c r="D926" t="n">
         <v>2.12117777071019</v>
@@ -27379,7 +27379,7 @@
         <v>-0.7900608725979532</v>
       </c>
       <c r="C927" t="n">
-        <v>-0.9652018926833332</v>
+        <v>-9.304037853666664</v>
       </c>
       <c r="D927" t="n">
         <v>0.9400785628085345</v>
@@ -27409,7 +27409,7 @@
         <v>-0.6927016366283786</v>
       </c>
       <c r="C928" t="n">
-        <v>0.3838360434553216</v>
+        <v>17.67672086910643</v>
       </c>
       <c r="D928" t="n">
         <v>0.4113708909987741</v>
@@ -27439,7 +27439,7 @@
         <v>0.196289167814761</v>
       </c>
       <c r="C929" t="n">
-        <v>0.9014987761580446</v>
+        <v>28.02997552316089</v>
       </c>
       <c r="D929" t="n">
         <v>5.909384770348765</v>
@@ -27469,7 +27469,7 @@
         <v>-2.144040125674669</v>
       </c>
       <c r="C930" t="n">
-        <v>-1.235293323885684</v>
+        <v>-14.70586647771368</v>
       </c>
       <c r="D930" t="n">
         <v>7.67915818292259</v>
@@ -27495,7 +27495,7 @@
         <v>0.1756203082257603</v>
       </c>
       <c r="C931" t="n">
-        <v>0.0419784333766009</v>
+        <v>10.83956866753202</v>
       </c>
       <c r="D931" t="n">
         <v>8.756552912222602</v>
@@ -27525,7 +27525,7 @@
         <v>0.9817809469558025</v>
       </c>
       <c r="C932" t="n">
-        <v>-0.07851530083500619</v>
+        <v>8.429693983299876</v>
       </c>
       <c r="D932" t="n">
         <v>12.25339594775174</v>
@@ -27555,7 +27555,7 @@
         <v>-1.645923846446017</v>
       </c>
       <c r="C933" t="n">
-        <v>-0.6455805425068946</v>
+        <v>-2.91161085013789</v>
       </c>
       <c r="D933" t="n">
         <v>10.59838369359596</v>
@@ -27585,7 +27585,7 @@
         <v>1.089009324546451</v>
       </c>
       <c r="C934" t="n">
-        <v>0.09235683676401318</v>
+        <v>11.84713673528026</v>
       </c>
       <c r="D934" t="n">
         <v>41.29867119349373</v>
@@ -27613,7 +27613,7 @@
         <v>-0.698787618527455</v>
       </c>
       <c r="C935" t="n">
-        <v>-0.6002865759627902</v>
+        <v>-2.005731519255804</v>
       </c>
       <c r="D935" t="n">
         <v>1.398992884894816</v>
@@ -27643,7 +27643,7 @@
         <v>0.2068617804928008</v>
       </c>
       <c r="C936" t="n">
-        <v>1.374307068970737</v>
+        <v>37.48614137941474</v>
       </c>
       <c r="D936" t="n">
         <v>7.204969677007088</v>
@@ -27673,7 +27673,7 @@
         <v>-0.553574507005462</v>
       </c>
       <c r="C937" t="n">
-        <v>-0.6266443213274101</v>
+        <v>-2.532886426548203</v>
       </c>
       <c r="D937" t="inlineStr"/>
       <c r="E937" t="n">
@@ -27695,7 +27695,7 @@
         <v>0.5729184841290459</v>
       </c>
       <c r="C938" t="n">
-        <v>0.7919789400131583</v>
+        <v>25.83957880026317</v>
       </c>
       <c r="D938" t="n">
         <v>1.513945606941079</v>
@@ -27723,7 +27723,7 @@
         <v>1.024947556163764</v>
       </c>
       <c r="C939" t="n">
-        <v>-1.655386387620164</v>
+        <v>-23.10772775240329</v>
       </c>
       <c r="D939" t="n">
         <v>20.06068716476804</v>
@@ -27753,7 +27753,7 @@
         <v>0.6470103643824976</v>
       </c>
       <c r="C940" t="n">
-        <v>-0.1618098038499612</v>
+        <v>6.763803923000776</v>
       </c>
       <c r="D940" t="n">
         <v>11.40891995768843</v>
@@ -27783,7 +27783,7 @@
         <v>-0.003981149493700086</v>
       </c>
       <c r="C941" t="n">
-        <v>0.01231115735135885</v>
+        <v>10.24622314702718</v>
       </c>
       <c r="D941" t="n">
         <v>0.6877869644589436</v>
@@ -27813,7 +27813,7 @@
         <v>-0.4758553365934252</v>
       </c>
       <c r="C942" t="n">
-        <v>-0.1942910506155306</v>
+        <v>6.114178987689387</v>
       </c>
       <c r="D942" t="n">
         <v>0.1325327883797401</v>
@@ -27841,7 +27841,7 @@
         <v>-0.06930202937111309</v>
       </c>
       <c r="C943" t="n">
-        <v>-0.396318297195391</v>
+        <v>2.07363405609218</v>
       </c>
       <c r="D943" t="n">
         <v>5.829063945978085</v>
@@ -27899,7 +27899,7 @@
         <v>0.6902663991729188</v>
       </c>
       <c r="C945" t="n">
-        <v>0.754540780014903</v>
+        <v>25.09081560029806</v>
       </c>
       <c r="D945" t="n">
         <v>13.72997732060906</v>
@@ -27929,7 +27929,7 @@
         <v>0.5508265821761223</v>
       </c>
       <c r="C946" t="n">
-        <v>0.99945785509538</v>
+        <v>29.9891571019076</v>
       </c>
       <c r="D946" t="n">
         <v>1.332900057817498</v>
@@ -27979,7 +27979,7 @@
       </c>
       <c r="B948" t="inlineStr"/>
       <c r="C948" t="n">
-        <v>-1.09663750802164</v>
+        <v>-11.9327501604328</v>
       </c>
       <c r="D948" t="n">
         <v>1.500226474003301</v>
@@ -28009,7 +28009,7 @@
         <v>-0.6334289641971518</v>
       </c>
       <c r="C949" t="n">
-        <v>1.793949331386828</v>
+        <v>45.87898662773655</v>
       </c>
       <c r="D949" t="n">
         <v>0.09554530595229192</v>
@@ -28039,7 +28039,7 @@
         <v>0.6649290199058278</v>
       </c>
       <c r="C950" t="n">
-        <v>-0.8797974329078807</v>
+        <v>-7.595948658157614</v>
       </c>
       <c r="D950" t="n">
         <v>0.1827636830323197</v>
@@ -28069,7 +28069,7 @@
         <v>-0.7649717533785967</v>
       </c>
       <c r="C951" t="n">
-        <v>-1.459422258483147</v>
+        <v>-19.18844516966295</v>
       </c>
       <c r="D951" t="n">
         <v>12.31716274331177</v>
@@ -28099,7 +28099,7 @@
         <v>0.4520537580842248</v>
       </c>
       <c r="C952" t="n">
-        <v>-2.01262191651977</v>
+        <v>-30.2524383303954</v>
       </c>
       <c r="D952" t="n">
         <v>2.169450866189877</v>
@@ -28129,7 +28129,7 @@
         <v>-0.2821877608145297</v>
       </c>
       <c r="C953" t="n">
-        <v>0.09945189691266046</v>
+        <v>11.98903793825321</v>
       </c>
       <c r="D953" t="n">
         <v>2.645024355865408</v>
@@ -28157,7 +28157,7 @@
       </c>
       <c r="B954" t="inlineStr"/>
       <c r="C954" t="n">
-        <v>-0.2174163855152364</v>
+        <v>5.651672289695272</v>
       </c>
       <c r="D954" t="n">
         <v>0.09271254603719914</v>
@@ -28187,7 +28187,7 @@
         <v>0.9309592858879975</v>
       </c>
       <c r="C955" t="n">
-        <v>1.030956649146339</v>
+        <v>30.61913298292679</v>
       </c>
       <c r="D955" t="n">
         <v>1.577128838831855</v>
@@ -28217,7 +28217,7 @@
         <v>-0.02528722186395775</v>
       </c>
       <c r="C956" t="n">
-        <v>0.6110845634455472</v>
+        <v>22.22169126891094</v>
       </c>
       <c r="D956" t="n">
         <v>8.166757476109176</v>
@@ -28247,7 +28247,7 @@
         <v>1.275977295765692</v>
       </c>
       <c r="C957" t="n">
-        <v>0.2902012245850378</v>
+        <v>15.80402449170076</v>
       </c>
       <c r="D957" t="n">
         <v>4.778939891963666</v>
@@ -28277,7 +28277,7 @@
         <v>-1.665309078677637</v>
       </c>
       <c r="C958" t="n">
-        <v>-0.2713671954627496</v>
+        <v>4.572656090745008</v>
       </c>
       <c r="D958" t="n">
         <v>7.007661375115611</v>
@@ -28305,7 +28305,7 @@
       </c>
       <c r="B959" t="inlineStr"/>
       <c r="C959" t="n">
-        <v>1.109977272197667</v>
+        <v>32.19954544395333</v>
       </c>
       <c r="D959" t="n">
         <v>2.963919317778727</v>
@@ -28363,7 +28363,7 @@
         <v>0.2702062912383115</v>
       </c>
       <c r="C961" t="n">
-        <v>1.008979199129904</v>
+        <v>30.17958398259807</v>
       </c>
       <c r="D961" t="n">
         <v>3.296725738021351</v>
@@ -28391,7 +28391,7 @@
       </c>
       <c r="B962" t="inlineStr"/>
       <c r="C962" t="n">
-        <v>-0.46353163084921</v>
+        <v>0.7293673830158003</v>
       </c>
       <c r="D962" t="n">
         <v>1.950944935343642</v>
@@ -28421,7 +28421,7 @@
         <v>0.5440378567737789</v>
       </c>
       <c r="C963" t="n">
-        <v>0.7815655538821751</v>
+        <v>25.6313110776435</v>
       </c>
       <c r="D963" t="n">
         <v>9.130857031732919</v>
@@ -28451,7 +28451,7 @@
         <v>1.911662406281033</v>
       </c>
       <c r="C964" t="n">
-        <v>-0.4020897254672149</v>
+        <v>1.9582054906557</v>
       </c>
       <c r="D964" t="n">
         <v>1.766785951680827</v>
@@ -28481,7 +28481,7 @@
         <v>0.4745373464655318</v>
       </c>
       <c r="C965" t="n">
-        <v>-1.105067315859974</v>
+        <v>-12.10134631719949</v>
       </c>
       <c r="D965" t="n">
         <v>5.390573638781251</v>
@@ -28509,7 +28509,7 @@
         <v>0.09287240182351211</v>
       </c>
       <c r="C966" t="n">
-        <v>-0.8990390621219452</v>
+        <v>-7.980781242438905</v>
       </c>
       <c r="D966" t="n">
         <v>0.736599941188994</v>
@@ -28539,7 +28539,7 @@
         <v>-1.377457407025374</v>
       </c>
       <c r="C967" t="n">
-        <v>-0.3581784041377457</v>
+        <v>2.836431917245087</v>
       </c>
       <c r="D967" t="n">
         <v>5.805628208975674</v>
@@ -28595,7 +28595,7 @@
         <v>-0.05584490082277285</v>
       </c>
       <c r="C969" t="n">
-        <v>2.060581152575459</v>
+        <v>51.21162305150918</v>
       </c>
       <c r="D969" t="n">
         <v>4.689910931066562</v>
@@ -28625,7 +28625,7 @@
         <v>-0.5297764708428292</v>
       </c>
       <c r="C970" t="n">
-        <v>-0.8816894756118676</v>
+        <v>-7.633789512237353</v>
       </c>
       <c r="D970" t="n">
         <v>4.103259621670079</v>
@@ -28655,7 +28655,7 @@
         <v>1.026256426270985</v>
       </c>
       <c r="C971" t="n">
-        <v>1.323488489691328</v>
+        <v>36.46976979382656</v>
       </c>
       <c r="D971" t="n">
         <v>16.23615376806782</v>
@@ -28683,7 +28683,7 @@
         <v>0.5337032009686378</v>
       </c>
       <c r="C972" t="n">
-        <v>-0.317259551692569</v>
+        <v>3.65480896614862</v>
       </c>
       <c r="D972" t="n">
         <v>4.936202879325115</v>
@@ -28713,7 +28713,7 @@
         <v>2.69237858764697</v>
       </c>
       <c r="C973" t="n">
-        <v>-2.016384987445344</v>
+        <v>-30.32769974890687</v>
       </c>
       <c r="D973" t="n">
         <v>1.502488773235641</v>
@@ -28743,7 +28743,7 @@
         <v>-0.9808584364242914</v>
       </c>
       <c r="C974" t="n">
-        <v>-0.5057260029303379</v>
+        <v>-0.1145200586067574</v>
       </c>
       <c r="D974" t="n">
         <v>1.729318157144721</v>
@@ -28771,7 +28771,7 @@
         <v>0.03311461139173281</v>
       </c>
       <c r="C975" t="n">
-        <v>1.176696993167691</v>
+        <v>33.53393986335382</v>
       </c>
       <c r="D975" t="n">
         <v>6.10909964742742</v>
@@ -28801,7 +28801,7 @@
         <v>-1.383492372534291</v>
       </c>
       <c r="C976" t="n">
-        <v>0.3446695193292358</v>
+        <v>16.89339038658472</v>
       </c>
       <c r="D976" t="n">
         <v>6.648371678888633</v>
@@ -28831,7 +28831,7 @@
         <v>-2.222440774590325</v>
       </c>
       <c r="C977" t="n">
-        <v>0.4044511986639568</v>
+        <v>18.08902397327914</v>
       </c>
       <c r="D977" t="n">
         <v>1.80841037783657</v>
@@ -28861,7 +28861,7 @@
         <v>0.7227209794531527</v>
       </c>
       <c r="C978" t="n">
-        <v>1.32850400884438</v>
+        <v>36.5700801768876</v>
       </c>
       <c r="D978" t="n">
         <v>2.118226692148139</v>
@@ -28891,7 +28891,7 @@
         <v>0.4966153829673562</v>
       </c>
       <c r="C979" t="n">
-        <v>-1.036336288935728</v>
+        <v>-10.72672577871455</v>
       </c>
       <c r="D979" t="n">
         <v>23.58414622337706</v>
@@ -28921,7 +28921,7 @@
         <v>-0.8545904346457899</v>
       </c>
       <c r="C980" t="n">
-        <v>-1.05175043009225</v>
+        <v>-11.035008601845</v>
       </c>
       <c r="D980" t="n">
         <v>0.5376618598243866</v>
@@ -28951,7 +28951,7 @@
         <v>0.09302961959342355</v>
       </c>
       <c r="C981" t="n">
-        <v>-2.263728609296424</v>
+        <v>-35.27457218592848</v>
       </c>
       <c r="D981" t="n">
         <v>2.592987302345543</v>
@@ -28981,7 +28981,7 @@
         <v>-0.6292675989255446</v>
       </c>
       <c r="C982" t="n">
-        <v>0.8770820712427847</v>
+        <v>27.54164142485569</v>
       </c>
       <c r="D982" t="n">
         <v>0.3224127799049553</v>
@@ -29007,7 +29007,7 @@
         <v>-0.4942074548432761</v>
       </c>
       <c r="C983" t="n">
-        <v>0.5624842336296031</v>
+        <v>21.24968467259206</v>
       </c>
       <c r="D983" t="n">
         <v>8.604036727599937</v>
@@ -29037,7 +29037,7 @@
         <v>-0.3202846127662741</v>
       </c>
       <c r="C984" t="n">
-        <v>0.7239665195911139</v>
+        <v>24.47933039182228</v>
       </c>
       <c r="D984" t="n">
         <v>0.4844592641493253</v>
@@ -29067,7 +29067,7 @@
         <v>-0.8965651774042779</v>
       </c>
       <c r="C985" t="n">
-        <v>-1.18301122405678</v>
+        <v>-13.66022448113561</v>
       </c>
       <c r="D985" t="n">
         <v>5.604402318532895</v>
@@ -29125,7 +29125,7 @@
         <v>-0.688435443944254</v>
       </c>
       <c r="C987" t="n">
-        <v>-1.319618308433333</v>
+        <v>-16.39236616866665</v>
       </c>
       <c r="D987" t="n">
         <v>5.586759484335008</v>
@@ -29155,7 +29155,7 @@
         <v>0.4228788467533307</v>
       </c>
       <c r="C988" t="n">
-        <v>-0.9225722723587043</v>
+        <v>-8.451445447174088</v>
       </c>
       <c r="D988" t="n">
         <v>9.258724160390786</v>
@@ -29185,7 +29185,7 @@
         <v>-2.774220175984814</v>
       </c>
       <c r="C989" t="n">
-        <v>1.553958908912854</v>
+        <v>41.07917817825708</v>
       </c>
       <c r="D989" t="n">
         <v>2.544317141689821</v>
@@ -29215,7 +29215,7 @@
         <v>-0.2276292614848027</v>
       </c>
       <c r="C990" t="n">
-        <v>1.000126723782502</v>
+        <v>30.00253447565004</v>
       </c>
       <c r="D990" t="n">
         <v>3.692046060613943</v>
@@ -29245,7 +29245,7 @@
         <v>-1.087681876537673</v>
       </c>
       <c r="C991" t="n">
-        <v>-0.4582206406203203</v>
+        <v>0.8355871875935943</v>
       </c>
       <c r="D991" t="n">
         <v>2.56699247051124</v>
@@ -29273,7 +29273,7 @@
       </c>
       <c r="B992" t="inlineStr"/>
       <c r="C992" t="n">
-        <v>0.2992519932599849</v>
+        <v>15.9850398651997</v>
       </c>
       <c r="D992" t="inlineStr"/>
       <c r="E992" t="n">
@@ -29297,7 +29297,7 @@
         <v>-0.525653374083725</v>
       </c>
       <c r="C993" t="n">
-        <v>-0.6783622461477388</v>
+        <v>-3.567244922954774</v>
       </c>
       <c r="D993" t="n">
         <v>8.129447519630409</v>
@@ -29327,7 +29327,7 @@
         <v>-0.01433970997315794</v>
       </c>
       <c r="C994" t="n">
-        <v>0.364279760781657</v>
+        <v>17.28559521563314</v>
       </c>
       <c r="D994" t="n">
         <v>1.587288830682332</v>
@@ -29357,7 +29357,7 @@
         <v>-0.2144118617066934</v>
       </c>
       <c r="C995" t="n">
-        <v>-1.138095737741998</v>
+        <v>-12.76191475483996</v>
       </c>
       <c r="D995" t="n">
         <v>6.417667747841813</v>
@@ -29387,7 +29387,7 @@
         <v>-1.064060509798204</v>
       </c>
       <c r="C996" t="n">
-        <v>0.7502514459739312</v>
+        <v>25.00502891947863</v>
       </c>
       <c r="D996" t="n">
         <v>1.15460029596616</v>
@@ -29417,7 +29417,7 @@
         <v>0.7216965184455768</v>
       </c>
       <c r="C997" t="n">
-        <v>-0.849703297584393</v>
+        <v>-6.994065951687858</v>
       </c>
       <c r="D997" t="n">
         <v>1.437435764438031</v>
@@ -29447,7 +29447,7 @@
         <v>-0.9026039868604906</v>
       </c>
       <c r="C998" t="n">
-        <v>0.8059150285431569</v>
+        <v>26.11830057086314</v>
       </c>
       <c r="D998" t="n">
         <v>2.050839463757182</v>
@@ -29477,7 +29477,7 @@
         <v>-0.7347062559261178</v>
       </c>
       <c r="C999" t="n">
-        <v>-0.427422908194342</v>
+        <v>1.45154183611316</v>
       </c>
       <c r="D999" t="n">
         <v>4.447713085818727</v>
@@ -29507,7 +29507,7 @@
         <v>0.2844917858945168</v>
       </c>
       <c r="C1000" t="n">
-        <v>-0.7900759535982739</v>
+        <v>-5.801519071965478</v>
       </c>
       <c r="D1000" t="n">
         <v>3.0295504042005</v>
@@ -29537,7 +29537,7 @@
         <v>0.3203685642927417</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.612996717249656</v>
+        <v>42.25993434499313</v>
       </c>
       <c r="D1001" t="n">
         <v>6.835298884036546</v>
